--- a/영화관 - 기능정의서.xlsx
+++ b/영화관 - 기능정의서.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="290">
   <si>
     <t>기능 정의서</t>
   </si>
@@ -680,6 +680,7 @@
       </rPr>
       <t xml:space="preserve">.
 d-1) PW형식에 맞지 않으면 'PW형식에 맞지 않습니다'를 메세지 띄워준다.
+e) pw와 pw확인 이 일치하지 않으면 'pw와 pw확인이 일치하지 않습니다'를 메세지 띄워준다.
 e) </t>
     </r>
     <r>
@@ -1468,53 +1469,31 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
       <t xml:space="preserve">a) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>회원의</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 이메일과 연락처를 받아서 두 정보가 일치하면 아이디를 알려준다.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>회원의 이메일과 연락처를 받아서 두 정보가 일치하면 아이디를 알려준다. (아이디를 메시지로 띄워준다)</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">
 b) </t>
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>일치하지</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="돋움"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> 않으면 '회원 정보가 일치하지 않습니다' 메시지를 띄워준다.</t>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>일치하지 않으면 '회원 정보가 일치하지 않습니다' 메시지를 띄워준다.</t>
     </r>
   </si>
   <si>
@@ -1574,8 +1553,8 @@
 + 한줄평 조회</t>
   </si>
   <si>
-    <t>a) 영화에 대한 정보로 '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우, 예매율, 개봉날짜'를 조회된다.
-b) 영화 정보 아래 쪽에는 '한줄평'이 있어 전체 별점과 회원이 작성한 별점(5개 만점)과 한줄평과 작성자 ID를 조회된다.</t>
+    <t>a) 영화에 대한 정보로 '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우, 예매율, 개봉날짜'가 조회된다.
+b) 영화 정보 아래 쪽에는 '한줄평'이 있어 전체 별점과 회원이 작성한 별점(5개 만점), 한줄평, 작성자 ID를 조회된다.</t>
   </si>
   <si>
     <t xml:space="preserve">    5.2</t>
@@ -1596,7 +1575,7 @@
         <color rgb="FF000000"/>
       </rPr>
       <t>초기화면에서 '예매'에 마우스를 올려 '상영스케줄'을 클릭하면 상영스케줄 조회 페이지로 이동한다.
-b) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄을 조회된다. (영화명, 상영시간)
+b) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄이 조회된다. (영화명, 상영시간)
 c) 날짜를 클릭하여 해당 날짜의 상영스케줄을 조회된다.</t>
     </r>
   </si>
@@ -1619,7 +1598,7 @@
         <color rgb="FF000000"/>
       </rPr>
       <t>초기화면에서 '기프티콘' 메뉴 선택 시 기프티콘 페이지로 이동한다.
-b) 기프티콘 페이지에서 현재 판매 중인 기프티콘 전체를 조회된다.
+b) 기프티콘 페이지에서 현재 판매 중인 기프티콘 전체가 조회된다.
 c) 기프티콘 페이지에서 키워드(이름)를 통해 기프티콘을 검색한다.
 d) 기프티콘 페이지에서 기프티콘 조회 후, 기프티콘 하나를 클릭하면 기프티콘 상세보기 페이지로 이동한다.</t>
     </r>
@@ -2050,7 +2029,18 @@
 d) 자신이 작성한 한줄평 옆에는 '수정'과 '삭제'버튼이 있고, 다른 회원이 작성한 한줄평 옆에는 '신고' 버튼이 있다.
 e) '수정'버튼을 눌러 모달창을 통해 한줄평을 수정한다.
 f) '삭제'버튼을 눌러 자신이 작성한 한줄평을 삭제한다.
-g) '신고'버튼을 눌러 모달창을 통해 '신고내용'을 입력하여 다른 회원이 작성한 한줄평을 신고한다.</t>
+g) '신고'버튼을 눌러 신고하기 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      6.1.1.1</t>
+  </si>
+  <si>
+    <t>한줄평 신고</t>
+  </si>
+  <si>
+    <t>a) 신고하기 페이지에는 '신고 제목 / 신고 내용'을 입력할 수 있는 칸이 있다.
+b) 내용을 입력한 뒤 '신고하기' 버튼을 눌러서 신고를 한 뒤, 영화 상세보기 페이지로 이동한다.
+c) '취소' 버튼을 눌러서 영화 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
     <t xml:space="preserve">     6.2</t>
@@ -2123,9 +2113,15 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>초기화면에서 '예매'에 마우스를 올려 '예매'를 클릭하면 예매 페이지로 이동한다.
-b) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄을 조회할 수 있다. (영화명, 상영시간)
-c) 날짜를 클릭하여 해당 날짜의 상영스케줄을 조회할 수 있다.</t>
+      <t xml:space="preserve">초기화면에서 '예매'에 마우스를 올려 '예매'를 클릭하면 예매 페이지로 이동한다.
+b) 영화를 선택하고 상영시간/상영관을 선택하면 좌석선택 페이지로 이동한다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>c)  좌석 선택 페이지에서 좌석을 선택하면 결제 창으로 이동한다.</t>
     </r>
   </si>
   <si>
@@ -2529,22 +2525,30 @@
 c)  자신이 작성하지 않은 게시글인 경우 '신고' 버튼이 보인다.
 d) '수정'버튼을 눌러 수정화면으로 가서 게시글을 수정한다.
 e) '삭제'버튼을 누르면 '삭제하시겠습니까?' 메시지 뜨고, 확인을 누르면 삭제가 완료되고, 리뷰게시판 조회 페이지로 이동한다.
-f) '신고'버튼을 눌러 신고 사유를 작성한 후,  확인을 눌러 게시글을 신고한다.
-g) 'LIST' 버튼을 눌러 리뷰 게시판 조회 페이지로 되돌아간다.</t>
+f) '신고'버튼을 눌러 신고하기 페이지로 이동한다.
+g) 'LIST' 버튼을 눌러 리뷰 게시판 조회 페이지로 되돌아간다.
+h)상세보기에서 댓글 입력란에 입력화여 등록한다. 등록된 댓글은 게시물 내용 밑에 댓글 목록이 조회된다.</t>
   </si>
   <si>
     <t xml:space="preserve">      6.8.1.1</t>
+  </si>
+  <si>
+    <t>리뷰 게시글 신고</t>
+  </si>
+  <si>
+    <t>a) 신고하기 페이지에는 '신고 제목 / 신고 내용'을 입력할 수 있는 칸이 있다.
+b) 내용을 입력한 뒤 '신고하기' 버튼을 눌러서 신고를 한 뒤, 리뷰글 상세보기 페이지로 이동한다.
+c) '취소' 버튼을 눌러서 리뷰 게시글 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
     <t>리뷰 게시글
 수정</t>
   </si>
   <si>
-    <t xml:space="preserve">a) 수정화면에서 제목, 내용을 수정하여  '수정'을 누르면 '수정하시겠습니까?'라는 알림창이 뜨고,  확인을 누르면 수정이 완료되며 
+    <t>a) 수정화면에서 제목, 내용을 수정하여  '수정'을 누르면 '수정하시겠습니까?'라는 알림창이 뜨고,  확인을 누르면 수정이 완료되며 
 상세보기 페이지로 돌아간다.
 b) 작성중 취소버튼을 누르면 게시글 작성이 취소되면서 '수정을 취소하시겠습니까?' 라는 메시지가 나오고, 확인을 누르면 리뷰게시판
- 페이지로 이동한다
-</t>
+ 페이지로 이동한다</t>
   </si>
   <si>
     <t xml:space="preserve">    6.9</t>
@@ -2553,14 +2557,14 @@
     <t>채용정보</t>
   </si>
   <si>
-    <t>a) 초기화면에서 채용정보를 클릭 시 채용공고 게시판과 내 지원현황게시판 메뉴가 보여지고
-     그 중 채용공고 게시판목록이 먼저 조회된다.</t>
+    <t>a) 초기화면에서 채용정보를 클릭 시 채용공고 게시판과 내 지원현황게시판 메뉴가 보여지고 그 중 채용공고 게시판목록이 먼저 조회된다.
+b) 내 지원 현황 게시판을 클릭 시 내 지원 현황 게시판목록이 조회된다.</t>
   </si>
   <si>
     <t xml:space="preserve">      6.9.1</t>
   </si>
   <si>
-    <t>채용정보 게시판</t>
+    <t>채용정보 게시판 조회</t>
   </si>
   <si>
     <t>a) 채용정보의 채용공고 게시판에서 현재 진행중인 채용공고가 조회된다.
@@ -2590,7 +2594,7 @@
 - 지원하기</t>
   </si>
   <si>
-    <t>a)  상세보기 창에서 지원하기 버튼을 눌러 지원서(사진, 이름, 자기소개, 주소, 전화번호, 이메일, 알바경력)를 넣어서 지원한다.
+    <t>a)  지원서(사진, 이름, 자기소개, 주소, 전화번호, 이메일, 알바경력)를 넣어서 '지원하기' 버튼을 눌러 지원한다.
 (필수입력 사진, 이름, 자기소개, 주소, 전화번호, 이메일)</t>
   </si>
   <si>
@@ -2828,11 +2832,12 @@
     <t>a) 영화에 대한 정보로 '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우, 예매율'가 조회된다.
 b) 영화 상세보기 페이지에서 '수정', '삭제', 'list' 버튼이 있다.
 c) '수정' 버튼을 누르면 영화 수정페이지로 이동한다.
-d) '삭제' 버튼을 누르면 영화 삭제페이지로 이동한다.
+d) '삭제' 버튼을 누르면 '삭제하시겠습니까?' 라는 알림창이 뜨고, 확인을 누르면 삭제가 완료되고 영화 랭킹 조회 페이지로 이동한다.
+a-1) 확인을 누르면 삭제가 완료되고 영화랭킹 조회페이지로 돌아간다.
 e) 'list' 버튼을 누르면 영화랭킹조회페이지로 이동한다.
 f) 영화 정보 아래 쪽에는 '한줄평'이 있어 전체 별점과 회원이 작성한 별점(5개 만점)과 한줄평과 작성자 ID가 조회된다.
 g) 모든회원이 작성한 한줄평 옆에는 '삭제'버튼이 있다.
-h) '삭제'버튼을 눌러 자신이 작성한 한줄평을 삭제한다.</t>
+h) '삭제'버튼을 눌러 '삭제하시겠습니까?' 창이 뜨고, 확인을 눌러서 한줄평을 삭제한다.</t>
   </si>
   <si>
     <t xml:space="preserve">      7.1.2.1</t>
@@ -2841,25 +2846,26 @@
     <t>영화 수정</t>
   </si>
   <si>
-    <t xml:space="preserve">a) 영화수정페이지에서  '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우'를 수정하여 수정을 누르면 '수정하시겠습니까?'라는 알림창이 뜬다.
+    <t>a) 영화수정페이지에서  '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우'를 수정하여 수정을 누르면 '수정하시겠습니까?'라는 알림창이 뜬다.
 a-1) 확인을 누르면 수정이 완료되고 상세보기 페이지로 돌아간다.
-b) 작성중 취소버튼을 누르면 게시글 작성이 취소되고 '수정을 취소하시겠습니까?' 라는 메시지가 나오며 영화랭킹조회 페이지로 이동한다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      7.1.2.2</t>
-  </si>
-  <si>
-    <t>영화 삭제</t>
-  </si>
-  <si>
-    <t>a) 영화수정페이지에서 '삭제' 버튼을 누르면 '삭제하시겠습니까?' 라는 알림창이 뜬다
-a-1) 확인을 누르면 삭제가 완료되고 영화랭킹 조회페이지로 돌아간다.</t>
+b) 작성중 취소버튼을 누르면 게시글 작성이 취소되고 '수정을 취소하시겠습니까?' 라는 메시지가 나오며 영화랭킹조회 페이지로 이동한다</t>
   </si>
   <si>
     <t xml:space="preserve">     7.2</t>
   </si>
   <si>
+    <t>a) 초기화면에서 '상영스케줄' 메뉴 선택 시 '상영스케줄 조회' 페이지로 이동한다.
+b) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄이 조회된다 (영화명, 상영시간)
+c) 날짜를 클릭하면 해당 날짜의 상영스케줄 상세보기 페이지로 이동한다.
+d) 상영스케줄 등록 버튼을 누르면 상영스케줄 등록 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.2.1</t>
+  </si>
+  <si>
+    <t>상영스케줄 등록</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <color rgb="FF000000"/>
@@ -2868,38 +2874,6 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">초기화면에서 '상영스케줄' 메뉴 선택 시 '상영스케줄 조회' 페이지로 이동한다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">b) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄이 조회된다 (영화명, 상영시간)
-c) 날짜를 클릭하면 상영스케줄 상세보기 페이지로 이동한다.
-d) 상영스케줄 등록 버튼을 누르면 상영스케줄 등록 페이지로 이동한다.
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.2.1</t>
-  </si>
-  <si>
-    <t>상영스케줄 등록</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">상영스케줄 등록 페이지에서 상영시간, 상영관 을 입력하여 등록한다.
@@ -2920,32 +2894,24 @@
     <t>상영스케줄 상세보기</t>
   </si>
   <si>
-    <t xml:space="preserve">a) 상영스케줄 페이지에서  '상영시간, 상영관'을 수정하여 수정을 누르면 '수정하시겠습니까?'라는 알림창이 뜬다.
+    <t>a) 선택된 날짜의 상영스케줄이 조회된다. (영화명, 상영시간)
+b) '수정'버튼과 '삭제'버튼이 있다.
+c) '수정'버튼을 눌러 해당 날짜의 상영스케줄을 수정한다.
+d) '삭제'버튼을 눌러 '삭제하시겠습니까?' 창이 뜨고, 확인을 누르면 해당 날짜의 상영스케줄을 삭제하고, 오늘 날짜의 상영스케줄 조회로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.2.2.1</t>
+  </si>
+  <si>
+    <t>상영스케줄 수정</t>
+  </si>
+  <si>
+    <t>a) 상영스케줄 페이지에서  '상영시간, 상영관'을 수정하여 수정을 누르면 '수정하시겠습니까?'라는 알림창이 뜬다.
 a-1) 확인을 누르면 수정이 완료되고 상세보기 페이지로 돌아간다.
-b) 작성중 취소버튼을 누르면 게시글 작성이 취소되고 '수정을 취소하시겠습니까?' 라는 메시지가 나오며 상영스케줄 페이지로 이동한다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.2.2.1</t>
-  </si>
-  <si>
-    <t>상영스케줄 수정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) 상영스케줄 페이지에서  '상영시간, 상영관'을 수정하여 수정을 누르면 '수정하시겠습니까?'라는 알림창이 뜬다.
-a-1) 확인을 누르면 수정이 완료되고 상세보기 페이지로 돌아간다.
-b) 작성중 취소버튼을 누르면 게시글 작성이 취소되고 '수정을 취소하시겠습니까?' 라는 메시지가 나오며 영화랭킹조회 페이지로 이동한다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     7.2.2.2</t>
-  </si>
-  <si>
-    <t>상영스케줄 삭제</t>
-  </si>
-  <si>
-    <t>a) 상영스케줄 수정페이지에서 '삭제' 버튼을 누르면 '삭제하시겠습니까?' 라는 알림창이 뜬다
-a-1) 확인을 누르면 삭제가 완료되고 상영스케줄 조회페이지로 돌아간다.</t>
+b) 작성중 취소버튼을 누르면 게시글 작성이 취소되고 '수정을 취소하시겠습니까?' 라는 메시지가 나오며 영화랭킹조회 페이지로 이동한다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.3</t>
   </si>
   <si>
     <t>할인정보 조회</t>
@@ -2960,31 +2926,42 @@
 d) 할인정보 게시판에서 게시글 조회 후, 게시글 클릭하면 게시글 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">     7.3.1</t>
+  </si>
+  <si>
     <t>할인정보 상세보기</t>
   </si>
   <si>
     <t>a) 게시글 상세보기에서는 '제목, 내용, 조회수, 작성한 시간'이 보여진다.
-b) 'LIST' 버튼을 눌러 할인정보 게시판 조회 페이지로 되돌아간다.</t>
+b) '수정', '삭제', 'LIST' 버튼이 있다.
+c) 'LIST' 버튼을 눌러 할인정보 게시판 조회 페이지로 되돌아간다.
+d) '수정' 버튼을 눌러 게시글 수정하는 페이지로 이동한다.
+e) '삭제' 버튼을 누르면 '삭제하시겠습니까?' 메시지가 뜨고, 확인을 누르면 할인정보 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.3.2</t>
   </si>
   <si>
     <t>할인정보 등록</t>
   </si>
   <si>
-    <t>a)할인정보 게시판에서 등록키를 클릭하여 등록 페이지로 이동한다.
-b)관리자는 등록페이지에서  제목과 내용을 입력하여 등록한다</t>
+    <t>a)할인정보 게시판에서 등록 버튼을 클릭하여 등록 페이지로 이동한다.
+b)관리자는 등록페이지에서  제목과 내용을 입력하여 '등록하기' 버튼을 눌러서 등록하고, 해당 게시물 상세보기 페이지로 이동한다.
+c) '취소' 버튼을 눌러서 게시글 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.3.1.1</t>
   </si>
   <si>
     <t>할인정보 수정</t>
   </si>
   <si>
     <t>a)할인정보 게시판 상세보기 페이지에서 수정버튼을 클릭하여 수정페이지로 이동한다.
-b)관리자는 수정페이지에서 제목과 내용을 수정한다.</t>
-  </si>
-  <si>
-    <t>할인정보 삭제</t>
-  </si>
-  <si>
-    <t>a)할인정보 게시판 상세보기 페이지에서 삭제버튼을 클릭하여 게시물을 삭제한다.</t>
+b)관리자는 수정페이지에서 수정할 제목과 내용을 입력하고, '수정완료' 버튼을 눌러 수정하고, 할인정보 상세보기 페이지로 이동한다.
+c) '취소'버튼을 누르면 할인정보 상세보기 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.4</t>
   </si>
   <si>
     <t>건의사항 조회/검색</t>
@@ -2992,7 +2969,10 @@
   <si>
     <t>a)관리자는 메인페이지에서 건의사항게시판을 클릭하여 건의사항 게시판 페이지로 이동한다.
 b)관리자는 건의사항 페이지에서 게시물의 목록을 조회할수 있다.
-c)관리자는 건의사항 페이지의 검색란에 검색어를 입력하여 김색(제목,내용,아이디)한다.</t>
+c)관리자는 건의사항 페이지의 검색란에 검색어를 입력하여 검색(제목,내용,아이디)한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.4.1</t>
   </si>
   <si>
     <t>건의사항 상세보기</t>
@@ -3000,13 +2980,11 @@
   <si>
     <t>a)관리자는 건의사항 게시판에서 게시물을 클릭하여 상세보기 가능하다.(제목, 내용, 아이디, 비밀글/공개글 여부)
 b)건의사항 상세보기 게시판은 삭제/LIST버튼이 존재한다.
-C)LIST버튼을 클릭하면 건의사항 게시판으로 이동한다.</t>
-  </si>
-  <si>
-    <t>건의사항 삭제</t>
-  </si>
-  <si>
-    <t>a)관리자는 건의사항 상세보기 페이지에서 삭제버튼을 클릭하여 게시물을 삭제한다.</t>
+C)LIST버튼을 클릭하면 건의사항 게시판으로 이동한다.
+d) '삭제'버튼을 눌러 '삭제하시겠습니까?' 창이 뜨고, 확인을 누르면 게시글을 삭제하고, 건의사항 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.5</t>
   </si>
   <si>
     <t>습득물 조회/검색</t>
@@ -3017,6 +2995,9 @@
 c)관리자는 습득물 알람 게시판에서  검색란에 검색어(제목/내용)을 입력하여 검색할수 있다</t>
   </si>
   <si>
+    <t xml:space="preserve">     7.5.1</t>
+  </si>
+  <si>
     <t>습득물 등록</t>
   </si>
   <si>
@@ -3025,41 +3006,52 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">     7.5.2</t>
+  </si>
+  <si>
     <t>습득물 상세보기</t>
   </si>
   <si>
     <t>a)관리자는 습득물 알람 게시판에서 게시물을 클릭하여 상세보기 할수 있다.
 b)습득물 알람 게시판에서 수정/삭제 /LIST버튼이 존재한다.
-C)LIST버튼을 클릭하면 습득물 알람 게시판으로 이동한다.</t>
+C)LIST버튼을 클릭하면 습득물 알람 게시판으로 이동한다.
+d) '수정' 버튼을 눌러 게시글 수정 페이지로 이동한다.
+e) '삭제' 버튼을 누르면 '삭제하시겠습니까?' 창이 뜨고, 확인을 클릭하면 삭제가 되고, 습득물 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.5.2.1</t>
   </si>
   <si>
     <t>습득물 수정</t>
   </si>
   <si>
     <t>a)관리자는 습득물 알람상세보기 페이지에서 수정 버튼을 클릭하여 수정페이지로 이동한다.
-b)수정페이지에서 게시물의 (제목, 분실물 특징, 날짜, 습득 위치)을 수정할수 있다.</t>
-  </si>
-  <si>
-    <t>습득물 삭제</t>
-  </si>
-  <si>
-    <t>a)관리자는 습득물 알람 상세보기 페이지에서 삭제 버튼을 클릭하여 게시물을 삭제한다.</t>
+b)수정페이지에서 게시물의 수정할 내용 (제목, 분실물 특징, 날짜, 습득 위치)을 입력하고, 수정버튼을 눌러 수정한 뒤, 습득물 상세보기 페이지로 이동한다.
+c) 취소 버튼을 눌러서 습득물 상세보기 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.6</t>
   </si>
   <si>
     <t>기프티콘 조회/검색</t>
   </si>
   <si>
-    <t xml:space="preserve">a)관리자는 메인에서 기프티콘 관리를 클릭하여 기프티콘 관리게시판으로 이동한다.
+    <t>a)관리자는 메인에서 기프티콘 관리를 클릭하여 기프티콘 관리게시판으로 이동한다.
 b)관리자는 기프티콘 관리 게시판에서 게시물 목록을 조회한다.
-c)관리자는 기프티콘 관리 게시판의 검색창에 검색어를 입력하여 검색할수 있다. (이름, 구성, 가격)
-</t>
+c)관리자는 기프티콘 관리 게시판의 검색창에 검색어를 입력하여 검색할수 있다. (이름, 구성, 가격)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.6.1</t>
   </si>
   <si>
     <t>a)관리자는 기프티콘 관리게시판에서 현재 판매중인 기프티콘 게시물을 클릭하여 상세보기 한다.
 b) 상세보기 페이지에는 기프티콘 사진, 이름, 구성, 가격과 '수정', '삭제', 'LIST' 버튼이 있다.
 c) 수정 버튼을 클릭하면 기프티콘 수정 페이지로 이동한다.
-d) 삭제 버튼을 클릭하면 해당 기프티콘을 삭제한다.
+d) 삭제 버튼을 클릭하면 '삭제하시겠습니까?' 창이 뜨고, 확인 버튼을 누르면 해당 기프티콘을 삭제하고, 기프티콘 조회 페이지로 이동한다.
 e) 'LIST' 버튼을 클릭하면 기프티콘 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.6.1.1</t>
   </si>
   <si>
     <t>기프티콘 수정</t>
@@ -3070,21 +3062,196 @@
 c) '취소'버튼을 누르면 기프티콘 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
-    <t>신고관리</t>
-  </si>
-  <si>
-    <t>a)관리자는 메인에서 신고 관리를 클릭하여 리뷰신고/리뷰댓글 신고/한줄평 신고 중 리뷰신고를 먼저 조회한다. ( 신고자ID, 신고내용, 신고제목[리뷰 
-제목/댓글 내용/한줄평 내용], 체크박스 )
-b)관리자는 신고내용을 클릭하여 신고 상세보기 한다. 
-관리자는 신고 제목을 클릭하여 해당 신고 게시물의 게시판 상세보기로 이동한다.
-c)관리자는 신고 내역 옆의 체크박스를 선택하여 신고된 게시물/댓글/한줄평을 삭제한다. ( 삭제가 완료되면 신고 내역에서는 처리결과가 미처리-&gt;삭제완료로 변경된다.)</t>
+    <t xml:space="preserve">     7.7</t>
+  </si>
+  <si>
+    <t>지원서 조회/검색</t>
+  </si>
+  <si>
+    <t>a)관리자는 메인에서 지원서관리를 클릭하여 지원서관리게시판으로 이동한다.
+b)관리자는 지원서관리 게시판에서 게시물 목록을 조회한다.
+c)관리자는 지원서관리 게시판의 검색창에 검색어(이름)를 입력하여 검색할수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.7.1</t>
+  </si>
+  <si>
+    <t>지원서 상세보기</t>
+  </si>
+  <si>
+    <t>a)관리자는 지원서 관리게시판에서 회원들이 작성한 지원서를 클릭하여 상세보기 한다.
+b) 상세보기 페이지에는 사진, 이름,  지원서내용이 있고 ,
+     즐겨찾기 추가 안했을경우 '즐겨찾기 추가', 'LIST' 버튼이 있고,
+     즐겨찾기 추가 했을경우 '즐겨찾기 해제', 'LIST' 버튼이 있다
+c) 즐겨찾기 추가 버튼을 클릭하여 즐겨찾기에 추가한다.
+d) 즐겨찾기 해제 버튼을 클릭하여 즐겨찾기에 해제한다.
+e) 'LIST' 버튼을 클릭하면 지원서 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.8</t>
+  </si>
+  <si>
+    <t>즐겨찾기 지원서 조회</t>
+  </si>
+  <si>
+    <t>a)관리자는 메인에서 즐겨찾는 지원서관리를 클릭하여 즐겨찾는 지원서관리게시판으로 이동한다.
+b)관리자는 즐겨찾는 지원서관리 게시판에서 게시물 목록을 조회한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.8.1</t>
+  </si>
+  <si>
+    <t>즐겨찾기 지원서 상세보기</t>
+  </si>
+  <si>
+    <t>a)관리자는 즐겨찾기 지원서 관리게시판에서 회원들이 작성한 즐겨찾는 지원서를 클릭하여 상세보기 한다.
+b) 상세보기 페이지에는 사진, 이름,  지원서내용이 있고 ,
+     '즐겨찾기 해제', 'LIST' 버튼이 있다
+c) 즐겨찾기 해제 버튼을 클릭하여 즐겨찾기에 해제한다.
+d) 'LIST' 버튼을 클릭하면 즐겨찾기 지원서 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.9</t>
+  </si>
+  <si>
+    <t>회원 조회/검색</t>
+  </si>
+  <si>
+    <t>a) 관리자는 메인에서 회원관리를 클릭하여 회원 조회 페이지로 이동한다.
+b) 관리자는 모든 회원의 정보를 조회한다.
+c) 관리자는 모든 회원을 키워드(이름, 아이디)로 검색한다.
+d) 회원의 이름을 클릭하여 회원의 정보를 상세보기한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.9.1</t>
+  </si>
+  <si>
+    <t>회원 상세보기</t>
+  </si>
+  <si>
+    <t>a)관리자는 회원 관리게시판에서 회원의 이름을 클릭하여 회원의 정보를 상세보기 한다.
+b) 상세보기 페이지에는 '아이디, 이름, 이메일, 생년월일, 핸드폰번호' 있고 '예매내역보기',  '삭제', 'List' 버튼이 있다
+c) 삭제 버튼을 클릭하면 '해당 회원을 강퇴하시겠습니까?' 창이 뜨고, '확인'을 누르면 해당 회원을 강퇴한다.
+d) 예매내역 보기를 클릭하면 해당회원이 예매한 전체내역을 조회한다.
+e) 'LIST' 버튼을 클릭하면 회원관리 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.9.1.1</t>
+  </si>
+  <si>
+    <t>회원 예매내역 보기</t>
+  </si>
+  <si>
+    <t>a)관리자는 회원 상세보기 페이지에서 예매내역 버튼을 클릭하여 해당회원의 예매내역 전체를 확인한다.
+(영화, 예매한 날짜)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10</t>
+  </si>
+  <si>
+    <t>신고 관리</t>
+  </si>
+  <si>
+    <t>a) 관리자는 메인에서 신고 관리를 클릭하여 리뷰신고/리뷰댓글 신고/한줄평 신고 중 리뷰신고를 먼저 조회한다.
+    ( 신고자ID, 신고내용, 신고제목[리뷰 제목/댓글 내용/한줄평 내용], 처리결과, 체크박스 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10.1</t>
+  </si>
+  <si>
+    <t>리뷰신고 조회</t>
+  </si>
+  <si>
+    <t>a) 관리자는 리뷰 신고 게시판의 게시글을 조회한다.
+    ( 신고자ID, 신고내용, 신고제목[리뷰 제목], 처리결과, 체크박스 )
+b) 관리자는 신고내용을 클릭하여 신고글 상세보기로 이동한다.
+c) 관리자는 신고제목을 클릭하여 신고당한 게시글 상세보기로 이동한다.
+d) 관리자는 신고 내역 옆의 체크박스를 선택한 후 '삭제'버튼을 클릭하여 신고된 게시물을 한번에 삭제한다. ( 삭제가 완료되면 신고 내역에서는 처리결과가 미처리-&gt;삭제완료로 변경된다.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10.1.1</t>
+  </si>
+  <si>
+    <t>리뷰신고 글 상세보기</t>
+  </si>
+  <si>
+    <t>a) 관리자는 리뷰신고 조회 게시판에서 게시물을 클릭하여 상세보기 할수 있다.
+b) 상세보기 페이지에서는 신고자 ID, 신고제목, 신고내용을 볼 수 있고, 'LIST'버튼이 있다.
+c) 'LIST'버튼을 눌러 리뷰 신고 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10.2</t>
+  </si>
+  <si>
+    <t>리뷰 댓글신고 조회</t>
+  </si>
+  <si>
+    <t>a) 관리자는 리뷰 댓글 신고 게시판의 게시글을 조회한다.
+    ( 신고자ID, 신고내용, 신고제목[댓글 내용], 처리결과, 체크박스 )
+b) 관리자는 신고내용을 클릭하여 신고글 상세보기로 이동한다.
+c) 관리자는 신고 내역 옆의 체크박스를 선택한 후 '삭제'버튼을 클릭하여 신고된 댓글들을 한번에 삭제한다. ( 삭제가 완료되면 신고 내역에서는 처리결과가 미처리-&gt;삭제완료로 변경된다.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10.2.1</t>
+  </si>
+  <si>
+    <t>리뷰 댓글신고 글 상세보기</t>
+  </si>
+  <si>
+    <t>a)관리자는 리뷰 댓글 신고 조회 게시판에서 게시물을 클릭하여 상세보기 할수 있다.
+(신고자ID, 신고내용, 댓글내용)
+b) 'LIST' 버튼이 있고, 버튼을 누르면 리뷰 댓글 신고 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10.3</t>
+  </si>
+  <si>
+    <t>한줄평 신고 조회</t>
+  </si>
+  <si>
+    <t>a) 관리자는 한줄평 신고 게시판의 게시글을 조회한다.
+    ( 신고자ID, 신고내용, 신고제목[한줄평], 처리결과, 체크박스 )
+b) 관리자는 신고내용을 클릭하여 신고글 상세보기로 이동한다.
+c) 관리자는 신고 내역 옆의 체크박스를 선택한 후 '삭제'버튼을 클릭하여 신고된 한줄평들을 한번에 삭제한다. ( 삭제가 완료되면 신고 내역에서는 처리결과가 미처리-&gt;삭제완료로 변경된다.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.10.3.1</t>
+  </si>
+  <si>
+    <t>한줄평 신고 글 상세보기</t>
+  </si>
+  <si>
+    <t>a)관리자는 한줄평 신고 조회 게시판에서 게시물을 클릭하여 상세보기 할수 있다.
+   (신고자ID, 신고내용, 신고당한 한줄평 내용)
+b) 'LIST' 버튼이 있고, 버튼을 누르면 한줄평 신고 조회 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.11.1</t>
+  </si>
+  <si>
+    <t>a) 게시글 상세보기에서는 '제목, 내용, 아이디, 조회수, 작성한 시간'과 'LIST', '삭제'버튼이 보여진다.
+b) '삭제'버튼을 누르면 '삭제하시겠습니까?' 메시지 뜨고, 확인을 누르면 삭제가 완료되고, 리뷰게시판 조회 페이지로 이동한다.
+c) 'LIST' 버튼을 눌러 리뷰 게시판 조회 페이지로 되돌아간다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     7.11.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) 수정화면에서 제목, 내용을 수정하여  '수정'을 누르면 '수정하시겠습니까?'라는 알림창이 뜨고,  확인을 누르면 수정이 완료되며 
+상세보기 페이지로 돌아간다.
+b) 작성중 취소버튼을 누르면 게시글 작성이 취소되면서 '수정을 취소하시겠습니까?' 라는 메시지가 나오고, 확인을 누르면 리뷰게시판
+ 페이지로 이동한다
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3126,18 +3293,6 @@
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Dotum"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Dotum"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3160,6 +3315,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEECE1"/>
         <bgColor rgb="FFEEECE1"/>
       </patternFill>
@@ -3168,12 +3329,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -3440,7 +3595,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3498,16 +3653,19 @@
     <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="12" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3522,7 +3680,7 @@
     <xf borderId="12" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3531,17 +3689,17 @@
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3549,7 +3707,7 @@
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -3558,25 +3716,22 @@
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3588,7 +3743,7 @@
     <xf borderId="12" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3600,7 +3755,7 @@
     <xf borderId="23" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3612,41 +3767,29 @@
     <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -3669,7 +3812,7 @@
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3894,7 +4037,7 @@
     <col customWidth="1" min="1" max="1" width="6.63"/>
     <col customWidth="1" min="2" max="2" width="17.38"/>
     <col customWidth="1" min="3" max="3" width="15.25"/>
-    <col customWidth="1" min="4" max="4" width="20.13"/>
+    <col customWidth="1" min="4" max="4" width="30.38"/>
     <col customWidth="1" min="5" max="5" width="18.63"/>
     <col customWidth="1" min="6" max="8" width="10.0"/>
     <col customWidth="1" min="9" max="9" width="72.5"/>
@@ -3993,10 +4136,10 @@
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="16"/>
@@ -4005,22 +4148,22 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" ht="89.25" customHeight="1">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>0.0</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -4039,18 +4182,18 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="177.75" customHeight="1">
+    <row r="10" ht="222.0" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>1.0</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="16"/>
@@ -4059,16 +4202,16 @@
       <c r="I10" s="17"/>
     </row>
     <row r="11" ht="117.75" customHeight="1">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>2.0</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="16"/>
@@ -4077,16 +4220,16 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" ht="55.5" customHeight="1">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="27">
         <v>3.0</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="16"/>
@@ -4095,50 +4238,50 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" ht="39.75" customHeight="1">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" ht="103.5" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" ht="82.5" customHeight="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="16"/>
@@ -4147,14 +4290,14 @@
       <c r="I15" s="17"/>
     </row>
     <row r="16" ht="82.5" customHeight="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="42" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="16"/>
@@ -4163,14 +4306,14 @@
       <c r="I16" s="17"/>
     </row>
     <row r="17" ht="79.5" customHeight="1">
-      <c r="B17" s="38"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="16"/>
@@ -4196,14 +4339,14 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="79.5" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="16"/>
@@ -4230,14 +4373,14 @@
     </row>
     <row r="19" ht="57.75" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="16"/>
@@ -4247,11 +4390,11 @@
     </row>
     <row r="20" ht="119.25" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="41" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="44" t="s">
@@ -4263,8 +4406,8 @@
       <c r="I20" s="17"/>
     </row>
     <row r="21" ht="67.5" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="27" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="45" t="s">
@@ -4280,11 +4423,11 @@
       <c r="J21" s="46"/>
     </row>
     <row r="22" ht="135.0" customHeight="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="39"/>
+      <c r="C22" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="40" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="44" t="s">
@@ -4297,8 +4440,8 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" ht="69.0" customHeight="1">
-      <c r="B23" s="38"/>
-      <c r="C23" s="26" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="45" t="s">
@@ -4314,11 +4457,11 @@
       <c r="J23" s="46"/>
     </row>
     <row r="24" ht="130.5" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="26" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="44" t="s">
@@ -4331,8 +4474,8 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" ht="75.0" customHeight="1">
-      <c r="B25" s="38"/>
-      <c r="C25" s="26" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="45" t="s">
@@ -4348,8 +4491,8 @@
       <c r="J25" s="46"/>
     </row>
     <row r="26" ht="110.25" customHeight="1">
-      <c r="B26" s="38"/>
-      <c r="C26" s="26" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="45" t="s">
@@ -4365,8 +4508,8 @@
       <c r="J26" s="46"/>
     </row>
     <row r="27" ht="57.75" customHeight="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="39"/>
+      <c r="C27" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="45" t="s">
@@ -4381,8 +4524,8 @@
       <c r="I27" s="17"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" ht="57.75" customHeight="1">
-      <c r="B28" s="38"/>
+    <row r="28" ht="69.75" customHeight="1">
+      <c r="B28" s="39"/>
       <c r="C28" s="48" t="s">
         <v>69</v>
       </c>
@@ -4425,23 +4568,23 @@
       <c r="D30" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" ht="66.75" customHeight="1">
-      <c r="B31" s="38"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="30" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="16"/>
@@ -4449,15 +4592,15 @@
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" ht="159.75" customHeight="1">
-      <c r="B32" s="38"/>
+    <row r="32" ht="117.0" customHeight="1">
+      <c r="B32" s="39"/>
       <c r="C32" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="42" t="s">
         <v>82</v>
       </c>
       <c r="F32" s="16"/>
@@ -4465,15 +4608,15 @@
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" ht="49.5" customHeight="1">
-      <c r="B33" s="38"/>
+    <row r="33" ht="69.75" customHeight="1">
+      <c r="B33" s="39"/>
       <c r="C33" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="42" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="16"/>
@@ -4481,15 +4624,15 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" ht="75.75" customHeight="1">
-      <c r="B34" s="38"/>
+    <row r="34" ht="49.5" customHeight="1">
+      <c r="B34" s="39"/>
       <c r="C34" s="60" t="s">
         <v>86</v>
       </c>
       <c r="D34" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F34" s="16"/>
@@ -4497,15 +4640,15 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" ht="67.5" customHeight="1">
-      <c r="B35" s="38"/>
+    <row r="35" ht="75.75" customHeight="1">
+      <c r="B35" s="39"/>
       <c r="C35" s="60" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="16"/>
@@ -4513,127 +4656,127 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" ht="66.0" customHeight="1">
-      <c r="B36" s="38"/>
+    <row r="36" ht="67.5" customHeight="1">
+      <c r="B36" s="39"/>
       <c r="C36" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="29" t="s">
+      <c r="D36" s="61" t="s">
         <v>93</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" ht="69.0" customHeight="1">
-      <c r="B37" s="38"/>
+    <row r="37" ht="66.0" customHeight="1">
+      <c r="B37" s="39"/>
       <c r="C37" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="29" t="s">
         <v>95</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" ht="117.75" customHeight="1">
-      <c r="B38" s="38"/>
+    <row r="38" ht="69.0" customHeight="1">
+      <c r="B38" s="39"/>
       <c r="C38" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="44" t="s">
         <v>97</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" ht="63.75" customHeight="1">
-      <c r="B39" s="38"/>
+    <row r="39" ht="117.75" customHeight="1">
+      <c r="B39" s="39"/>
       <c r="C39" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="62" t="s">
         <v>99</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" ht="112.5" customHeight="1">
-      <c r="B40" s="38"/>
+    <row r="40" ht="63.75" customHeight="1">
+      <c r="B40" s="39"/>
       <c r="C40" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="44" t="s">
         <v>101</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" ht="50.25" customHeight="1">
-      <c r="B41" s="38"/>
+    <row r="41" ht="112.5" customHeight="1">
+      <c r="B41" s="39"/>
       <c r="C41" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>56</v>
+        <v>103</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" ht="126.0" customHeight="1">
-      <c r="B42" s="38"/>
+    <row r="42" ht="50.25" customHeight="1">
+      <c r="B42" s="39"/>
       <c r="C42" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" ht="87.75" customHeight="1">
-      <c r="B43" s="38"/>
+    <row r="43" ht="126.0" customHeight="1">
+      <c r="B43" s="39"/>
       <c r="C43" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="D43" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="44" t="s">
         <v>107</v>
       </c>
       <c r="F43" s="16"/>
@@ -4642,28 +4785,28 @@
       <c r="I43" s="17"/>
     </row>
     <row r="44" ht="87.75" customHeight="1">
-      <c r="B44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="45" t="s">
-        <v>61</v>
+      <c r="D44" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" ht="72.75" customHeight="1">
-      <c r="B45" s="38"/>
+    <row r="45" ht="87.75" customHeight="1">
+      <c r="B45" s="39"/>
       <c r="C45" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="63" t="s">
         <v>111</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>112</v>
@@ -4673,47 +4816,47 @@
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" ht="101.25" customHeight="1">
-      <c r="B46" s="38"/>
+    <row r="46" ht="72.75" customHeight="1">
+      <c r="B46" s="39"/>
       <c r="C46" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="44" t="s">
+      <c r="D46" s="63" t="s">
         <v>114</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" ht="47.25" customHeight="1">
-      <c r="B47" s="38"/>
+    <row r="47" ht="101.25" customHeight="1">
+      <c r="B47" s="39"/>
       <c r="C47" s="60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" ht="63.0" customHeight="1">
-      <c r="B48" s="38"/>
+    <row r="48" ht="47.25" customHeight="1">
+      <c r="B48" s="39"/>
       <c r="C48" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="65" t="s">
+      <c r="D48" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="44" t="s">
         <v>119</v>
       </c>
       <c r="F48" s="16"/>
@@ -4721,31 +4864,31 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" ht="106.5" customHeight="1">
-      <c r="B49" s="38"/>
+    <row r="49" ht="63.0" customHeight="1">
+      <c r="B49" s="39"/>
       <c r="C49" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="65" t="s">
+      <c r="D49" s="61" t="s">
         <v>121</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" ht="72.75" customHeight="1">
-      <c r="B50" s="38"/>
+    <row r="50" ht="106.5" customHeight="1">
+      <c r="B50" s="39"/>
       <c r="C50" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="D50" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="42" t="s">
         <v>124</v>
       </c>
       <c r="F50" s="16"/>
@@ -4753,337 +4896,337 @@
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" ht="44.25" customHeight="1">
-      <c r="B51" s="38"/>
+    <row r="51" ht="63.0" customHeight="1">
+      <c r="B51" s="39"/>
       <c r="C51" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="67" t="s">
+      <c r="E51" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" ht="119.25" customHeight="1">
-      <c r="B52" s="38"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" ht="72.75" customHeight="1">
+      <c r="B52" s="39"/>
       <c r="C52" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="E52" s="42" t="s">
         <v>129</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>130</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" ht="72.0" customHeight="1">
-      <c r="B53" s="38"/>
+    <row r="53" ht="61.5" customHeight="1">
+      <c r="B53" s="39"/>
       <c r="C53" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="E53" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" ht="119.25" customHeight="1">
+      <c r="B54" s="39"/>
+      <c r="C54" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
-    </row>
-    <row r="54" ht="77.25" customHeight="1">
-      <c r="B54" s="38"/>
-      <c r="C54" s="60" t="s">
+      <c r="D54" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="E54" s="42" t="s">
         <v>135</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>136</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" ht="69.75" customHeight="1">
-      <c r="B55" s="38"/>
+    <row r="55" ht="72.0" customHeight="1">
+      <c r="B55" s="39"/>
       <c r="C55" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="E55" s="42" t="s">
         <v>138</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>139</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" ht="81.0" customHeight="1">
-      <c r="B56" s="38"/>
+    <row r="56" ht="77.25" customHeight="1">
+      <c r="B56" s="39"/>
       <c r="C56" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="E56" s="42" t="s">
         <v>141</v>
-      </c>
-      <c r="E56" s="47" t="s">
-        <v>142</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" ht="69.0" customHeight="1">
-      <c r="B57" s="38"/>
+    <row r="57" ht="69.75" customHeight="1">
+      <c r="B57" s="39"/>
       <c r="C57" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="E57" s="42" t="s">
         <v>144</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>145</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" ht="39.0" customHeight="1">
-      <c r="B58" s="38"/>
+    <row r="58" ht="81.0" customHeight="1">
+      <c r="B58" s="39"/>
       <c r="C58" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="E58" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="70" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="17"/>
+    </row>
+    <row r="59" ht="69.0" customHeight="1">
+      <c r="B59" s="39"/>
+      <c r="C59" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="72"/>
-    </row>
-    <row r="59" ht="69.0" customHeight="1">
-      <c r="B59" s="38"/>
-      <c r="C59" s="60" t="s">
+      <c r="D59" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="E59" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="70" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" ht="39.0" customHeight="1">
+      <c r="B60" s="39"/>
+      <c r="C60" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="72"/>
-    </row>
-    <row r="60" ht="69.0" customHeight="1">
-      <c r="B60" s="38"/>
-      <c r="C60" s="60" t="s">
+      <c r="D60" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="E60" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="68"/>
+    </row>
+    <row r="61" ht="69.0" customHeight="1">
+      <c r="B61" s="39"/>
+      <c r="C61" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
-    </row>
-    <row r="61" ht="84.0" customHeight="1">
-      <c r="B61" s="38"/>
-      <c r="C61" s="60" t="s">
+      <c r="D61" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="D61" s="69" t="s">
+      <c r="E61" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="70" t="s">
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
+    </row>
+    <row r="62" ht="69.0" customHeight="1">
+      <c r="B62" s="39"/>
+      <c r="C62" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="72"/>
-    </row>
-    <row r="62" ht="69.75" customHeight="1">
-      <c r="B62" s="38"/>
-      <c r="C62" s="60" t="s">
+      <c r="D62" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="E62" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="70" t="s">
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" ht="84.0" customHeight="1">
+      <c r="B63" s="39"/>
+      <c r="C63" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="72"/>
-    </row>
-    <row r="63" ht="53.25" customHeight="1">
-      <c r="B63" s="38"/>
-      <c r="C63" s="60" t="s">
+      <c r="D63" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="69" t="s">
+      <c r="E63" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="68"/>
+    </row>
+    <row r="64" ht="69.75" customHeight="1">
+      <c r="B64" s="39"/>
+      <c r="C64" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="72"/>
-    </row>
-    <row r="64" ht="47.25" customHeight="1">
-      <c r="B64" s="38"/>
-      <c r="C64" s="60" t="s">
+      <c r="D64" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D64" s="69" t="s">
+      <c r="E64" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
+    </row>
+    <row r="65" ht="53.25" customHeight="1">
+      <c r="B65" s="39"/>
+      <c r="C65" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="72"/>
-    </row>
-    <row r="65" ht="69.0" customHeight="1">
-      <c r="B65" s="38"/>
-      <c r="C65" s="60" t="s">
+      <c r="D65" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="E65" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="68"/>
+    </row>
+    <row r="66" ht="47.25" customHeight="1">
+      <c r="B66" s="39"/>
+      <c r="C66" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="72"/>
-    </row>
-    <row r="66" ht="86.25" customHeight="1">
-      <c r="B66" s="38"/>
-      <c r="C66" s="60" t="s">
+      <c r="D66" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="D66" s="69" t="s">
+      <c r="E66" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="68"/>
+    </row>
+    <row r="67" ht="69.0" customHeight="1">
+      <c r="B67" s="39"/>
+      <c r="C67" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="72"/>
-    </row>
-    <row r="67" ht="48.0" customHeight="1">
-      <c r="B67" s="51"/>
-      <c r="C67" s="73" t="s">
+      <c r="D67" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="E67" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E67" s="75" t="s">
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="68"/>
+    </row>
+    <row r="68" ht="86.25" customHeight="1">
+      <c r="B68" s="39"/>
+      <c r="C68" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="35"/>
-    </row>
-    <row r="68" ht="69.0" customHeight="1">
-      <c r="B68" s="76" t="s">
+      <c r="D68" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="C68" s="58" t="s">
+      <c r="E68" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="D68" s="59" t="s">
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="68"/>
+    </row>
+    <row r="69" ht="48.0" customHeight="1">
+      <c r="B69" s="51"/>
+      <c r="C69" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="36"/>
+    </row>
+    <row r="70" ht="69.0" customHeight="1">
+      <c r="B70" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="25"/>
-    </row>
-    <row r="69" ht="99.0" customHeight="1">
-      <c r="B69" s="38"/>
-      <c r="C69" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
-    </row>
-    <row r="70" ht="58.5" customHeight="1">
-      <c r="B70" s="38"/>
-      <c r="C70" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="17"/>
-    </row>
-    <row r="71" ht="177.0" customHeight="1">
-      <c r="B71" s="38"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" ht="99.0" customHeight="1">
+      <c r="B71" s="39"/>
       <c r="C71" s="60" t="s">
         <v>184</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="30" t="s">
         <v>185</v>
       </c>
       <c r="F71" s="16"/>
@@ -5091,15 +5234,15 @@
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" ht="94.5" customHeight="1">
-      <c r="B72" s="38"/>
+    <row r="72" ht="58.5" customHeight="1">
+      <c r="B72" s="39"/>
       <c r="C72" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="30" t="s">
         <v>188</v>
       </c>
       <c r="F72" s="16"/>
@@ -5107,31 +5250,31 @@
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" ht="47.25" customHeight="1">
-      <c r="B73" s="38"/>
+    <row r="73" ht="138.75" customHeight="1">
+      <c r="B73" s="39"/>
       <c r="C73" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="42" t="s">
         <v>190</v>
-      </c>
-      <c r="E73" s="47" t="s">
-        <v>191</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" ht="93.0" customHeight="1">
-      <c r="B74" s="38"/>
+    <row r="74" ht="57.0" customHeight="1">
+      <c r="B74" s="39"/>
       <c r="C74" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="42" t="s">
         <v>193</v>
       </c>
       <c r="F74" s="16"/>
@@ -5139,64 +5282,64 @@
       <c r="H74" s="16"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" ht="75.75" customHeight="1">
-      <c r="B75" s="38"/>
+    <row r="75" ht="72.75" customHeight="1">
+      <c r="B75" s="39"/>
       <c r="C75" s="60" t="s">
         <v>194</v>
       </c>
       <c r="D75" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="42" t="s">
         <v>195</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" ht="153.75" customHeight="1">
-      <c r="B76" s="38"/>
+    <row r="76" ht="75.75" customHeight="1">
+      <c r="B76" s="39"/>
       <c r="C76" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="61" t="s">
+      <c r="E76" s="30" t="s">
         <v>198</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>199</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" ht="67.5" customHeight="1">
-      <c r="B77" s="38"/>
+    <row r="77" ht="68.25" customHeight="1">
+      <c r="B77" s="39"/>
       <c r="C77" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="E77" s="42" t="s">
         <v>201</v>
-      </c>
-      <c r="E77" s="65" t="s">
-        <v>202</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" ht="47.25" customHeight="1">
-      <c r="B78" s="38"/>
+    <row r="78" ht="67.5" customHeight="1">
+      <c r="B78" s="39"/>
       <c r="C78" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="D78" s="40" t="s">
+      <c r="E78" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>205</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -5204,9 +5347,11 @@
       <c r="I78" s="17"/>
     </row>
     <row r="79" ht="95.25" customHeight="1">
-      <c r="B79" s="38"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="68" t="s">
+      <c r="B79" s="39"/>
+      <c r="C79" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="41" t="s">
         <v>206</v>
       </c>
       <c r="E79" s="47" t="s">
@@ -5217,14 +5362,16 @@
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" ht="47.25" customHeight="1">
-      <c r="B80" s="38"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="68" t="s">
+    <row r="80" ht="75.75" customHeight="1">
+      <c r="B80" s="39"/>
+      <c r="C80" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="E80" s="65" t="s">
+      <c r="D80" s="41" t="s">
         <v>209</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>210</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -5232,13 +5379,15 @@
       <c r="I80" s="17"/>
     </row>
     <row r="81" ht="47.25" customHeight="1">
-      <c r="B81" s="38"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="65" t="s">
+      <c r="B81" s="39"/>
+      <c r="C81" s="60" t="s">
         <v>211</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>213</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
@@ -5246,13 +5395,15 @@
       <c r="I81" s="17"/>
     </row>
     <row r="82" ht="47.25" customHeight="1">
-      <c r="B82" s="38"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="E82" s="65" t="s">
-        <v>213</v>
+      <c r="B82" s="39"/>
+      <c r="C82" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>216</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -5260,41 +5411,47 @@
       <c r="I82" s="17"/>
     </row>
     <row r="83" ht="47.25" customHeight="1">
-      <c r="B83" s="38"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="65" t="s">
-        <v>215</v>
+      <c r="B83" s="39"/>
+      <c r="C83" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" ht="47.25" customHeight="1">
-      <c r="B84" s="38"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>217</v>
+    <row r="84" ht="63.0" customHeight="1">
+      <c r="B84" s="39"/>
+      <c r="C84" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>222</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" ht="47.25" customHeight="1">
-      <c r="B85" s="38"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" s="65" t="s">
-        <v>219</v>
+    <row r="85" ht="56.25" customHeight="1">
+      <c r="B85" s="39"/>
+      <c r="C85" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>225</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
@@ -5302,27 +5459,31 @@
       <c r="I85" s="17"/>
     </row>
     <row r="86" ht="47.25" customHeight="1">
-      <c r="B86" s="38"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="E86" s="65" t="s">
-        <v>221</v>
+      <c r="B86" s="39"/>
+      <c r="C86" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>228</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" ht="56.25" customHeight="1">
-      <c r="B87" s="38"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" s="65" t="s">
-        <v>223</v>
+    <row r="87" ht="75.75" customHeight="1">
+      <c r="B87" s="39"/>
+      <c r="C87" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>231</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
@@ -5330,41 +5491,47 @@
       <c r="I87" s="17"/>
     </row>
     <row r="88" ht="47.25" customHeight="1">
-      <c r="B88" s="38"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="E88" s="47" t="s">
-        <v>225</v>
+      <c r="B88" s="39"/>
+      <c r="C88" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" ht="47.25" customHeight="1">
-      <c r="B89" s="38"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="E89" s="65" t="s">
-        <v>227</v>
+    <row r="89" ht="69.0" customHeight="1">
+      <c r="B89" s="39"/>
+      <c r="C89" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>237</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" ht="47.25" customHeight="1">
-      <c r="B90" s="38"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="E90" s="65" t="s">
-        <v>229</v>
+    <row r="90" ht="78.75" customHeight="1">
+      <c r="B90" s="39"/>
+      <c r="C90" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>239</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
@@ -5372,126 +5539,292 @@
       <c r="I90" s="17"/>
     </row>
     <row r="91" ht="47.25" customHeight="1">
-      <c r="B91" s="38"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="E91" s="65" t="s">
-        <v>231</v>
+      <c r="B91" s="39"/>
+      <c r="C91" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>242</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" ht="69.0" customHeight="1">
-      <c r="B92" s="38"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="68" t="s">
-        <v>232</v>
+    <row r="92" ht="57.75" customHeight="1">
+      <c r="B92" s="39"/>
+      <c r="C92" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>244</v>
       </c>
       <c r="E92" s="47" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" ht="78.75" customHeight="1">
-      <c r="B93" s="38"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="E93" s="65" t="s">
-        <v>234</v>
+    <row r="93" ht="103.5" customHeight="1">
+      <c r="B93" s="39"/>
+      <c r="C93" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>248</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" ht="47.25" customHeight="1">
-      <c r="B94" s="38"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="E94" s="65" t="s">
-        <v>236</v>
+    <row r="94" ht="72.0" customHeight="1">
+      <c r="B94" s="39"/>
+      <c r="C94" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" ht="114.0" customHeight="1">
-      <c r="B95" s="77"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>238</v>
+    <row r="95" ht="92.25" customHeight="1">
+      <c r="B95" s="39"/>
+      <c r="C95" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>254</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c r="D96" s="1"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c r="D97" s="1"/>
-      <c r="H97" s="2"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c r="D98" s="1"/>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c r="D99" s="1"/>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c r="D100" s="1"/>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c r="D101" s="1"/>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c r="D102" s="1"/>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c r="D103" s="1"/>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c r="D104" s="1"/>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c r="D105" s="1"/>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c r="D106" s="1"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c r="D107" s="1"/>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c r="D108" s="1"/>
-      <c r="H108" s="2"/>
+    <row r="96" ht="79.5" customHeight="1">
+      <c r="B96" s="39"/>
+      <c r="C96" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" ht="81.75" customHeight="1">
+      <c r="B97" s="39"/>
+      <c r="C97" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" ht="67.5" customHeight="1">
+      <c r="B98" s="39"/>
+      <c r="C98" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" ht="55.5" customHeight="1">
+      <c r="B99" s="39"/>
+      <c r="C99" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" ht="114.0" customHeight="1">
+      <c r="B100" s="39"/>
+      <c r="C100" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" ht="66.75" customHeight="1">
+      <c r="B101" s="39"/>
+      <c r="C101" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" ht="78.75" customHeight="1">
+      <c r="B102" s="39"/>
+      <c r="C102" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" ht="57.75" customHeight="1">
+      <c r="B103" s="39"/>
+      <c r="C103" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" ht="89.25" customHeight="1">
+      <c r="B104" s="39"/>
+      <c r="C104" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E104" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" ht="89.25" customHeight="1">
+      <c r="B105" s="39"/>
+      <c r="C105" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E105" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" ht="83.25" customHeight="1">
+      <c r="B106" s="39"/>
+      <c r="C106" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D106" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" ht="59.25" customHeight="1">
+      <c r="B107" s="39"/>
+      <c r="C107" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" ht="114.0" customHeight="1">
+      <c r="B108" s="73"/>
+      <c r="C108" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="17"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c r="D109" s="1"/>
@@ -6065,44 +6398,57 @@
       <c r="D251" s="1"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" ht="16.5" customHeight="1">
       <c r="D252" s="1"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" ht="16.5" customHeight="1">
       <c r="D253" s="1"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" ht="16.5" customHeight="1">
       <c r="D254" s="1"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" ht="16.5" customHeight="1">
       <c r="D255" s="1"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" ht="16.5" customHeight="1">
       <c r="D256" s="1"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" ht="16.5" customHeight="1">
       <c r="D257" s="1"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" ht="16.5" customHeight="1">
       <c r="D258" s="1"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" ht="16.5" customHeight="1">
       <c r="D259" s="1"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" ht="16.5" customHeight="1">
       <c r="D260" s="1"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" ht="16.5" customHeight="1">
       <c r="D261" s="1"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" ht="16.5" customHeight="1">
       <c r="D262" s="1"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" ht="16.5" customHeight="1">
       <c r="D263" s="1"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" ht="16.5" customHeight="1">
       <c r="D264" s="1"/>
+      <c r="H264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="D265" s="1"/>
@@ -8312,15 +8658,54 @@
     <row r="1000" ht="15.75" customHeight="1">
       <c r="D1000" s="1"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="D1001" s="1"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="D1002" s="1"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="D1003" s="1"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="D1004" s="1"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="D1005" s="1"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="D1006" s="1"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="D1007" s="1"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="D1008" s="1"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="D1009" s="1"/>
+    </row>
+    <row r="1010" ht="15.75" customHeight="1">
+      <c r="D1010" s="1"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="D1011" s="1"/>
+    </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="D1012" s="1"/>
+    </row>
+    <row r="1013" ht="15.75" customHeight="1">
+      <c r="D1013" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="107">
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="D3:E5"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E9:I9"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
@@ -8333,9 +8718,37 @@
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
     <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:B29"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B30:B69"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E107:I107"/>
+    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="E77:I77"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="E81:I81"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="B70:B108"/>
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
@@ -8347,67 +8760,52 @@
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E45:I45"/>
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E48:I48"/>
     <mergeCell ref="E49:I49"/>
-    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="E50:I50"/>
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="E53:I53"/>
     <mergeCell ref="E54:I54"/>
     <mergeCell ref="E55:I55"/>
     <mergeCell ref="E56:I56"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="E59:I59"/>
     <mergeCell ref="E60:I60"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:B29"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="B30:B67"/>
-    <mergeCell ref="E78:I78"/>
-    <mergeCell ref="E77:I77"/>
-    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
     <mergeCell ref="E73:I73"/>
     <mergeCell ref="E74:I74"/>
     <mergeCell ref="E75:I75"/>
     <mergeCell ref="E76:I76"/>
-    <mergeCell ref="B68:B95"/>
+    <mergeCell ref="E87:I87"/>
+    <mergeCell ref="E88:I88"/>
     <mergeCell ref="E82:I82"/>
-    <mergeCell ref="E81:I81"/>
     <mergeCell ref="E83:I83"/>
     <mergeCell ref="E84:I84"/>
     <mergeCell ref="E85:I85"/>
     <mergeCell ref="E86:I86"/>
-    <mergeCell ref="E87:I87"/>
-    <mergeCell ref="E88:I88"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="E96:I96"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E101:I101"/>
+    <mergeCell ref="E102:I102"/>
+    <mergeCell ref="E103:I103"/>
+    <mergeCell ref="E104:I104"/>
+    <mergeCell ref="E106:I106"/>
     <mergeCell ref="E89:I89"/>
     <mergeCell ref="E90:I90"/>
     <mergeCell ref="E91:I91"/>
     <mergeCell ref="E92:I92"/>
     <mergeCell ref="E93:I93"/>
-    <mergeCell ref="E94:I94"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="E65:I65"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.6"/>

--- a/영화관 - 기능정의서.xlsx
+++ b/영화관 - 기능정의서.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="287">
   <si>
     <t>기능 정의서</t>
   </si>
@@ -72,9 +72,19 @@
     <t>초기화면</t>
   </si>
   <si>
-    <t>a) '회원가입 / 로그인 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 메뉴가 있는 초기화면이 보여진다.
+    <t>a) '회원가입 / 로그인 / MY PAGE / ADMIN PAGE / 로그아웃 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 메뉴가 있는 초기화면이 보여진다.
 b) 각 메뉴 선택 시 페이지가 이동한다.
-c) '리뷰 / 채용정보 / 예매(예매)' 클릭 시 '로그인이 필요한 서비스입니다.' 메시지 출력 후 로그인 페이지로 이동한다.</t>
+c) 로그인하지 않았을 시에는 '회원가입 / 로그인 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 메뉴만 보여지고,
+    회원으로 로그인했을 시에는 'MY PAGE / 로그아웃 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 메뉴만 보여지고,
+    관리자로 로그인했을 시에는 'ADMIN PAGE / 로그아웃 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 메뉴가 보여진다.
+d) '예매(예매)' 클릭 시 '로그인이 필요한 서비스입니다.' 메시지 출력 후 로그인 페이지로 이동한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">메뉴 외에 화면을 구성할 내용 - 나중에?
+my page, 관리자페이지, 로그아웃 - 먼저 둔 다음에 나중에 로그인 하면
+보인다로 정의하기 (초기화면이 넘 많음)
+초기화면을 1로 해서 회원가입/로그인을 1.1 1.2로 하던가,,
+영화가 3, 예매가 4... </t>
   </si>
   <si>
     <t>회원가입</t>
@@ -789,6 +799,11 @@
     </r>
   </si>
   <si>
+    <t>ID 중복, EMAIL 중복 확인 - AJAX로! -&gt; 기능정의 수정( AJAX에 맞게)
+ID중복, ID형식, EMAIL, EMAIL형식, PW형식, PW확인 AJAX
+시작화면으로 돌아갈건지, 로그인 화면으로 갈건지</t>
+  </si>
+  <si>
     <t>로그인</t>
   </si>
   <si>
@@ -1059,7 +1074,7 @@
       <rPr>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">, 회원 </t>
     </r>
     <r>
       <rPr>
@@ -1125,14 +1140,14 @@
       <rPr>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>모드로</t>
+      <t xml:space="preserve"> 초기화면으</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>로</t>
     </r>
     <r>
       <rPr>
@@ -1157,21 +1172,43 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">메뉴 외에 화면을 구성할 내용 - 나중에?
+my page, 관리자페이지, 로그아웃 - 먼저 둔 다음에 나중에 로그인 하면
+보인다로 정의하기 (초기화면이 넘 많음)
+</t>
+  </si>
+  <si>
     <t>비밀번호 초기화</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>비밀번호</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>a) ID</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> EMAIL, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>연락처를</t>
     </r>
     <r>
       <rPr>
@@ -1184,7 +1221,7 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>분실</t>
+      <t>입력받아서</t>
     </r>
     <r>
       <rPr>
@@ -1197,20 +1234,7 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>, '</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>비밀번호</t>
+      <t>세</t>
     </r>
     <r>
       <rPr>
@@ -1223,20 +1247,7 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>초기화</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>버튼을</t>
+      <t>정보가</t>
     </r>
     <r>
       <rPr>
@@ -1249,7 +1260,33 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>눌러</t>
+      <t>일치한다면</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> ID </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>사용자의</t>
     </r>
     <r>
       <rPr>
@@ -1262,150 +1299,6 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>초기화를</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>한다.</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">
-b) ID</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> EMAIL, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>연락처를</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>입력받아서</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>세</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>정보가</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>일치한다면</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> ID </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>사용자의</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
       <t>비밀번호를</t>
     </r>
     <r>
@@ -1419,13 +1312,14 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>초기화해준다</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>.
+      <t xml:space="preserve">초기화해준다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>b) 초기화된 비밀번호를 알려주고, '로그인'버튼을 띄워준다.
 c) 정보가</t>
     </r>
     <r>
@@ -1451,7 +1345,7 @@
     </r>
   </si>
   <si>
-    <t>4</t>
+    <t>2.2</t>
   </si>
   <si>
     <r>
@@ -1479,13 +1373,14 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t>회원의 이메일과 연락처를 받아서 두 정보가 일치하면 아이디를 알려준다. (아이디를 메시지로 띄워준다)</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">회원의 이메일과 연락처를 받아서 두 정보가 일치하면 아이디를 알려준다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">b) 아이디 전체를 화면에 띄워주고, '로그인' 버튼이 있다.
 b) </t>
     </r>
     <r>
@@ -1497,18 +1392,6 @@
     </r>
   </si>
   <si>
-    <t>비회원</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>a) 비회원에게는
-'회원가입 / 로그인 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 메뉴가 있는 초기화면이 보여진다.
-b) 각 메뉴 선택 시 페이지가 이동한다.
-c) '리뷰 / 채용정보 / 예매(예매)' 클릭 시 '로그인이 필요한 서비스입니다.' 메시지 출력 후 로그인 페이지로 이동한다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    5.1</t>
   </si>
   <si>
@@ -1517,6 +1400,70 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">a) 영화 랭킹 조회 페이지에서 상영 중인 영화 목록을 예매율 순으로 조회된다. (포스터, 제목, 예매율)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">b) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>키워드(제목, 감독, 배우)를 통해 영화를 검색하면 해당되는 영화 목록이 조회가 된다. (포스터, 제목, 예매율(상영중이 아닐 시 0%))
+c) 한 페이지에 10개씩, 10페이지씩 구성된다.
+d) 영화 하나를 클릭하여 영화 상세보기 페이지로 이동한다.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.1.1</t>
+  </si>
+  <si>
+    <t>영화 상세보기</t>
+  </si>
+  <si>
+    <t>a) 영화에 대한 정보로 '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우, 예매율, 개봉날짜'가 조회된다.
+b) 영화 정보 아래 쪽에는 한줄평들이 있어 전체 별점과 회원이 작성한 별점(5개 만점), 한줄평, 작성자 ID를 조회된다. (최신 작성 글이 가장 위로 조회된다.)
+c) 한줄평들은 한 페이지에 10개씩, 10페이지씩으로 구성된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.2</t>
+  </si>
+  <si>
+    <t>상영스케줄 조회</t>
+  </si>
+  <si>
+    <t>a) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄이 영화 이름 순으로 조회된다. (영화명, 상영시간) 
+b) 오늘 날짜 옆 쪽으로 오늘, 내일, 모레의 날짜가 있다.
+c) 날짜를 클릭하여 해당 날짜의 상영스케줄을 조회한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.3</t>
+  </si>
+  <si>
+    <t>기프티콘 조회</t>
+  </si>
+  <si>
+    <t>a) 기프티콘 페이지에서 현재 판매 중인 기프티콘 목록이 조회된다. (사진, 이름, 가격)
+b) 기프티콘 하나를 클릭하면 기프티콘 상세보기 페이지로 이동한다.
+c) 기프티콘 페이지에서 키워드(이름)를 통해 기프티콘을 검색한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      5.3.1</t>
+  </si>
+  <si>
+    <t>기프티콘 상세보기</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">a) </t>
@@ -1526,102 +1473,7 @@
         <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">초기화면에서 '영화' 메뉴 선택 시 '영화 랭킹 조회' 페이지로 이동한다.
-b) 영화 랭킹 조회 페이지에서 상영 중인 영화 목록을 예매율 순으로 조회된다. (포스터, 제목)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">c) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>키워드(제목, 감독, 배우)를 통해 영화를 검색한다.
-d) 영화 하나를 클릭하여 영화 상세보기 페이지로 이동한다.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">      5.1.1</t>
-  </si>
-  <si>
-    <t>영화 상세보기
-+ 한줄평 조회</t>
-  </si>
-  <si>
-    <t>a) 영화에 대한 정보로 '포스터, 제목, 줄거리, 개봉일, 장르, 감독, 배우, 예매율, 개봉날짜'가 조회된다.
-b) 영화 정보 아래 쪽에는 '한줄평'이 있어 전체 별점과 회원이 작성한 별점(5개 만점), 한줄평, 작성자 ID를 조회된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.2</t>
-  </si>
-  <si>
-    <t>상영스케줄 조회</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>초기화면에서 '예매'에 마우스를 올려 '상영스케줄'을 클릭하면 상영스케줄 조회 페이지로 이동한다.
-b) 상영스케줄 조회 페이지에서 오늘 날짜의 상영스케줄이 조회된다. (영화명, 상영시간)
-c) 날짜를 클릭하여 해당 날짜의 상영스케줄을 조회된다.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.3</t>
-  </si>
-  <si>
-    <t>기프티콘 조회</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>초기화면에서 '기프티콘' 메뉴 선택 시 기프티콘 페이지로 이동한다.
-b) 기프티콘 페이지에서 현재 판매 중인 기프티콘 전체가 조회된다.
-c) 기프티콘 페이지에서 키워드(이름)를 통해 기프티콘을 검색한다.
-d) 기프티콘 페이지에서 기프티콘 조회 후, 기프티콘 하나를 클릭하면 기프티콘 상세보기 페이지로 이동한다.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">      5.3.1</t>
-  </si>
-  <si>
-    <t>기프티콘 상세보기</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>상세보기 페이지에서 '기프티콘 사진 / 가격 / 구성'이 조회되고, 'LIST' , '구입' 버튼이 있다.</t>
+      <t>'기프티콘 사진 / 가격 / 구성'이 조회되고, 'LIST' , '구입' 버튼이 있다.</t>
     </r>
     <r>
       <rPr>
@@ -1652,21 +1504,12 @@
     <t>할인정보 게시판 조회</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>초기화면에서 '할인정보' 클릭 시 할인정보 게시판으로 이동한다.
-b) 할인정보 게시판에서 할인정보 게시글을 조회(제목, 작성시간)한다.
+    <t>a) 할인정보 게시판에서 할인정보 게시글을 조회(글번호, 제목, 작성시간)한다.
     최신 글이 가장 위쪽으로 조회된다.
     게시글은 10개씩, 페이지는 10개씩 보여진다.
     제목이 길어지면 뒤쪽의 제목은 '...'으로 표시한다.
-c) 할인정보 게시판에서 키워드(제목, 내용)를 통해 게시글을 검색한다.
-d) 할인정보 게시판에서 게시글 조회 후, 게시글 클릭하면 게시글 상세보기 페이지로 이동한다.</t>
-    </r>
+b) 게시글을 클릭하면 게시글 상세보기 페이지로 이동한다.
+c) 할인정보 게시판에서 키워드(제목, 내용)를 통해 게시글을 검색한다.</t>
   </si>
   <si>
     <t xml:space="preserve">      5.4.1</t>
@@ -1703,21 +1546,12 @@
     <t>공지사항 게시판 조회</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>초기화면에서 '공지사항' 클릭 시 할인정보 게시판으로 이동한다.
-b) 공지사항 게시판에서 공지사항 게시글을 조회(제목, 작성시간)한다.
+    <t>a) 공지사항 게시판에서 공지사항 게시글을 조회(글번호, 제목, 작성시간)한다.
     최신 글이 가장 위쪽으로 조회된다.
     게시글은 10개씩, 페이지는 10개씩 보여진다.
     제목이 길어지면 뒤쪽의 제목은 '...'으로 표시한다.
-c) 공지사항 게시판에서 키워드(제목, 내용)를 통해 게시글을 검색한다.
-d) 공지사항 게시판에서 게시글 조회 후, 게시글 클릭하면 게시글 상세보기 페이지로 이동한다.</t>
-    </r>
+b) 공지사항 게시판에서 키워드(제목, 내용)를 통해 게시글을 검색한다.
+c) 게시글을 클릭하면 게시글 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
     <t xml:space="preserve">      5.5.1</t>
@@ -1737,22 +1571,13 @@
     <t>건의사항 게시판 조회</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">a) </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>초기화면에서 '건의사항' 클릭 시 건의사항 게시판으로 이동한다.
-b) 건의사항 게시판에서 게시글을 조회(제목, 작성시간, 작성자, 공개글/비밀글)한다.
+    <t>a) 건의사항 게시판에서 게시글을 조회(글번호, 제목, 작성시간, 작성자, 공개글/비밀글)한다.
     최신 글이 가장 위쪽으로 조회된다.
     게시글은 10개씩, 페이지는 10개씩 보여진다.
     제목이 길어지면 뒤쪽의 제목은 '...'으로 표시한다.
-c) 건의사항 게시판에서 키워드(제목, 내용, 작성자)를 통해 게시글을 검색한다.
-d) 건의사항 게시판에서 게시글 조회 후, 게시글 클릭하면 게시글 상세보기 페이지로 이동한다.
+b) 건의사항 게시판에서 키워드(제목, 내용, 작성자)를 통해 게시글을 검색한다.
+c) 게시글 클릭하면 게시글 상세보기 페이지로 이동한다.
     (비밀글인 경우 비밀번호를 입력해야 상세보기 페이지로 이동한다.)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">      5.6.1</t>
@@ -1762,9 +1587,8 @@
 게시글 상세보기</t>
   </si>
   <si>
-    <t>a) 클릭한 게시글이 비밀글인 경우 비밀번호를 입력해야 상세보기 페이지로 이동한다.
-b) 게시글 상세보기에서는 '제목, 내용, 조회수, 작성한 시간'이 보여지고, 'LIST' 버튼이 있다.
-c) 'LIST' 버튼을 눌러 건의사항 게시판 조회 페이지로 되돌아간다.</t>
+    <t>a) 게시글 상세보기에서는 '제목, 내용, 조회수, 작성한 시간'이 보여지고, 'LIST' 버튼이 있다.
+b) 'LIST' 버튼을 눌러 건의사항 게시판 조회 페이지로 되돌아간다.</t>
   </si>
   <si>
     <t xml:space="preserve">    5.7</t>
@@ -1955,8 +1779,8 @@
   </si>
   <si>
     <t>a) 초기화면에서 '리뷰' 메뉴 클릭 시 리뷰 게시판으로 이동한다.
-b) 리뷰 게시판에서 게시글을 조회 (제목, 작성자, 작성시간, 조회수) 한다.
-c) 키워드 (제목, 내용, 아이디)를 통해 게시글을 검색한다.
+b) 리뷰 게시판에서 게시글을 조회 (영화제목, 리뷰제목, 작성자, 작성시간, 조회수) 한다.
+c) 키워드 (영화제목, 리뷰제목, 내용, 아이디)를 통해 게시글을 검색한다.
 d) 게시글 하나를 클릭하여 게시글 상세보기로 이동한다.</t>
   </si>
   <si>
@@ -1967,18 +1791,11 @@
 상세보기</t>
   </si>
   <si>
-    <t>a) 게시글 상세보기에서는 '제목, 내용, 아이디, 조회수, 작성한 시간'이 보여지고, 'LIST'버튼이 있다.
+    <t>a) 게시글 상세보기에서는 '영화제목, 리뷰제목, 내용, 아이디, 조회수, 작성한 시간'이 보여지고, 'LIST'버튼이 있다.
 b) 'LIST' 버튼을 눌러 리뷰 게시판 조회 페이지로 되돌아간다.</t>
   </si>
   <si>
-    <t>일반사용자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  6</t>
-  </si>
-  <si>
-    <t>a) 로그인한 유저에게는 'MY PAGE / 로그아웃 / 영화 / 예매(상영스케줄 조회 / 예매) / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 가 있는 초기화면이 보여진다.
-b) 각 메뉴 선택 시 페이지가 이동한다.</t>
+    <t>여기까지 피드백받음</t>
   </si>
   <si>
     <t xml:space="preserve">    6.1</t>
@@ -2746,16 +2563,6 @@
 b) 제목 클릭 시 내 건의글 상세보기 페이지로 이동한다. (6.8.1)</t>
   </si>
   <si>
-    <t>관리자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7</t>
-  </si>
-  <si>
-    <t>a) 관리자(admin)으로 로그인하면  '관리자페이지 / 로그아웃 / 영화 / 상영스케줄 / 리뷰 / 기프티콘 / 할인정보 / 공지사항 / 건의사항 / 습득물알림 / 채용정보' 가 있는 초기화면이 보여진다.
-b) 각 메뉴 선택 시 페이지가 이동한다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    7.1</t>
   </si>
   <si>
@@ -3041,6 +2848,9 @@
 c)관리자는 기프티콘 관리 게시판의 검색창에 검색어를 입력하여 검색할수 있다. (이름, 구성, 가격)</t>
   </si>
   <si>
+    <t>기프티콘 등록</t>
+  </si>
+  <si>
     <t xml:space="preserve">     7.6.1</t>
   </si>
   <si>
@@ -3251,7 +3061,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3288,10 +3098,21 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3595,7 +3416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3677,6 +3498,9 @@
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3686,14 +3510,20 @@
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3710,34 +3540,37 @@
     <xf borderId="21" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="9" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="22" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -3747,7 +3580,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3755,7 +3588,7 @@
     <xf borderId="23" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3767,17 +3600,11 @@
     <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="22" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="21" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -3785,13 +3612,13 @@
     <xf borderId="9" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3803,10 +3630,7 @@
     <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4036,12 +3860,13 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6.63"/>
     <col customWidth="1" min="2" max="2" width="17.38"/>
-    <col customWidth="1" min="3" max="3" width="15.25"/>
-    <col customWidth="1" min="4" max="4" width="30.38"/>
+    <col customWidth="1" min="3" max="3" width="7.75"/>
+    <col customWidth="1" min="4" max="4" width="21.0"/>
     <col customWidth="1" min="5" max="5" width="18.63"/>
     <col customWidth="1" min="6" max="8" width="10.0"/>
     <col customWidth="1" min="9" max="9" width="72.5"/>
-    <col customWidth="1" min="10" max="26" width="6.63"/>
+    <col customWidth="1" min="10" max="10" width="55.38"/>
+    <col customWidth="1" min="11" max="26" width="6.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -4147,7 +3972,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" ht="89.25" customHeight="1">
+    <row r="9" ht="149.25" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
@@ -4164,7 +3989,9 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4182,139 +4009,160 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="222.0" customHeight="1">
+    <row r="10" ht="181.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="27">
+        <v>18</v>
+      </c>
+      <c r="C10" s="28">
         <v>1.0</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
+      <c r="J10" s="31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" ht="117.75" customHeight="1">
       <c r="B11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="27">
+        <v>21</v>
+      </c>
+      <c r="C11" s="28">
         <v>2.0</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>20</v>
+      <c r="D11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
+      <c r="J11" s="27" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" ht="55.5" customHeight="1">
       <c r="B12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" ht="39.75" customHeight="1">
-      <c r="B13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" ht="103.5" customHeight="1">
-      <c r="B14" s="37" t="s">
+    <row r="13" ht="48.0" customHeight="1">
+      <c r="B13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" ht="82.5" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="27" t="s">
+      <c r="E13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" ht="58.5" customHeight="1">
+      <c r="B14" s="40"/>
+      <c r="C14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="D14" s="41" t="s">
         <v>32</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" ht="47.25" customHeight="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" ht="82.5" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>35</v>
+    <row r="16" ht="56.25" customHeight="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
-    </row>
-    <row r="17" ht="79.5" customHeight="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>38</v>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" ht="60.75" customHeight="1">
+      <c r="B17" s="42"/>
+      <c r="C17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -4338,526 +4186,509 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="79.5" customHeight="1">
-      <c r="B18" s="39"/>
-      <c r="C18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>41</v>
+    <row r="18" ht="57.75" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" ht="57.75" customHeight="1">
+    </row>
+    <row r="19" ht="99.75" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="27" t="s">
-        <v>42</v>
+      <c r="B19" s="42"/>
+      <c r="C19" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" ht="119.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>47</v>
+    <row r="20" ht="48.0" customHeight="1">
+      <c r="B20" s="42"/>
+      <c r="C20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>51</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" ht="67.5" customHeight="1">
-      <c r="B21" s="39"/>
-      <c r="C21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>50</v>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" ht="98.25" customHeight="1">
+      <c r="B21" s="42"/>
+      <c r="C21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" ht="135.0" customHeight="1">
-      <c r="B22" s="39"/>
-      <c r="C22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>53</v>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" ht="51.75" customHeight="1">
+      <c r="B22" s="42"/>
+      <c r="C22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" ht="69.0" customHeight="1">
-      <c r="B23" s="39"/>
-      <c r="C23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>55</v>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" ht="130.5" customHeight="1">
+      <c r="B23" s="42"/>
+      <c r="C23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="46"/>
-    </row>
-    <row r="24" ht="130.5" customHeight="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>59</v>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" ht="48.0" customHeight="1">
+      <c r="B24" s="42"/>
+      <c r="C24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>63</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="46"/>
-    </row>
-    <row r="25" ht="75.0" customHeight="1">
-      <c r="B25" s="39"/>
-      <c r="C25" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>62</v>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" ht="110.25" customHeight="1">
+      <c r="B25" s="42"/>
+      <c r="C25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" ht="110.25" customHeight="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>65</v>
+      <c r="J25" s="50"/>
+    </row>
+    <row r="26" ht="57.75" customHeight="1">
+      <c r="B26" s="42"/>
+      <c r="C26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" ht="57.75" customHeight="1">
-      <c r="B27" s="39"/>
-      <c r="C27" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>68</v>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="27" ht="69.75" customHeight="1">
+      <c r="B27" s="42"/>
+      <c r="C27" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>72</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="46"/>
-    </row>
-    <row r="28" ht="69.75" customHeight="1">
-      <c r="B28" s="39"/>
-      <c r="C28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" ht="56.25" customHeight="1">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="53" t="s">
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" ht="56.25" customHeight="1">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="D28" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" ht="49.5" customHeight="1">
-      <c r="B30" s="57" t="s">
+      <c r="E28" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="24" t="s">
+    </row>
+    <row r="29" ht="66.75" customHeight="1">
+      <c r="B29" s="62"/>
+      <c r="C29" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" ht="66.75" customHeight="1">
-      <c r="B31" s="39"/>
-      <c r="C31" s="60" t="s">
+      <c r="D29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" ht="117.0" customHeight="1">
+      <c r="B30" s="42"/>
+      <c r="C30" s="33" t="s">
         <v>79</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" ht="69.75" customHeight="1">
+      <c r="B31" s="42"/>
+      <c r="C31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>84</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" ht="117.0" customHeight="1">
-      <c r="B32" s="39"/>
-      <c r="C32" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>82</v>
+    <row r="32" ht="49.5" customHeight="1">
+      <c r="B32" s="42"/>
+      <c r="C32" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" ht="69.75" customHeight="1">
-      <c r="B33" s="39"/>
-      <c r="C33" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>85</v>
+    <row r="33" ht="75.75" customHeight="1">
+      <c r="B33" s="42"/>
+      <c r="C33" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" ht="49.5" customHeight="1">
-      <c r="B34" s="39"/>
-      <c r="C34" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>88</v>
+    <row r="34" ht="67.5" customHeight="1">
+      <c r="B34" s="42"/>
+      <c r="C34" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" ht="75.75" customHeight="1">
-      <c r="B35" s="39"/>
-      <c r="C35" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>91</v>
+    <row r="35" ht="66.0" customHeight="1">
+      <c r="B35" s="42"/>
+      <c r="C35" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" ht="67.5" customHeight="1">
-      <c r="B36" s="39"/>
-      <c r="C36" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>94</v>
+    <row r="36" ht="69.0" customHeight="1">
+      <c r="B36" s="42"/>
+      <c r="C36" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" ht="66.0" customHeight="1">
-      <c r="B37" s="39"/>
-      <c r="C37" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>96</v>
+    <row r="37" ht="117.75" customHeight="1">
+      <c r="B37" s="42"/>
+      <c r="C37" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" ht="69.0" customHeight="1">
-      <c r="B38" s="39"/>
-      <c r="C38" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>98</v>
+    <row r="38" ht="63.75" customHeight="1">
+      <c r="B38" s="42"/>
+      <c r="C38" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" ht="117.75" customHeight="1">
-      <c r="B39" s="39"/>
-      <c r="C39" s="60" t="s">
-        <v>99</v>
+    <row r="39" ht="112.5" customHeight="1">
+      <c r="B39" s="42"/>
+      <c r="C39" s="33" t="s">
+        <v>102</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>100</v>
+        <v>53</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" ht="63.75" customHeight="1">
-      <c r="B40" s="39"/>
-      <c r="C40" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>102</v>
+    <row r="40" ht="50.25" customHeight="1">
+      <c r="B40" s="42"/>
+      <c r="C40" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" ht="112.5" customHeight="1">
-      <c r="B41" s="39"/>
-      <c r="C41" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>104</v>
+    <row r="41" ht="126.0" customHeight="1">
+      <c r="B41" s="42"/>
+      <c r="C41" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" ht="50.25" customHeight="1">
-      <c r="B42" s="39"/>
-      <c r="C42" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>56</v>
+    <row r="42" ht="87.75" customHeight="1">
+      <c r="B42" s="42"/>
+      <c r="C42" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" ht="126.0" customHeight="1">
-      <c r="B43" s="39"/>
-      <c r="C43" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="44" t="s">
-        <v>107</v>
+    <row r="43" ht="87.75" customHeight="1">
+      <c r="B43" s="42"/>
+      <c r="C43" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>111</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" ht="87.75" customHeight="1">
-      <c r="B44" s="39"/>
-      <c r="C44" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>110</v>
+    <row r="44" ht="72.75" customHeight="1">
+      <c r="B44" s="42"/>
+      <c r="C44" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" ht="87.75" customHeight="1">
-      <c r="B45" s="39"/>
-      <c r="C45" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>112</v>
+    <row r="45" ht="101.25" customHeight="1">
+      <c r="B45" s="42"/>
+      <c r="C45" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>116</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" ht="72.75" customHeight="1">
-      <c r="B46" s="39"/>
-      <c r="C46" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>115</v>
+    <row r="46" ht="47.25" customHeight="1">
+      <c r="B46" s="42"/>
+      <c r="C46" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>118</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" ht="101.25" customHeight="1">
-      <c r="B47" s="39"/>
-      <c r="C47" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>64</v>
+    <row r="47" ht="63.0" customHeight="1">
+      <c r="B47" s="42"/>
+      <c r="C47" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>120</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" ht="47.25" customHeight="1">
-      <c r="B48" s="39"/>
-      <c r="C48" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="45" t="s">
-        <v>67</v>
+    <row r="48" ht="106.5" customHeight="1">
+      <c r="B48" s="42"/>
+      <c r="C48" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -4865,545 +4696,543 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" ht="63.0" customHeight="1">
-      <c r="B49" s="39"/>
-      <c r="C49" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>122</v>
+      <c r="B49" s="42"/>
+      <c r="C49" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" ht="106.5" customHeight="1">
-      <c r="B50" s="39"/>
-      <c r="C50" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="42" t="s">
+    <row r="50" ht="72.75" customHeight="1">
+      <c r="B50" s="42"/>
+      <c r="C50" s="33" t="s">
         <v>124</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>128</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" ht="63.0" customHeight="1">
-      <c r="B51" s="39"/>
-      <c r="C51" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
-    </row>
-    <row r="52" ht="72.75" customHeight="1">
-      <c r="B52" s="39"/>
-      <c r="C52" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="42" t="s">
+    <row r="51" ht="61.5" customHeight="1">
+      <c r="B51" s="42"/>
+      <c r="C51" s="33" t="s">
         <v>129</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" ht="119.25" customHeight="1">
+      <c r="B52" s="42"/>
+      <c r="C52" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" ht="61.5" customHeight="1">
-      <c r="B53" s="39"/>
-      <c r="C53" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" ht="119.25" customHeight="1">
-      <c r="B54" s="39"/>
-      <c r="C54" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="42" t="s">
+    <row r="53" ht="72.0" customHeight="1">
+      <c r="B53" s="42"/>
+      <c r="C53" s="33" t="s">
         <v>135</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" ht="77.25" customHeight="1">
+      <c r="B54" s="42"/>
+      <c r="C54" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" ht="72.0" customHeight="1">
-      <c r="B55" s="39"/>
-      <c r="C55" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>138</v>
+    <row r="55" ht="69.75" customHeight="1">
+      <c r="B55" s="42"/>
+      <c r="C55" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>143</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" ht="77.25" customHeight="1">
-      <c r="B56" s="39"/>
-      <c r="C56" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="42" t="s">
-        <v>141</v>
+    <row r="56" ht="81.0" customHeight="1">
+      <c r="B56" s="42"/>
+      <c r="C56" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" ht="69.75" customHeight="1">
-      <c r="B57" s="39"/>
-      <c r="C57" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="42" t="s">
-        <v>144</v>
+    <row r="57" ht="69.0" customHeight="1">
+      <c r="B57" s="42"/>
+      <c r="C57" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" ht="81.0" customHeight="1">
-      <c r="B58" s="39"/>
-      <c r="C58" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
+    <row r="58" ht="39.0" customHeight="1">
+      <c r="B58" s="42"/>
+      <c r="C58" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="70"/>
     </row>
     <row r="59" ht="69.0" customHeight="1">
-      <c r="B59" s="39"/>
-      <c r="C59" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
-    </row>
-    <row r="60" ht="39.0" customHeight="1">
-      <c r="B60" s="39"/>
-      <c r="C60" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="66" t="s">
+      <c r="B59" s="42"/>
+      <c r="C59" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="68"/>
-    </row>
-    <row r="61" ht="69.0" customHeight="1">
-      <c r="B61" s="39"/>
-      <c r="C61" s="60" t="s">
+      <c r="D59" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="E59" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="66" t="s">
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="70"/>
+    </row>
+    <row r="60" ht="69.0" customHeight="1">
+      <c r="B60" s="42"/>
+      <c r="C60" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" ht="69.0" customHeight="1">
-      <c r="B62" s="39"/>
-      <c r="C62" s="60" t="s">
+      <c r="D60" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="E60" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" ht="84.0" customHeight="1">
+      <c r="B61" s="42"/>
+      <c r="C61" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="17"/>
-    </row>
-    <row r="63" ht="84.0" customHeight="1">
-      <c r="B63" s="39"/>
-      <c r="C63" s="60" t="s">
+      <c r="D61" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="E61" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="70"/>
+    </row>
+    <row r="62" ht="69.75" customHeight="1">
+      <c r="B62" s="42"/>
+      <c r="C62" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="68"/>
-    </row>
-    <row r="64" ht="69.75" customHeight="1">
-      <c r="B64" s="39"/>
-      <c r="C64" s="60" t="s">
+      <c r="D62" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="65" t="s">
+      <c r="E62" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="70"/>
+    </row>
+    <row r="63" ht="53.25" customHeight="1">
+      <c r="B63" s="42"/>
+      <c r="C63" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
-    </row>
-    <row r="65" ht="53.25" customHeight="1">
-      <c r="B65" s="39"/>
-      <c r="C65" s="60" t="s">
+      <c r="D63" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="65" t="s">
+      <c r="E63" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="70"/>
+    </row>
+    <row r="64" ht="47.25" customHeight="1">
+      <c r="B64" s="42"/>
+      <c r="C64" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="68"/>
-    </row>
-    <row r="66" ht="47.25" customHeight="1">
-      <c r="B66" s="39"/>
-      <c r="C66" s="60" t="s">
+      <c r="D64" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="E64" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="70"/>
+    </row>
+    <row r="65" ht="69.0" customHeight="1">
+      <c r="B65" s="42"/>
+      <c r="C65" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="68"/>
-    </row>
-    <row r="67" ht="69.0" customHeight="1">
-      <c r="B67" s="39"/>
-      <c r="C67" s="60" t="s">
+      <c r="D65" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="E65" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="70"/>
+    </row>
+    <row r="66" ht="86.25" customHeight="1">
+      <c r="B66" s="42"/>
+      <c r="C66" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="68"/>
-    </row>
-    <row r="68" ht="86.25" customHeight="1">
-      <c r="B68" s="39"/>
-      <c r="C68" s="60" t="s">
+      <c r="D66" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="E66" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="70"/>
+    </row>
+    <row r="67" ht="48.0" customHeight="1">
+      <c r="B67" s="55"/>
+      <c r="C67" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="68"/>
-    </row>
-    <row r="69" ht="48.0" customHeight="1">
-      <c r="B69" s="51"/>
-      <c r="C69" s="69" t="s">
+      <c r="D67" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="D69" s="70" t="s">
+      <c r="E67" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="E69" s="71" t="s">
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+    </row>
+    <row r="68" ht="99.0" customHeight="1">
+      <c r="B68" s="73"/>
+      <c r="C68" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="36"/>
-    </row>
-    <row r="70" ht="69.0" customHeight="1">
-      <c r="B70" s="72" t="s">
+      <c r="D68" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" ht="58.5" customHeight="1">
+      <c r="B69" s="42"/>
+      <c r="C69" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D70" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="24" t="s">
+      <c r="D69" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="26"/>
-    </row>
-    <row r="71" ht="99.0" customHeight="1">
-      <c r="B71" s="39"/>
-      <c r="C71" s="60" t="s">
+      <c r="E69" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="30" t="s">
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" ht="138.75" customHeight="1">
+      <c r="B70" s="42"/>
+      <c r="C70" s="33" t="s">
         <v>185</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" ht="57.0" customHeight="1">
+      <c r="B71" s="42"/>
+      <c r="C71" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>189</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" ht="58.5" customHeight="1">
-      <c r="B72" s="39"/>
-      <c r="C72" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>188</v>
+    <row r="72" ht="72.75" customHeight="1">
+      <c r="B72" s="42"/>
+      <c r="C72" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>191</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" ht="138.75" customHeight="1">
-      <c r="B73" s="39"/>
-      <c r="C73" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="42" t="s">
-        <v>190</v>
+    <row r="73" ht="75.75" customHeight="1">
+      <c r="B73" s="42"/>
+      <c r="C73" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" ht="57.0" customHeight="1">
-      <c r="B74" s="39"/>
-      <c r="C74" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" s="42" t="s">
-        <v>193</v>
+    <row r="74" ht="68.25" customHeight="1">
+      <c r="B74" s="42"/>
+      <c r="C74" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>197</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" ht="72.75" customHeight="1">
-      <c r="B75" s="39"/>
-      <c r="C75" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="42" t="s">
-        <v>195</v>
+    <row r="75" ht="67.5" customHeight="1">
+      <c r="B75" s="42"/>
+      <c r="C75" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>200</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" ht="75.75" customHeight="1">
-      <c r="B76" s="39"/>
-      <c r="C76" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="D76" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>198</v>
+    <row r="76" ht="95.25" customHeight="1">
+      <c r="B76" s="42"/>
+      <c r="C76" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>203</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" ht="68.25" customHeight="1">
-      <c r="B77" s="39"/>
-      <c r="C77" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="D77" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>201</v>
+    <row r="77" ht="75.75" customHeight="1">
+      <c r="B77" s="42"/>
+      <c r="C77" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>206</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" ht="67.5" customHeight="1">
-      <c r="B78" s="39"/>
-      <c r="C78" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>204</v>
+    <row r="78" ht="47.25" customHeight="1">
+      <c r="B78" s="42"/>
+      <c r="C78" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>209</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" ht="95.25" customHeight="1">
-      <c r="B79" s="39"/>
-      <c r="C79" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>207</v>
+    <row r="79" ht="47.25" customHeight="1">
+      <c r="B79" s="42"/>
+      <c r="C79" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>212</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" ht="75.75" customHeight="1">
-      <c r="B80" s="39"/>
-      <c r="C80" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>210</v>
+    <row r="80" ht="47.25" customHeight="1">
+      <c r="B80" s="42"/>
+      <c r="C80" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>215</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" ht="47.25" customHeight="1">
-      <c r="B81" s="39"/>
-      <c r="C81" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E81" s="42" t="s">
-        <v>213</v>
+    <row r="81" ht="63.0" customHeight="1">
+      <c r="B81" s="42"/>
+      <c r="C81" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>218</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" ht="47.25" customHeight="1">
-      <c r="B82" s="39"/>
-      <c r="C82" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="42" t="s">
-        <v>216</v>
+    <row r="82" ht="56.25" customHeight="1">
+      <c r="B82" s="42"/>
+      <c r="C82" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
@@ -5411,366 +5240,362 @@
       <c r="I82" s="17"/>
     </row>
     <row r="83" ht="47.25" customHeight="1">
-      <c r="B83" s="39"/>
-      <c r="C83" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>219</v>
+      <c r="B83" s="42"/>
+      <c r="C83" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="51" t="s">
+        <v>224</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" ht="63.0" customHeight="1">
-      <c r="B84" s="39"/>
-      <c r="C84" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" s="42" t="s">
-        <v>222</v>
+    <row r="84" ht="75.75" customHeight="1">
+      <c r="B84" s="42"/>
+      <c r="C84" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="44" t="s">
+        <v>227</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" ht="56.25" customHeight="1">
-      <c r="B85" s="39"/>
-      <c r="C85" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" s="42" t="s">
-        <v>225</v>
+    <row r="85" ht="47.25" customHeight="1">
+      <c r="B85" s="42"/>
+      <c r="C85" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>230</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" ht="47.25" customHeight="1">
-      <c r="B86" s="39"/>
-      <c r="C86" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E86" s="47" t="s">
-        <v>228</v>
+    <row r="86" ht="69.0" customHeight="1">
+      <c r="B86" s="42"/>
+      <c r="C86" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>233</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" ht="75.75" customHeight="1">
-      <c r="B87" s="39"/>
-      <c r="C87" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="E87" s="42" t="s">
-        <v>231</v>
-      </c>
+    <row r="87" ht="78.75" customHeight="1">
+      <c r="B87" s="42"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="44"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" ht="47.25" customHeight="1">
-      <c r="B88" s="39"/>
-      <c r="C88" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="D88" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="E88" s="42" t="s">
-        <v>234</v>
+    <row r="88" ht="78.75" customHeight="1">
+      <c r="B88" s="42"/>
+      <c r="C88" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>236</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" ht="69.0" customHeight="1">
-      <c r="B89" s="39"/>
-      <c r="C89" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="E89" s="47" t="s">
+    <row r="89" ht="47.25" customHeight="1">
+      <c r="B89" s="42"/>
+      <c r="C89" s="33" t="s">
         <v>237</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>239</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" ht="78.75" customHeight="1">
-      <c r="B90" s="39"/>
-      <c r="C90" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="D90" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="42" t="s">
-        <v>239</v>
+    <row r="90" ht="57.75" customHeight="1">
+      <c r="B90" s="42"/>
+      <c r="C90" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" s="51" t="s">
+        <v>242</v>
       </c>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" ht="47.25" customHeight="1">
-      <c r="B91" s="39"/>
-      <c r="C91" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="D91" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>242</v>
+    <row r="91" ht="103.5" customHeight="1">
+      <c r="B91" s="42"/>
+      <c r="C91" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>245</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" ht="57.75" customHeight="1">
-      <c r="B92" s="39"/>
-      <c r="C92" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E92" s="47" t="s">
-        <v>245</v>
+    <row r="92" ht="72.0" customHeight="1">
+      <c r="B92" s="42"/>
+      <c r="C92" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>248</v>
       </c>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" ht="103.5" customHeight="1">
-      <c r="B93" s="39"/>
-      <c r="C93" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>248</v>
+    <row r="93" ht="92.25" customHeight="1">
+      <c r="B93" s="42"/>
+      <c r="C93" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>251</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" ht="72.0" customHeight="1">
-      <c r="B94" s="39"/>
-      <c r="C94" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D94" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>251</v>
+    <row r="94" ht="79.5" customHeight="1">
+      <c r="B94" s="42"/>
+      <c r="C94" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" ht="92.25" customHeight="1">
-      <c r="B95" s="39"/>
-      <c r="C95" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="D95" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95" s="42" t="s">
-        <v>254</v>
+    <row r="95" ht="81.75" customHeight="1">
+      <c r="B95" s="42"/>
+      <c r="C95" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" ht="79.5" customHeight="1">
-      <c r="B96" s="39"/>
-      <c r="C96" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="E96" s="47" t="s">
-        <v>257</v>
+    <row r="96" ht="67.5" customHeight="1">
+      <c r="B96" s="42"/>
+      <c r="C96" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E96" s="44" t="s">
+        <v>260</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" ht="81.75" customHeight="1">
-      <c r="B97" s="39"/>
-      <c r="C97" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E97" s="42" t="s">
-        <v>260</v>
+    <row r="97" ht="55.5" customHeight="1">
+      <c r="B97" s="42"/>
+      <c r="C97" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>263</v>
       </c>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" ht="67.5" customHeight="1">
-      <c r="B98" s="39"/>
-      <c r="C98" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E98" s="42" t="s">
-        <v>263</v>
+    <row r="98" ht="114.0" customHeight="1">
+      <c r="B98" s="42"/>
+      <c r="C98" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="E98" s="51" t="s">
+        <v>266</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" ht="55.5" customHeight="1">
-      <c r="B99" s="39"/>
-      <c r="C99" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="D99" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>266</v>
+    <row r="99" ht="66.75" customHeight="1">
+      <c r="B99" s="42"/>
+      <c r="C99" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>269</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" ht="114.0" customHeight="1">
-      <c r="B100" s="39"/>
-      <c r="C100" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="D100" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="E100" s="47" t="s">
-        <v>269</v>
+    <row r="100" ht="78.75" customHeight="1">
+      <c r="B100" s="42"/>
+      <c r="C100" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>272</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" ht="66.75" customHeight="1">
-      <c r="B101" s="39"/>
-      <c r="C101" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="E101" s="42" t="s">
-        <v>272</v>
+    <row r="101" ht="57.75" customHeight="1">
+      <c r="B101" s="42"/>
+      <c r="C101" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>275</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" ht="78.75" customHeight="1">
-      <c r="B102" s="39"/>
-      <c r="C102" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="E102" s="47" t="s">
-        <v>275</v>
+    <row r="102" ht="89.25" customHeight="1">
+      <c r="B102" s="42"/>
+      <c r="C102" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" s="51" t="s">
+        <v>278</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" ht="57.75" customHeight="1">
-      <c r="B103" s="39"/>
-      <c r="C103" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="D103" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>278</v>
+    <row r="103" ht="89.25" customHeight="1">
+      <c r="B103" s="42"/>
+      <c r="C103" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>281</v>
       </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" ht="89.25" customHeight="1">
-      <c r="B104" s="39"/>
-      <c r="C104" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="D104" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E104" s="47" t="s">
-        <v>281</v>
+    <row r="104" ht="83.25" customHeight="1">
+      <c r="B104" s="42"/>
+      <c r="C104" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" ht="89.25" customHeight="1">
-      <c r="B105" s="39"/>
-      <c r="C105" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="41" t="s">
+    <row r="105" ht="59.25" customHeight="1">
+      <c r="B105" s="42"/>
+      <c r="C105" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="E105" s="42" t="s">
+      <c r="D105" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="44" t="s">
         <v>284</v>
       </c>
       <c r="F105" s="16"/>
@@ -5778,53 +5603,29 @@
       <c r="H105" s="16"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" ht="83.25" customHeight="1">
-      <c r="B106" s="39"/>
-      <c r="C106" s="60" t="s">
+    <row r="106" ht="114.0" customHeight="1">
+      <c r="B106" s="74"/>
+      <c r="C106" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D106" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="42" t="s">
-        <v>122</v>
+      <c r="D106" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" ht="59.25" customHeight="1">
-      <c r="B107" s="39"/>
-      <c r="C107" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="D107" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E107" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="17"/>
-    </row>
-    <row r="108" ht="114.0" customHeight="1">
-      <c r="B108" s="73"/>
-      <c r="C108" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="D108" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E108" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="17"/>
+    <row r="107" ht="16.5" customHeight="1">
+      <c r="D107" s="1"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c r="D108" s="1"/>
+      <c r="H108" s="2"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c r="D109" s="1"/>
@@ -6442,13 +6243,11 @@
       <c r="D262" s="1"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" ht="16.5" customHeight="1">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="D263" s="1"/>
-      <c r="H263" s="2"/>
-    </row>
-    <row r="264" ht="16.5" customHeight="1">
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
       <c r="D264" s="1"/>
-      <c r="H264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
       <c r="D265" s="1"/>
@@ -8691,14 +8490,8 @@
     <row r="1011" ht="15.75" customHeight="1">
       <c r="D1011" s="1"/>
     </row>
-    <row r="1012" ht="15.75" customHeight="1">
-      <c r="D1012" s="1"/>
-    </row>
-    <row r="1013" ht="15.75" customHeight="1">
-      <c r="D1013" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="105">
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="D3:E5"/>
     <mergeCell ref="B7:I7"/>
@@ -8706,6 +8499,7 @@
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E17:I17"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
@@ -8717,38 +8511,38 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E31:I31"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:B29"/>
     <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B30:B69"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="B29:B67"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="E60:I60"/>
     <mergeCell ref="E61:I61"/>
     <mergeCell ref="E62:I62"/>
     <mergeCell ref="E63:I63"/>
     <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E105:I105"/>
+    <mergeCell ref="E106:I106"/>
+    <mergeCell ref="E75:I75"/>
+    <mergeCell ref="E74:I74"/>
     <mergeCell ref="E65:I65"/>
     <mergeCell ref="E66:I66"/>
-    <mergeCell ref="E107:I107"/>
-    <mergeCell ref="E108:I108"/>
+    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="E77:I77"/>
     <mergeCell ref="E78:I78"/>
-    <mergeCell ref="E77:I77"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="E79:I79"/>
-    <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E81:I81"/>
-    <mergeCell ref="E105:I105"/>
-    <mergeCell ref="B70:B108"/>
-    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E103:I103"/>
+    <mergeCell ref="B68:B106"/>
+    <mergeCell ref="E87:I87"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
     <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
     <mergeCell ref="E34:I34"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E36:I36"/>
@@ -8764,8 +8558,8 @@
     <mergeCell ref="E46:I46"/>
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="E50:I50"/>
+    <mergeCell ref="E51:I51"/>
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="E53:I53"/>
     <mergeCell ref="E54:I54"/>
@@ -8773,39 +8567,36 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="E57:I57"/>
     <mergeCell ref="E58:I58"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="E69:I69"/>
     <mergeCell ref="E70:I70"/>
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="E73:I73"/>
-    <mergeCell ref="E74:I74"/>
-    <mergeCell ref="E75:I75"/>
-    <mergeCell ref="E76:I76"/>
-    <mergeCell ref="E87:I87"/>
-    <mergeCell ref="E88:I88"/>
+    <mergeCell ref="E84:I84"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="E79:I79"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="E81:I81"/>
     <mergeCell ref="E82:I82"/>
     <mergeCell ref="E83:I83"/>
-    <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E85:I85"/>
-    <mergeCell ref="E86:I86"/>
-    <mergeCell ref="E99:I99"/>
-    <mergeCell ref="E100:I100"/>
+    <mergeCell ref="E97:I97"/>
+    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="E93:I93"/>
     <mergeCell ref="E94:I94"/>
     <mergeCell ref="E95:I95"/>
     <mergeCell ref="E96:I96"/>
-    <mergeCell ref="E97:I97"/>
-    <mergeCell ref="E98:I98"/>
+    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="E100:I100"/>
     <mergeCell ref="E101:I101"/>
     <mergeCell ref="E102:I102"/>
-    <mergeCell ref="E103:I103"/>
     <mergeCell ref="E104:I104"/>
-    <mergeCell ref="E106:I106"/>
+    <mergeCell ref="E86:I86"/>
+    <mergeCell ref="E88:I88"/>
     <mergeCell ref="E89:I89"/>
     <mergeCell ref="E90:I90"/>
     <mergeCell ref="E91:I91"/>
-    <mergeCell ref="E92:I92"/>
-    <mergeCell ref="E93:I93"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.0" right="0.0" top="0.6"/>

--- a/영화관 - 기능정의서.xlsx
+++ b/영화관 - 기능정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E560B3F-2599-41F2-8E35-57253BD842DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F02C8B-4488-4284-B4D0-104F260E3CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="272">
   <si>
     <t>기능 정의서</t>
+  </si>
+  <si>
+    <t>작성일</t>
   </si>
   <si>
     <r>
@@ -40,16 +43,13 @@
     </r>
   </si>
   <si>
-    <t>작성일</t>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>오한나, 이영주, 이희홍, 최영우, 박진주</t>
   </si>
   <si>
     <t>19.12.19</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>오한나, 이영주, 이희홍, 최영우, 박진주</t>
   </si>
   <si>
     <t>갱신일</t>
@@ -246,7 +246,7 @@
 b-1) '확인'을 누르면 수정이 완료되고 상세보기 페이지로 이동한다.
 b-2) '취소'를 누르면 영화 상세보기 페이지로 이동한다.
 c) 작성중 취소버튼을 누르면 게시글 작성이 취소되고 '수정을 취소하시겠습니까?' 라는 메시지가 나오며 '확인'을 누르면 상세보기 페이지로 이동한다
-c-1) '취소'를 누르면 다시 게시글을 수정하는 모달창으로 이동한다.</t>
+c-1) '취소'를 누르면 알림창이 사라진다.</t>
   </si>
   <si>
     <t>4.2.6</t>
@@ -353,9 +353,9 @@
     <t>회원
 a) 인원수 선택, 좌석 선택, 결제, 취소 버튼이 있다.
 b) 인원수를 선택해야 좌석을 선택한다,
-b-1) 인원수는 청소년, 일반으로 선택한다. (4명까지 선택한다.)
+b-1) 인원수는 청소년, 일반으로 선택한다.
 d) 좌석을 선택하면 결제 버튼을 누를 수 있다.
-인원수를 선택해야만 좌석을 선택할 수 있다.
+    인원수를 선택해야만 좌석을 선택할 수 있다.
 c) 결제 버튼을 누르면 결제 페이지로 이동한다,
 d) '취소'를 누르면 영화예매 페이지로 이동한다.</t>
   </si>
@@ -560,6 +560,12 @@
 c) '취소' 버튼을 클릭하면 기프티콘 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
+    <t>7.2.2.1</t>
+  </si>
+  <si>
+    <t>결제 화면</t>
+  </si>
+  <si>
     <t>7.2.3</t>
   </si>
   <si>
@@ -796,15 +802,19 @@
   </si>
   <si>
     <t>관리자
-a) 제목,내용 입력란이 있고 '수정','취소'버튼이 있다.
-b) 제목/내용을 입력하고  '수정'  버튼을 누르면 '수정하시겠습니까?' 라는 알림창이 나오고 '확인'을 누르면 수정이 완료되고 해당 게시물 상세보기로 이동한다. 
-c) '취소'버튼을 클릭시 수정되지 않고 해당 게시물 상세보기로 이동한다.</t>
+a) 제목, 내용 입력란이 있고 '수정','취소'버튼이 있다.
+b) 수정할 제목과 내용을 입력한 후 '수정'을 클릭하면 '수정하시겠습니까?'란 창이 뜨고 '확인'과 '취소' 버튼이 표시된다.
+b-1) '확인'을 클릭하면 해당 게시물이 수정되고 습득물 게시판 상세보기 페이지로 이동하고, '취소'를 클릭하면 게시물은 수정되지 않고 알림창이 사라진다.
+c) '취소'을 클릭하면 '취소하시겠습니까?'란 창이 뜨고 '확인'과 '취소' 버튼이 표시된다.
+c-1) '확인'을 클릭하면 습득물 게시판 상세보기 페이지로 이동하고, '취소'를 클릭하면 알림창이 사라진다.</t>
   </si>
   <si>
     <t>관리자
-a) 등록페이지에서는 제목/내용 입력란과 '등록','취소'버튼이 보인다.
-b) 입력란에 입력후 등록버튼을 클릭하면 게시물이 등록되고 습득물 알림 게시판 조회 페이지로 이동한다.
-c) 취소버튼을 클릭하면 습득물 알림 게시판 조회 페이지로 이동한다.</t>
+a) 제목, 내용 입력란이 있고 '등록','취소'버튼이 있다.
+b) 입력란에 입력후 '등록'을 클릭하면 '등록하시겠습니까?'란 창이 뜨고 '확인'과 '취소' 버튼이 표시된다.
+b-1) '확인'을 클릭하면 게시물이 등록되고 습득물 알림 게시판 조회 페이지로 이동하고, '취소'를 클릭하면 게시물이 등록되지 않고 알림창이 사라진다.
+c) '취소'을 클릭하면 '취소하시겠습니까?'란 창이 뜨고 '확인'과 '취소' 버튼이 표시된다.
+c-1) '확인'를 누르면 습득물 알림 게시판 조회 페이지로 이동하고, '취소'를 클릭하면 알림창이 사라진다.</t>
   </si>
   <si>
     <t>채용정보 게시판</t>
@@ -1050,8 +1060,9 @@
   </si>
   <si>
     <t>회원
-a) 내가 작성한 한줄평들이 작성시간이 최근인 순서로 조회된다.  1페이지당 10개씩 10페이지
-b) 한줄평 클릭 시 작성한 한줄평이 있는 영화 상세보기 페이지로 이동한다.</t>
+a) 내가 작성한 한줄평들이 작성시간이 최근인 순서로 조회된다. 
+a-1) 1페이지당 10개씩 10페이지
+a-2) 영화명/한줄평/작성시간</t>
   </si>
   <si>
     <t>내 기프티콘 조회</t>
@@ -1059,7 +1070,7 @@
   <si>
     <t>회원
 a) 내가 구입했던 기프티콘들이 만료기간이 더 가까운순으로 조회된다. (미사용 기프티콘 - 사용 기프티콘 순)
-     (기프티콘 이름, 가격,  만료일자, 현재상태(사용가능/사용완료))   1페이지당 10개씩 10페이지
+     (기프티콘 이름, 가격,  만료일자, 현재상태(사용가능/사용완료))  (게시글은 10개씩 보여진다.)
 b) 기프티콘을 클릭하면 내 기프티콘 상세보기 페이지로 이동한다.</t>
   </si>
   <si>
@@ -1189,7 +1200,7 @@
   <si>
     <t>관리자
 a) 관리자는 리뷰신고 조회 게시판에서 게시물을 클릭하여 상세보기 할수 있다.
-b) 상세보기 페이지에서는 신고자 ID, 신고제목, 신고내용을 볼 수 있고, 'LIST'버튼이 있다.
+b) 상세보기 페이지에서는 신고자 ID, 신고제목[리뷰 제목], 신고내용을 볼 수 있고, 'LIST'버튼이 있다.
 c) 'LIST'버튼을 눌러 리뷰 신고 조회 페이지로 이동한다.</t>
   </si>
   <si>
@@ -1260,11 +1271,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1284,12 +1290,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1321,12 +1337,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1394,58 +1404,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1461,56 +1420,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1522,12 +1431,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1563,6 +1468,78 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1573,7 +1550,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1590,6 +1569,26 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1627,6 +1626,17 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1794,265 +1804,265 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2273,22 +2283,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I994"/>
+  <dimension ref="A1:I995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="8.8984375" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31.09765625" customWidth="1"/>
-    <col min="9" max="9" width="73.69921875" customWidth="1"/>
-    <col min="10" max="10" width="38.19921875" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="9" max="9" width="73.75" customWidth="1"/>
+    <col min="10" max="10" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2299,7 +2309,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="14.4">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -2310,30 +2320,30 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="9"/>
       <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9"/>
       <c r="B4" s="45"/>
       <c r="C4" s="44"/>
@@ -2348,7 +2358,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="9"/>
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
@@ -2363,7 +2373,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -2374,7 +2384,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="14.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="48" t="s">
         <v>10</v>
@@ -2387,7 +2397,7 @@
       <c r="H7" s="49"/>
       <c r="I7" s="50"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>11</v>
@@ -3070,7 +3080,7 @@
       <c r="H46" s="53"/>
       <c r="I46" s="54"/>
     </row>
-    <row r="47" spans="1:9" ht="75" customHeight="1">
+    <row r="47" spans="1:9" ht="97.5" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="72"/>
       <c r="C47" s="28" t="s">
@@ -3079,75 +3089,75 @@
       <c r="D47" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="55" t="s">
-        <v>118</v>
+      <c r="E47" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="82.5" customHeight="1">
+    <row r="48" spans="1:9" ht="75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="27">
+      <c r="B48" s="72"/>
+      <c r="C48" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:9" ht="82.5" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="27">
         <v>7.3</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="61"/>
-    </row>
-    <row r="49" spans="1:9" ht="105.75" hidden="1" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="80" t="s">
+      <c r="D49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="32">
+      <c r="E49" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="61"/>
+    </row>
+    <row r="50" spans="1:9" ht="105.75" hidden="1" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="32">
         <v>8</v>
       </c>
-      <c r="D49" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
-    </row>
-    <row r="50" spans="1:9" ht="64.5" hidden="1" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="32">
-        <v>8.1</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>79</v>
+      <c r="D50" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="E50" s="64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F50" s="53"/>
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
       <c r="I50" s="54"/>
     </row>
-    <row r="51" spans="1:9" ht="135" hidden="1" customHeight="1">
+    <row r="51" spans="1:9" ht="64.5" hidden="1" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="72"/>
       <c r="C51" s="32">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="E51" s="64" t="s">
         <v>126</v>
@@ -3157,121 +3167,121 @@
       <c r="H51" s="53"/>
       <c r="I51" s="54"/>
     </row>
-    <row r="52" spans="1:9" ht="69" hidden="1" customHeight="1">
+    <row r="52" spans="1:9" ht="135" hidden="1" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="72"/>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D52" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="E52" s="64" t="s">
         <v>128</v>
-      </c>
-      <c r="E52" s="64" t="s">
-        <v>129</v>
       </c>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" ht="75" hidden="1" customHeight="1">
+    <row r="53" spans="1:9" ht="69" hidden="1" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="72"/>
       <c r="C53" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="E53" s="64" t="s">
         <v>131</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>132</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
       <c r="I53" s="54"/>
     </row>
-    <row r="54" spans="1:9" ht="74.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:9" ht="75" hidden="1" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="34">
+      <c r="B54" s="72"/>
+      <c r="C54" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="54"/>
+    </row>
+    <row r="55" spans="1:9" ht="74.25" hidden="1" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="34">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D54" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="61"/>
-    </row>
-    <row r="55" spans="1:9" ht="110.25" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="71" t="s">
+      <c r="D55" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="28">
+      <c r="E55" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="56" spans="1:9" ht="110.25" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="28">
         <v>8</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="54"/>
-    </row>
-    <row r="56" spans="1:9" ht="66" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="28">
-        <v>8.1</v>
-      </c>
       <c r="D56" s="28" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
       <c r="I56" s="54"/>
     </row>
-    <row r="57" spans="1:9" ht="113.25" customHeight="1">
+    <row r="57" spans="1:9" ht="66" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="72"/>
       <c r="C57" s="28">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>125</v>
+        <v>8.1</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F57" s="53"/>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
       <c r="I57" s="54"/>
     </row>
-    <row r="58" spans="1:9" ht="75" customHeight="1">
+    <row r="58" spans="1:9" ht="113.25" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="72"/>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="28">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="28" t="s">
-        <v>128</v>
-      </c>
       <c r="E58" s="55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
@@ -3282,99 +3292,99 @@
       <c r="A59" s="1"/>
       <c r="B59" s="72"/>
       <c r="C59" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>141</v>
+      <c r="E59" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="F59" s="53"/>
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
       <c r="I59" s="54"/>
     </row>
-    <row r="60" spans="1:9" ht="100.5" customHeight="1">
+    <row r="60" spans="1:9" ht="75" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="27">
+      <c r="B60" s="72"/>
+      <c r="C60" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="54"/>
+    </row>
+    <row r="61" spans="1:9" ht="100.5" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="27">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="61"/>
-    </row>
-    <row r="61" spans="1:9" ht="123" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" s="28">
+      <c r="D61" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="61"/>
+    </row>
+    <row r="62" spans="1:9" ht="123" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="28">
         <v>9</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="54"/>
-    </row>
-    <row r="62" spans="1:9" ht="63" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="28">
-        <v>9.1</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>79</v>
+      <c r="D62" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
       <c r="I62" s="54"/>
     </row>
-    <row r="63" spans="1:9" ht="86.25" customHeight="1">
+    <row r="63" spans="1:9" ht="63" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="77"/>
       <c r="C63" s="28">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>125</v>
+        <v>9.1</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F63" s="53"/>
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:9" ht="73.5" customHeight="1">
+    <row r="64" spans="1:9" ht="86.25" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="77"/>
-      <c r="C64" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="52" t="s">
+      <c r="C64" s="28">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="55" t="s">
         <v>149</v>
       </c>
       <c r="F64" s="53"/>
@@ -3382,14 +3392,14 @@
       <c r="H64" s="53"/>
       <c r="I64" s="54"/>
     </row>
-    <row r="65" spans="1:9" ht="99" customHeight="1">
+    <row r="65" spans="1:9" ht="73.5" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="77"/>
       <c r="C65" s="28" t="s">
         <v>150</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>151</v>
@@ -3399,84 +3409,84 @@
       <c r="H65" s="53"/>
       <c r="I65" s="54"/>
     </row>
-    <row r="66" spans="1:9" ht="111.75" customHeight="1">
+    <row r="66" spans="1:9" ht="99" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="27">
+      <c r="B66" s="77"/>
+      <c r="C66" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="54"/>
+    </row>
+    <row r="67" spans="1:9" ht="111.75" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="27">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D66" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="61"/>
-    </row>
-    <row r="67" spans="1:9" ht="126" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="28">
+      <c r="D67" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="61"/>
+    </row>
+    <row r="68" spans="1:9" ht="126" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="28">
         <v>10</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="54"/>
-    </row>
-    <row r="68" spans="1:9" ht="78.75" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="28">
-        <v>10.1</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>79</v>
+      <c r="D68" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
       <c r="H68" s="53"/>
       <c r="I68" s="54"/>
     </row>
-    <row r="69" spans="1:9" ht="129.75" customHeight="1">
+    <row r="69" spans="1:9" ht="78.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="72"/>
       <c r="C69" s="28">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>125</v>
+        <v>10.1</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" s="53"/>
       <c r="G69" s="53"/>
       <c r="H69" s="53"/>
       <c r="I69" s="54"/>
     </row>
-    <row r="70" spans="1:9" ht="106.5" customHeight="1">
+    <row r="70" spans="1:9" ht="129.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="72"/>
-      <c r="C70" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>128</v>
+      <c r="C70" s="28">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="E70" s="55" t="s">
         <v>159</v>
@@ -3486,16 +3496,16 @@
       <c r="H70" s="53"/>
       <c r="I70" s="54"/>
     </row>
-    <row r="71" spans="1:9" ht="85.5" customHeight="1">
+    <row r="71" spans="1:9" ht="106.5" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="72"/>
       <c r="C71" s="28" t="s">
         <v>160</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="55" t="s">
         <v>161</v>
       </c>
       <c r="F71" s="53"/>
@@ -3505,82 +3515,82 @@
     </row>
     <row r="72" spans="1:9" ht="85.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="27">
+      <c r="B72" s="72"/>
+      <c r="C72" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
+    </row>
+    <row r="73" spans="1:9" ht="85.5" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="27">
         <v>10.3</v>
       </c>
-      <c r="D72" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="61"/>
-    </row>
-    <row r="73" spans="1:9" ht="39" hidden="1" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="33">
+      <c r="D73" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="61"/>
+    </row>
+    <row r="74" spans="1:9" ht="39" hidden="1" customHeight="1">
+      <c r="A74" s="19"/>
+      <c r="B74" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="33">
         <v>12.1</v>
       </c>
-      <c r="D73" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="54"/>
-    </row>
-    <row r="74" spans="1:9" ht="72" hidden="1" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="33" t="s">
+      <c r="D74" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="E74" s="63" t="s">
         <v>167</v>
-      </c>
-      <c r="E74" s="63" t="s">
-        <v>168</v>
       </c>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
       <c r="H74" s="53"/>
       <c r="I74" s="54"/>
     </row>
-    <row r="75" spans="1:9" ht="40.5" hidden="1" customHeight="1">
+    <row r="75" spans="1:9" ht="72" hidden="1" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="72"/>
       <c r="C75" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="E75" s="63" t="s">
         <v>170</v>
-      </c>
-      <c r="E75" s="63" t="s">
-        <v>171</v>
       </c>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
       <c r="H75" s="53"/>
       <c r="I75" s="54"/>
     </row>
-    <row r="76" spans="1:9" ht="63.75" hidden="1" customHeight="1">
+    <row r="76" spans="1:9" ht="40.5" hidden="1" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="72"/>
       <c r="C76" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="32" t="s">
         <v>172</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>131</v>
       </c>
       <c r="E76" s="63" t="s">
         <v>173</v>
@@ -3590,14 +3600,14 @@
       <c r="H76" s="53"/>
       <c r="I76" s="54"/>
     </row>
-    <row r="77" spans="1:9" ht="37.5" hidden="1" customHeight="1">
+    <row r="77" spans="1:9" ht="63.75" hidden="1" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="72"/>
       <c r="C77" s="33" t="s">
         <v>174</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E77" s="63" t="s">
         <v>175</v>
@@ -3607,14 +3617,14 @@
       <c r="H77" s="53"/>
       <c r="I77" s="54"/>
     </row>
-    <row r="78" spans="1:9" ht="51.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:9" ht="37.5" hidden="1" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="72"/>
-      <c r="C78" s="33">
-        <v>12.2</v>
+      <c r="C78" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>177</v>
@@ -3624,11 +3634,11 @@
       <c r="H78" s="53"/>
       <c r="I78" s="54"/>
     </row>
-    <row r="79" spans="1:9" ht="54.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:9" ht="51.75" hidden="1" customHeight="1">
       <c r="A79" s="19"/>
       <c r="B79" s="72"/>
       <c r="C79" s="33">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D79" s="32" t="s">
         <v>178</v>
@@ -3641,62 +3651,62 @@
       <c r="H79" s="53"/>
       <c r="I79" s="54"/>
     </row>
-    <row r="80" spans="1:9" ht="93.75" hidden="1" customHeight="1">
+    <row r="80" spans="1:9" ht="54.75" hidden="1" customHeight="1">
       <c r="A80" s="19"/>
       <c r="B80" s="72"/>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="33">
+        <v>12.3</v>
+      </c>
+      <c r="D80" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="E80" s="63" t="s">
         <v>181</v>
-      </c>
-      <c r="E80" s="63" t="s">
-        <v>182</v>
       </c>
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
       <c r="H80" s="53"/>
       <c r="I80" s="54"/>
     </row>
-    <row r="81" spans="1:9" ht="41.25" hidden="1" customHeight="1">
+    <row r="81" spans="1:9" ht="93.75" hidden="1" customHeight="1">
       <c r="A81" s="19"/>
       <c r="B81" s="72"/>
       <c r="C81" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="E81" s="63" t="s">
         <v>184</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>185</v>
       </c>
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
       <c r="H81" s="53"/>
       <c r="I81" s="54"/>
     </row>
-    <row r="82" spans="1:9" ht="60.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:9" ht="41.25" hidden="1" customHeight="1">
       <c r="A82" s="19"/>
       <c r="B82" s="72"/>
       <c r="C82" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="E82" s="64" t="s">
         <v>187</v>
-      </c>
-      <c r="E82" s="63" t="s">
-        <v>188</v>
       </c>
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
       <c r="H82" s="53"/>
       <c r="I82" s="54"/>
     </row>
-    <row r="83" spans="1:9" ht="58.5" hidden="1" customHeight="1">
+    <row r="83" spans="1:9" ht="60.75" hidden="1" customHeight="1">
       <c r="A83" s="19"/>
       <c r="B83" s="72"/>
-      <c r="C83" s="33">
-        <v>12.4</v>
+      <c r="C83" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>189</v>
@@ -3709,11 +3719,11 @@
       <c r="H83" s="53"/>
       <c r="I83" s="54"/>
     </row>
-    <row r="84" spans="1:9" ht="42" hidden="1" customHeight="1">
+    <row r="84" spans="1:9" ht="58.5" hidden="1" customHeight="1">
       <c r="A84" s="19"/>
       <c r="B84" s="72"/>
-      <c r="C84" s="32">
-        <v>12.5</v>
+      <c r="C84" s="33">
+        <v>12.4</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>191</v>
@@ -3726,50 +3736,50 @@
       <c r="H84" s="53"/>
       <c r="I84" s="54"/>
     </row>
-    <row r="85" spans="1:9" ht="84" hidden="1" customHeight="1">
+    <row r="85" spans="1:9" ht="42" hidden="1" customHeight="1">
       <c r="A85" s="19"/>
       <c r="B85" s="72"/>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="32">
+        <v>12.5</v>
+      </c>
+      <c r="D85" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="E85" s="63" t="s">
         <v>194</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>195</v>
       </c>
       <c r="F85" s="53"/>
       <c r="G85" s="53"/>
       <c r="H85" s="53"/>
       <c r="I85" s="54"/>
     </row>
-    <row r="86" spans="1:9" ht="44.25" hidden="1" customHeight="1">
+    <row r="86" spans="1:9" ht="84" hidden="1" customHeight="1">
       <c r="A86" s="19"/>
       <c r="B86" s="72"/>
       <c r="C86" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="E86" s="63" t="s">
         <v>197</v>
-      </c>
-      <c r="E86" s="64" t="s">
-        <v>198</v>
       </c>
       <c r="F86" s="53"/>
       <c r="G86" s="53"/>
       <c r="H86" s="53"/>
       <c r="I86" s="54"/>
     </row>
-    <row r="87" spans="1:9" ht="54" hidden="1" customHeight="1">
+    <row r="87" spans="1:9" ht="44.25" hidden="1" customHeight="1">
       <c r="A87" s="19"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="33">
-        <v>12.5</v>
+      <c r="B87" s="72"/>
+      <c r="C87" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="E87" s="63" t="s">
+      <c r="E87" s="64" t="s">
         <v>200</v>
       </c>
       <c r="F87" s="53"/>
@@ -3777,86 +3787,86 @@
       <c r="H87" s="53"/>
       <c r="I87" s="54"/>
     </row>
-    <row r="88" spans="1:9" ht="63" customHeight="1">
+    <row r="88" spans="1:9" ht="54" hidden="1" customHeight="1">
       <c r="A88" s="19"/>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="73"/>
+      <c r="C88" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="D88" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="C88" s="31">
+      <c r="E88" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="54"/>
+    </row>
+    <row r="89" spans="1:9" ht="63" customHeight="1">
+      <c r="A89" s="19"/>
+      <c r="B89" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="31">
         <v>11</v>
       </c>
-      <c r="D88" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="E88" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="50"/>
-    </row>
-    <row r="89" spans="1:9" ht="96.75" customHeight="1">
-      <c r="A89" s="19"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="28">
-        <v>11.1</v>
-      </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="52" t="s">
+      <c r="E89" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="54"/>
-    </row>
-    <row r="90" spans="1:9" ht="102.75" customHeight="1">
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="50"/>
+    </row>
+    <row r="90" spans="1:9" ht="96.75" customHeight="1">
       <c r="A90" s="19"/>
       <c r="B90" s="72"/>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="28">
+        <v>11.1</v>
+      </c>
+      <c r="D90" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="E90" s="52" t="s">
         <v>206</v>
-      </c>
-      <c r="E90" s="55" t="s">
-        <v>207</v>
       </c>
       <c r="F90" s="53"/>
       <c r="G90" s="53"/>
       <c r="H90" s="53"/>
       <c r="I90" s="54"/>
     </row>
-    <row r="91" spans="1:9" ht="87" customHeight="1">
+    <row r="91" spans="1:9" ht="102.75" customHeight="1">
       <c r="A91" s="19"/>
       <c r="B91" s="72"/>
       <c r="C91" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="E91" s="55" t="s">
         <v>209</v>
-      </c>
-      <c r="E91" s="69" t="s">
-        <v>210</v>
       </c>
       <c r="F91" s="53"/>
       <c r="G91" s="53"/>
       <c r="H91" s="53"/>
       <c r="I91" s="54"/>
     </row>
-    <row r="92" spans="1:9" ht="129" customHeight="1">
+    <row r="92" spans="1:9" ht="87" customHeight="1">
       <c r="A92" s="19"/>
       <c r="B92" s="72"/>
-      <c r="C92" s="28">
-        <v>11.2</v>
+      <c r="C92" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E92" s="52" t="s">
+      <c r="E92" s="69" t="s">
         <v>212</v>
       </c>
       <c r="F92" s="53"/>
@@ -3864,50 +3874,50 @@
       <c r="H92" s="53"/>
       <c r="I92" s="54"/>
     </row>
-    <row r="93" spans="1:9" ht="88.5" customHeight="1">
+    <row r="93" spans="1:9" ht="129" customHeight="1">
       <c r="A93" s="19"/>
       <c r="B93" s="72"/>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="28">
+        <v>11.2</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="E93" s="52" t="s">
         <v>214</v>
-      </c>
-      <c r="E93" s="52" t="s">
-        <v>215</v>
       </c>
       <c r="F93" s="53"/>
       <c r="G93" s="53"/>
       <c r="H93" s="53"/>
       <c r="I93" s="54"/>
     </row>
-    <row r="94" spans="1:9" ht="81.75" customHeight="1">
+    <row r="94" spans="1:9" ht="88.5" customHeight="1">
       <c r="A94" s="19"/>
       <c r="B94" s="72"/>
       <c r="C94" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="E94" s="52" t="s">
         <v>217</v>
-      </c>
-      <c r="E94" s="55" t="s">
-        <v>218</v>
       </c>
       <c r="F94" s="53"/>
       <c r="G94" s="53"/>
       <c r="H94" s="53"/>
       <c r="I94" s="54"/>
     </row>
-    <row r="95" spans="1:9" ht="72" customHeight="1">
+    <row r="95" spans="1:9" ht="81.75" customHeight="1">
       <c r="A95" s="19"/>
       <c r="B95" s="72"/>
-      <c r="C95" s="28">
-        <v>11.3</v>
+      <c r="C95" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="52" t="s">
+      <c r="E95" s="55" t="s">
         <v>220</v>
       </c>
       <c r="F95" s="53"/>
@@ -3915,11 +3925,11 @@
       <c r="H95" s="53"/>
       <c r="I95" s="54"/>
     </row>
-    <row r="96" spans="1:9" ht="76.5" customHeight="1">
+    <row r="96" spans="1:9" ht="72" customHeight="1">
       <c r="A96" s="19"/>
       <c r="B96" s="72"/>
       <c r="C96" s="28">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>221</v>
@@ -3932,16 +3942,16 @@
       <c r="H96" s="53"/>
       <c r="I96" s="54"/>
     </row>
-    <row r="97" spans="1:9" ht="81" customHeight="1">
+    <row r="97" spans="1:9" ht="76.5" customHeight="1">
       <c r="A97" s="19"/>
       <c r="B97" s="72"/>
       <c r="C97" s="28">
-        <v>11.5</v>
-      </c>
-      <c r="D97" s="28" t="s">
+        <v>11.4</v>
+      </c>
+      <c r="D97" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E97" s="69" t="s">
+      <c r="E97" s="52" t="s">
         <v>224</v>
       </c>
       <c r="F97" s="53"/>
@@ -3949,115 +3959,115 @@
       <c r="H97" s="53"/>
       <c r="I97" s="54"/>
     </row>
-    <row r="98" spans="1:9" ht="130.5" customHeight="1">
+    <row r="98" spans="1:9" ht="81" customHeight="1">
       <c r="A98" s="19"/>
       <c r="B98" s="72"/>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="28">
+        <v>11.5</v>
+      </c>
+      <c r="D98" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="E98" s="69" t="s">
         <v>226</v>
-      </c>
-      <c r="E98" s="55" t="s">
-        <v>227</v>
       </c>
       <c r="F98" s="53"/>
       <c r="G98" s="53"/>
       <c r="H98" s="53"/>
       <c r="I98" s="54"/>
     </row>
-    <row r="99" spans="1:9" ht="75" customHeight="1">
+    <row r="99" spans="1:9" ht="130.5" customHeight="1">
       <c r="A99" s="19"/>
       <c r="B99" s="72"/>
       <c r="C99" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="E99" s="55" t="s">
         <v>229</v>
-      </c>
-      <c r="E99" s="52" t="s">
-        <v>230</v>
       </c>
       <c r="F99" s="53"/>
       <c r="G99" s="53"/>
       <c r="H99" s="53"/>
       <c r="I99" s="54"/>
     </row>
-    <row r="100" spans="1:9" ht="63.75" customHeight="1">
+    <row r="100" spans="1:9" ht="75" customHeight="1">
       <c r="A100" s="19"/>
       <c r="B100" s="72"/>
       <c r="C100" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="E100" s="52" t="s">
         <v>232</v>
-      </c>
-      <c r="E100" s="52" t="s">
-        <v>233</v>
       </c>
       <c r="F100" s="53"/>
       <c r="G100" s="53"/>
       <c r="H100" s="53"/>
       <c r="I100" s="54"/>
     </row>
-    <row r="101" spans="1:9" ht="66" customHeight="1">
+    <row r="101" spans="1:9" ht="63.75" customHeight="1">
       <c r="A101" s="19"/>
-      <c r="B101" s="73"/>
-      <c r="C101" s="29">
+      <c r="B101" s="72"/>
+      <c r="C101" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E101" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="54"/>
+    </row>
+    <row r="102" spans="1:9" ht="66" customHeight="1">
+      <c r="A102" s="19"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="29">
         <v>11.6</v>
       </c>
-      <c r="D101" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="58"/>
-    </row>
-    <row r="102" spans="1:9" ht="66.75" customHeight="1">
-      <c r="A102" s="19"/>
-      <c r="B102" s="81" t="s">
+      <c r="D102" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C102" s="36">
+      <c r="E102" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="58"/>
+    </row>
+    <row r="103" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A103" s="19"/>
+      <c r="B103" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="36">
         <v>12</v>
       </c>
-      <c r="D102" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E102" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="F102" s="67"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="68"/>
-    </row>
-    <row r="103" spans="1:9" ht="72.75" customHeight="1">
-      <c r="A103" s="19"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="28">
-        <v>12.1</v>
-      </c>
-      <c r="D103" s="28" t="s">
+      <c r="D103" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="E103" s="52" t="s">
+      <c r="E103" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="F103" s="53"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="53"/>
-      <c r="I103" s="54"/>
-    </row>
-    <row r="104" spans="1:9" ht="69.75" customHeight="1">
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="68"/>
+    </row>
+    <row r="104" spans="1:9" ht="72.75" customHeight="1">
       <c r="A104" s="19"/>
       <c r="B104" s="72"/>
-      <c r="C104" s="28" t="s">
-        <v>166</v>
+      <c r="C104" s="28">
+        <v>12.1</v>
       </c>
       <c r="D104" s="28" t="s">
         <v>240</v>
@@ -4070,50 +4080,50 @@
       <c r="H104" s="53"/>
       <c r="I104" s="54"/>
     </row>
-    <row r="105" spans="1:9" ht="87.75" customHeight="1">
+    <row r="105" spans="1:9" ht="69.75" customHeight="1">
       <c r="A105" s="19"/>
       <c r="B105" s="72"/>
       <c r="C105" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="E105" s="52" t="s">
         <v>243</v>
-      </c>
-      <c r="E105" s="55" t="s">
-        <v>244</v>
       </c>
       <c r="F105" s="53"/>
       <c r="G105" s="53"/>
       <c r="H105" s="53"/>
       <c r="I105" s="54"/>
     </row>
-    <row r="106" spans="1:9" ht="88.5" customHeight="1">
+    <row r="106" spans="1:9" ht="87.75" customHeight="1">
       <c r="A106" s="19"/>
       <c r="B106" s="72"/>
       <c r="C106" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="E106" s="55" t="s">
         <v>246</v>
-      </c>
-      <c r="E106" s="55" t="s">
-        <v>247</v>
       </c>
       <c r="F106" s="53"/>
       <c r="G106" s="53"/>
       <c r="H106" s="53"/>
       <c r="I106" s="54"/>
     </row>
-    <row r="107" spans="1:9" ht="66" customHeight="1">
+    <row r="107" spans="1:9" ht="88.5" customHeight="1">
       <c r="A107" s="19"/>
       <c r="B107" s="72"/>
-      <c r="C107" s="28">
-        <v>12.2</v>
+      <c r="C107" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="D107" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E107" s="69" t="s">
+      <c r="E107" s="55" t="s">
         <v>249</v>
       </c>
       <c r="F107" s="53"/>
@@ -4121,4552 +4131,4569 @@
       <c r="H107" s="53"/>
       <c r="I107" s="54"/>
     </row>
-    <row r="108" spans="1:9" ht="120" customHeight="1">
+    <row r="108" spans="1:9" ht="66" customHeight="1">
       <c r="A108" s="19"/>
       <c r="B108" s="72"/>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="28">
+        <v>12.2</v>
+      </c>
+      <c r="D108" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="E108" s="69" t="s">
         <v>251</v>
-      </c>
-      <c r="E108" s="52" t="s">
-        <v>252</v>
       </c>
       <c r="F108" s="53"/>
       <c r="G108" s="53"/>
       <c r="H108" s="53"/>
       <c r="I108" s="54"/>
     </row>
-    <row r="109" spans="1:9" ht="76.5" customHeight="1">
+    <row r="109" spans="1:9" ht="120" customHeight="1">
       <c r="A109" s="19"/>
       <c r="B109" s="72"/>
       <c r="C109" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="E109" s="52" t="s">
         <v>254</v>
-      </c>
-      <c r="E109" s="52" t="s">
-        <v>255</v>
       </c>
       <c r="F109" s="53"/>
       <c r="G109" s="53"/>
       <c r="H109" s="53"/>
       <c r="I109" s="54"/>
     </row>
-    <row r="110" spans="1:9" ht="108" customHeight="1">
+    <row r="110" spans="1:9" ht="76.5" customHeight="1">
       <c r="A110" s="19"/>
       <c r="B110" s="72"/>
       <c r="C110" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="E110" s="52" t="s">
         <v>257</v>
-      </c>
-      <c r="E110" s="52" t="s">
-        <v>258</v>
       </c>
       <c r="F110" s="53"/>
       <c r="G110" s="53"/>
       <c r="H110" s="53"/>
       <c r="I110" s="54"/>
     </row>
-    <row r="111" spans="1:9" ht="70.5" customHeight="1">
+    <row r="111" spans="1:9" ht="108" customHeight="1">
       <c r="A111" s="19"/>
       <c r="B111" s="72"/>
       <c r="C111" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="E111" s="52" t="s">
         <v>260</v>
-      </c>
-      <c r="E111" s="52" t="s">
-        <v>261</v>
       </c>
       <c r="F111" s="53"/>
       <c r="G111" s="53"/>
       <c r="H111" s="53"/>
       <c r="I111" s="54"/>
     </row>
-    <row r="112" spans="1:9" ht="136.5" customHeight="1">
+    <row r="112" spans="1:9" ht="70.5" customHeight="1">
+      <c r="A112" s="19"/>
       <c r="B112" s="72"/>
       <c r="C112" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D112" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D112" s="23" t="s">
+      <c r="E112" s="52" t="s">
         <v>263</v>
-      </c>
-      <c r="E112" s="52" t="s">
-        <v>264</v>
       </c>
       <c r="F112" s="53"/>
       <c r="G112" s="53"/>
       <c r="H112" s="53"/>
       <c r="I112" s="54"/>
     </row>
-    <row r="113" spans="2:9" ht="72" customHeight="1">
-      <c r="B113" s="73"/>
-      <c r="C113" s="29" t="s">
+    <row r="113" spans="2:9" ht="136.5" customHeight="1">
+      <c r="B113" s="72"/>
+      <c r="C113" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="E113" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="E113" s="78" t="s">
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="54"/>
+    </row>
+    <row r="114" spans="2:9" ht="72" customHeight="1">
+      <c r="B114" s="73"/>
+      <c r="C114" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="58"/>
-    </row>
-    <row r="114" spans="2:9" ht="55.5" customHeight="1">
-      <c r="B114" s="37" t="s">
+      <c r="D114" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C114" s="38">
+      <c r="E114" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="58"/>
+    </row>
+    <row r="115" spans="2:9" ht="55.5" customHeight="1">
+      <c r="B115" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="38">
         <v>13</v>
       </c>
-      <c r="D114" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="E114" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="F114" s="87"/>
-      <c r="G114" s="87"/>
-      <c r="H114" s="87"/>
-      <c r="I114" s="88"/>
-    </row>
-    <row r="115" spans="2:9" ht="14.4">
-      <c r="B115" s="40"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="42"/>
-    </row>
-    <row r="116" spans="2:9" ht="14.4">
+      <c r="D115" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E115" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="F115" s="87"/>
+      <c r="G115" s="87"/>
+      <c r="H115" s="87"/>
+      <c r="I115" s="88"/>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" s="40"/>
       <c r="C116" s="41"/>
       <c r="D116" s="42"/>
     </row>
-    <row r="117" spans="2:9" ht="14.4">
+    <row r="117" spans="2:9">
       <c r="B117" s="40"/>
       <c r="C117" s="41"/>
       <c r="D117" s="42"/>
     </row>
-    <row r="118" spans="2:9" ht="14.4">
+    <row r="118" spans="2:9">
       <c r="B118" s="40"/>
       <c r="C118" s="41"/>
       <c r="D118" s="42"/>
     </row>
-    <row r="119" spans="2:9" ht="14.4">
+    <row r="119" spans="2:9">
       <c r="B119" s="40"/>
       <c r="C119" s="41"/>
       <c r="D119" s="42"/>
     </row>
-    <row r="120" spans="2:9" ht="14.4">
+    <row r="120" spans="2:9">
       <c r="B120" s="40"/>
       <c r="C120" s="41"/>
       <c r="D120" s="42"/>
     </row>
-    <row r="121" spans="2:9" ht="14.4">
+    <row r="121" spans="2:9">
       <c r="B121" s="40"/>
       <c r="C121" s="41"/>
       <c r="D121" s="42"/>
     </row>
-    <row r="122" spans="2:9" ht="14.4">
+    <row r="122" spans="2:9">
       <c r="B122" s="40"/>
       <c r="C122" s="41"/>
       <c r="D122" s="42"/>
     </row>
-    <row r="123" spans="2:9" ht="14.4">
+    <row r="123" spans="2:9">
       <c r="B123" s="40"/>
       <c r="C123" s="41"/>
       <c r="D123" s="42"/>
     </row>
-    <row r="124" spans="2:9" ht="14.4">
+    <row r="124" spans="2:9">
       <c r="B124" s="40"/>
       <c r="C124" s="41"/>
       <c r="D124" s="42"/>
     </row>
-    <row r="125" spans="2:9" ht="14.4">
+    <row r="125" spans="2:9">
       <c r="B125" s="40"/>
       <c r="C125" s="41"/>
       <c r="D125" s="42"/>
     </row>
-    <row r="126" spans="2:9" ht="14.4">
+    <row r="126" spans="2:9">
       <c r="B126" s="40"/>
       <c r="C126" s="41"/>
       <c r="D126" s="42"/>
     </row>
-    <row r="127" spans="2:9" ht="14.4">
+    <row r="127" spans="2:9">
       <c r="B127" s="40"/>
       <c r="C127" s="41"/>
       <c r="D127" s="42"/>
     </row>
-    <row r="128" spans="2:9" ht="14.4">
+    <row r="128" spans="2:9">
       <c r="B128" s="40"/>
       <c r="C128" s="41"/>
       <c r="D128" s="42"/>
     </row>
-    <row r="129" spans="2:4" ht="14.4">
+    <row r="129" spans="2:4">
       <c r="B129" s="40"/>
       <c r="C129" s="41"/>
       <c r="D129" s="42"/>
     </row>
-    <row r="130" spans="2:4" ht="14.4">
+    <row r="130" spans="2:4">
       <c r="B130" s="40"/>
       <c r="C130" s="41"/>
       <c r="D130" s="42"/>
     </row>
-    <row r="131" spans="2:4" ht="14.4">
+    <row r="131" spans="2:4">
       <c r="B131" s="40"/>
       <c r="C131" s="41"/>
       <c r="D131" s="42"/>
     </row>
-    <row r="132" spans="2:4" ht="14.4">
+    <row r="132" spans="2:4">
       <c r="B132" s="40"/>
       <c r="C132" s="41"/>
       <c r="D132" s="42"/>
     </row>
-    <row r="133" spans="2:4" ht="14.4">
+    <row r="133" spans="2:4">
       <c r="B133" s="40"/>
       <c r="C133" s="41"/>
       <c r="D133" s="42"/>
     </row>
-    <row r="134" spans="2:4" ht="14.4">
+    <row r="134" spans="2:4">
       <c r="B134" s="40"/>
       <c r="C134" s="41"/>
       <c r="D134" s="42"/>
     </row>
-    <row r="135" spans="2:4" ht="14.4">
+    <row r="135" spans="2:4">
       <c r="B135" s="40"/>
       <c r="C135" s="41"/>
       <c r="D135" s="42"/>
     </row>
-    <row r="136" spans="2:4" ht="14.4">
+    <row r="136" spans="2:4">
       <c r="B136" s="40"/>
       <c r="C136" s="41"/>
       <c r="D136" s="42"/>
     </row>
-    <row r="137" spans="2:4" ht="14.4">
+    <row r="137" spans="2:4">
       <c r="B137" s="40"/>
       <c r="C137" s="41"/>
       <c r="D137" s="42"/>
     </row>
-    <row r="138" spans="2:4" ht="14.4">
+    <row r="138" spans="2:4">
       <c r="B138" s="40"/>
       <c r="C138" s="41"/>
       <c r="D138" s="42"/>
     </row>
-    <row r="139" spans="2:4" ht="14.4">
+    <row r="139" spans="2:4">
       <c r="B139" s="40"/>
       <c r="C139" s="41"/>
       <c r="D139" s="42"/>
     </row>
-    <row r="140" spans="2:4" ht="14.4">
+    <row r="140" spans="2:4">
       <c r="B140" s="40"/>
       <c r="C140" s="41"/>
       <c r="D140" s="42"/>
     </row>
-    <row r="141" spans="2:4" ht="14.4">
+    <row r="141" spans="2:4">
       <c r="B141" s="40"/>
       <c r="C141" s="41"/>
       <c r="D141" s="42"/>
     </row>
-    <row r="142" spans="2:4" ht="14.4">
+    <row r="142" spans="2:4">
       <c r="B142" s="40"/>
       <c r="C142" s="41"/>
       <c r="D142" s="42"/>
     </row>
-    <row r="143" spans="2:4" ht="14.4">
+    <row r="143" spans="2:4">
       <c r="B143" s="40"/>
       <c r="C143" s="41"/>
       <c r="D143" s="42"/>
     </row>
-    <row r="144" spans="2:4" ht="14.4">
+    <row r="144" spans="2:4">
       <c r="B144" s="40"/>
       <c r="C144" s="41"/>
       <c r="D144" s="42"/>
     </row>
-    <row r="145" spans="2:4" ht="14.4">
+    <row r="145" spans="2:4">
       <c r="B145" s="40"/>
       <c r="C145" s="41"/>
       <c r="D145" s="42"/>
     </row>
-    <row r="146" spans="2:4" ht="14.4">
+    <row r="146" spans="2:4">
       <c r="B146" s="40"/>
       <c r="C146" s="41"/>
       <c r="D146" s="42"/>
     </row>
-    <row r="147" spans="2:4" ht="14.4">
+    <row r="147" spans="2:4">
       <c r="B147" s="40"/>
       <c r="C147" s="41"/>
       <c r="D147" s="42"/>
     </row>
-    <row r="148" spans="2:4" ht="14.4">
+    <row r="148" spans="2:4">
       <c r="B148" s="40"/>
       <c r="C148" s="41"/>
       <c r="D148" s="42"/>
     </row>
-    <row r="149" spans="2:4" ht="14.4">
+    <row r="149" spans="2:4">
       <c r="B149" s="40"/>
       <c r="C149" s="41"/>
       <c r="D149" s="42"/>
     </row>
-    <row r="150" spans="2:4" ht="14.4">
+    <row r="150" spans="2:4">
       <c r="B150" s="40"/>
       <c r="C150" s="41"/>
       <c r="D150" s="42"/>
     </row>
-    <row r="151" spans="2:4" ht="14.4">
+    <row r="151" spans="2:4">
       <c r="B151" s="40"/>
       <c r="C151" s="41"/>
       <c r="D151" s="42"/>
     </row>
-    <row r="152" spans="2:4" ht="14.4">
+    <row r="152" spans="2:4">
       <c r="B152" s="40"/>
       <c r="C152" s="41"/>
       <c r="D152" s="42"/>
     </row>
-    <row r="153" spans="2:4" ht="14.4">
+    <row r="153" spans="2:4">
       <c r="B153" s="40"/>
       <c r="C153" s="41"/>
       <c r="D153" s="42"/>
     </row>
-    <row r="154" spans="2:4" ht="14.4">
+    <row r="154" spans="2:4">
       <c r="B154" s="40"/>
       <c r="C154" s="41"/>
       <c r="D154" s="42"/>
     </row>
-    <row r="155" spans="2:4" ht="14.4">
+    <row r="155" spans="2:4">
       <c r="B155" s="40"/>
       <c r="C155" s="41"/>
       <c r="D155" s="42"/>
     </row>
-    <row r="156" spans="2:4" ht="14.4">
+    <row r="156" spans="2:4">
       <c r="B156" s="40"/>
       <c r="C156" s="41"/>
       <c r="D156" s="42"/>
     </row>
-    <row r="157" spans="2:4" ht="14.4">
+    <row r="157" spans="2:4">
       <c r="B157" s="40"/>
       <c r="C157" s="41"/>
       <c r="D157" s="42"/>
     </row>
-    <row r="158" spans="2:4" ht="14.4">
+    <row r="158" spans="2:4">
       <c r="B158" s="40"/>
       <c r="C158" s="41"/>
       <c r="D158" s="42"/>
     </row>
-    <row r="159" spans="2:4" ht="14.4">
+    <row r="159" spans="2:4">
       <c r="B159" s="40"/>
       <c r="C159" s="41"/>
       <c r="D159" s="42"/>
     </row>
-    <row r="160" spans="2:4" ht="14.4">
+    <row r="160" spans="2:4">
       <c r="B160" s="40"/>
       <c r="C160" s="41"/>
       <c r="D160" s="42"/>
     </row>
-    <row r="161" spans="2:4" ht="14.4">
+    <row r="161" spans="2:4">
       <c r="B161" s="40"/>
       <c r="C161" s="41"/>
       <c r="D161" s="42"/>
     </row>
-    <row r="162" spans="2:4" ht="14.4">
+    <row r="162" spans="2:4">
       <c r="B162" s="40"/>
       <c r="C162" s="41"/>
       <c r="D162" s="42"/>
     </row>
-    <row r="163" spans="2:4" ht="14.4">
+    <row r="163" spans="2:4">
       <c r="B163" s="40"/>
       <c r="C163" s="41"/>
       <c r="D163" s="42"/>
     </row>
-    <row r="164" spans="2:4" ht="14.4">
+    <row r="164" spans="2:4">
       <c r="B164" s="40"/>
       <c r="C164" s="41"/>
       <c r="D164" s="42"/>
     </row>
-    <row r="165" spans="2:4" ht="14.4">
+    <row r="165" spans="2:4">
       <c r="B165" s="40"/>
       <c r="C165" s="41"/>
       <c r="D165" s="42"/>
     </row>
-    <row r="166" spans="2:4" ht="14.4">
+    <row r="166" spans="2:4">
       <c r="B166" s="40"/>
       <c r="C166" s="41"/>
       <c r="D166" s="42"/>
     </row>
-    <row r="167" spans="2:4" ht="14.4">
+    <row r="167" spans="2:4">
       <c r="B167" s="40"/>
       <c r="C167" s="41"/>
       <c r="D167" s="42"/>
     </row>
-    <row r="168" spans="2:4" ht="14.4">
+    <row r="168" spans="2:4">
       <c r="B168" s="40"/>
       <c r="C168" s="41"/>
       <c r="D168" s="42"/>
     </row>
-    <row r="169" spans="2:4" ht="14.4">
+    <row r="169" spans="2:4">
       <c r="B169" s="40"/>
       <c r="C169" s="41"/>
       <c r="D169" s="42"/>
     </row>
-    <row r="170" spans="2:4" ht="14.4">
+    <row r="170" spans="2:4">
       <c r="B170" s="40"/>
       <c r="C170" s="41"/>
       <c r="D170" s="42"/>
     </row>
-    <row r="171" spans="2:4" ht="14.4">
+    <row r="171" spans="2:4">
       <c r="B171" s="40"/>
       <c r="C171" s="41"/>
       <c r="D171" s="42"/>
     </row>
-    <row r="172" spans="2:4" ht="14.4">
+    <row r="172" spans="2:4">
       <c r="B172" s="40"/>
       <c r="C172" s="41"/>
       <c r="D172" s="42"/>
     </row>
-    <row r="173" spans="2:4" ht="14.4">
+    <row r="173" spans="2:4">
       <c r="B173" s="40"/>
       <c r="C173" s="41"/>
       <c r="D173" s="42"/>
     </row>
-    <row r="174" spans="2:4" ht="14.4">
+    <row r="174" spans="2:4">
       <c r="B174" s="40"/>
       <c r="C174" s="41"/>
       <c r="D174" s="42"/>
     </row>
-    <row r="175" spans="2:4" ht="14.4">
+    <row r="175" spans="2:4">
       <c r="B175" s="40"/>
       <c r="C175" s="41"/>
       <c r="D175" s="42"/>
     </row>
-    <row r="176" spans="2:4" ht="14.4">
+    <row r="176" spans="2:4">
       <c r="B176" s="40"/>
       <c r="C176" s="41"/>
       <c r="D176" s="42"/>
     </row>
-    <row r="177" spans="2:4" ht="14.4">
+    <row r="177" spans="2:4">
       <c r="B177" s="40"/>
       <c r="C177" s="41"/>
       <c r="D177" s="42"/>
     </row>
-    <row r="178" spans="2:4" ht="14.4">
+    <row r="178" spans="2:4">
       <c r="B178" s="40"/>
       <c r="C178" s="41"/>
       <c r="D178" s="42"/>
     </row>
-    <row r="179" spans="2:4" ht="14.4">
+    <row r="179" spans="2:4">
       <c r="B179" s="40"/>
       <c r="C179" s="41"/>
       <c r="D179" s="42"/>
     </row>
-    <row r="180" spans="2:4" ht="14.4">
+    <row r="180" spans="2:4">
       <c r="B180" s="40"/>
       <c r="C180" s="41"/>
       <c r="D180" s="42"/>
     </row>
-    <row r="181" spans="2:4" ht="14.4">
+    <row r="181" spans="2:4">
       <c r="B181" s="40"/>
       <c r="C181" s="41"/>
       <c r="D181" s="42"/>
     </row>
-    <row r="182" spans="2:4" ht="14.4">
+    <row r="182" spans="2:4">
       <c r="B182" s="40"/>
       <c r="C182" s="41"/>
       <c r="D182" s="42"/>
     </row>
-    <row r="183" spans="2:4" ht="14.4">
+    <row r="183" spans="2:4">
       <c r="B183" s="40"/>
       <c r="C183" s="41"/>
       <c r="D183" s="42"/>
     </row>
-    <row r="184" spans="2:4" ht="14.4">
+    <row r="184" spans="2:4">
       <c r="B184" s="40"/>
       <c r="C184" s="41"/>
       <c r="D184" s="42"/>
     </row>
-    <row r="185" spans="2:4" ht="14.4">
+    <row r="185" spans="2:4">
       <c r="B185" s="40"/>
       <c r="C185" s="41"/>
       <c r="D185" s="42"/>
     </row>
-    <row r="186" spans="2:4" ht="14.4">
+    <row r="186" spans="2:4">
       <c r="B186" s="40"/>
       <c r="C186" s="41"/>
       <c r="D186" s="42"/>
     </row>
-    <row r="187" spans="2:4" ht="14.4">
+    <row r="187" spans="2:4">
       <c r="B187" s="40"/>
       <c r="C187" s="41"/>
       <c r="D187" s="42"/>
     </row>
-    <row r="188" spans="2:4" ht="14.4">
+    <row r="188" spans="2:4">
       <c r="B188" s="40"/>
       <c r="C188" s="41"/>
       <c r="D188" s="42"/>
     </row>
-    <row r="189" spans="2:4" ht="14.4">
+    <row r="189" spans="2:4">
       <c r="B189" s="40"/>
       <c r="C189" s="41"/>
       <c r="D189" s="42"/>
     </row>
-    <row r="190" spans="2:4" ht="14.4">
+    <row r="190" spans="2:4">
       <c r="B190" s="40"/>
       <c r="C190" s="41"/>
       <c r="D190" s="42"/>
     </row>
-    <row r="191" spans="2:4" ht="14.4">
+    <row r="191" spans="2:4">
       <c r="B191" s="40"/>
       <c r="C191" s="41"/>
       <c r="D191" s="42"/>
     </row>
-    <row r="192" spans="2:4" ht="14.4">
+    <row r="192" spans="2:4">
       <c r="B192" s="40"/>
       <c r="C192" s="41"/>
       <c r="D192" s="42"/>
     </row>
-    <row r="193" spans="2:4" ht="14.4">
+    <row r="193" spans="2:4">
       <c r="B193" s="40"/>
       <c r="C193" s="41"/>
       <c r="D193" s="42"/>
     </row>
-    <row r="194" spans="2:4" ht="14.4">
+    <row r="194" spans="2:4">
       <c r="B194" s="40"/>
       <c r="C194" s="41"/>
       <c r="D194" s="42"/>
     </row>
-    <row r="195" spans="2:4" ht="14.4">
+    <row r="195" spans="2:4">
       <c r="B195" s="40"/>
       <c r="C195" s="41"/>
       <c r="D195" s="42"/>
     </row>
-    <row r="196" spans="2:4" ht="14.4">
+    <row r="196" spans="2:4">
       <c r="B196" s="40"/>
       <c r="C196" s="41"/>
       <c r="D196" s="42"/>
     </row>
-    <row r="197" spans="2:4" ht="14.4">
+    <row r="197" spans="2:4">
       <c r="B197" s="40"/>
       <c r="C197" s="41"/>
       <c r="D197" s="42"/>
     </row>
-    <row r="198" spans="2:4" ht="14.4">
+    <row r="198" spans="2:4">
       <c r="B198" s="40"/>
       <c r="C198" s="41"/>
       <c r="D198" s="42"/>
     </row>
-    <row r="199" spans="2:4" ht="14.4">
+    <row r="199" spans="2:4">
       <c r="B199" s="40"/>
       <c r="C199" s="41"/>
       <c r="D199" s="42"/>
     </row>
-    <row r="200" spans="2:4" ht="14.4">
+    <row r="200" spans="2:4">
       <c r="B200" s="40"/>
       <c r="C200" s="41"/>
       <c r="D200" s="42"/>
     </row>
-    <row r="201" spans="2:4" ht="14.4">
+    <row r="201" spans="2:4">
       <c r="B201" s="40"/>
       <c r="C201" s="41"/>
       <c r="D201" s="42"/>
     </row>
-    <row r="202" spans="2:4" ht="14.4">
+    <row r="202" spans="2:4">
       <c r="B202" s="40"/>
       <c r="C202" s="41"/>
       <c r="D202" s="42"/>
     </row>
-    <row r="203" spans="2:4" ht="14.4">
+    <row r="203" spans="2:4">
       <c r="B203" s="40"/>
       <c r="C203" s="41"/>
       <c r="D203" s="42"/>
     </row>
-    <row r="204" spans="2:4" ht="14.4">
+    <row r="204" spans="2:4">
       <c r="B204" s="40"/>
       <c r="C204" s="41"/>
       <c r="D204" s="42"/>
     </row>
-    <row r="205" spans="2:4" ht="14.4">
+    <row r="205" spans="2:4">
       <c r="B205" s="40"/>
       <c r="C205" s="41"/>
       <c r="D205" s="42"/>
     </row>
-    <row r="206" spans="2:4" ht="14.4">
+    <row r="206" spans="2:4">
       <c r="B206" s="40"/>
       <c r="C206" s="41"/>
       <c r="D206" s="42"/>
     </row>
-    <row r="207" spans="2:4" ht="14.4">
+    <row r="207" spans="2:4">
       <c r="B207" s="40"/>
       <c r="C207" s="41"/>
       <c r="D207" s="42"/>
     </row>
-    <row r="208" spans="2:4" ht="14.4">
+    <row r="208" spans="2:4">
       <c r="B208" s="40"/>
       <c r="C208" s="41"/>
       <c r="D208" s="42"/>
     </row>
-    <row r="209" spans="2:4" ht="14.4">
+    <row r="209" spans="2:4">
       <c r="B209" s="40"/>
       <c r="C209" s="41"/>
       <c r="D209" s="42"/>
     </row>
-    <row r="210" spans="2:4" ht="14.4">
+    <row r="210" spans="2:4">
       <c r="B210" s="40"/>
       <c r="C210" s="41"/>
       <c r="D210" s="42"/>
     </row>
-    <row r="211" spans="2:4" ht="14.4">
+    <row r="211" spans="2:4">
       <c r="B211" s="40"/>
       <c r="C211" s="41"/>
       <c r="D211" s="42"/>
     </row>
-    <row r="212" spans="2:4" ht="14.4">
+    <row r="212" spans="2:4">
       <c r="B212" s="40"/>
       <c r="C212" s="41"/>
       <c r="D212" s="42"/>
     </row>
-    <row r="213" spans="2:4" ht="14.4">
+    <row r="213" spans="2:4">
       <c r="B213" s="40"/>
       <c r="C213" s="41"/>
       <c r="D213" s="42"/>
     </row>
-    <row r="214" spans="2:4" ht="14.4">
+    <row r="214" spans="2:4">
       <c r="B214" s="40"/>
       <c r="C214" s="41"/>
       <c r="D214" s="42"/>
     </row>
-    <row r="215" spans="2:4" ht="14.4">
+    <row r="215" spans="2:4">
       <c r="B215" s="40"/>
       <c r="C215" s="41"/>
       <c r="D215" s="42"/>
     </row>
-    <row r="216" spans="2:4" ht="14.4">
+    <row r="216" spans="2:4">
       <c r="B216" s="40"/>
       <c r="C216" s="41"/>
       <c r="D216" s="42"/>
     </row>
-    <row r="217" spans="2:4" ht="14.4">
+    <row r="217" spans="2:4">
       <c r="B217" s="40"/>
       <c r="C217" s="41"/>
       <c r="D217" s="42"/>
     </row>
-    <row r="218" spans="2:4" ht="14.4">
+    <row r="218" spans="2:4">
       <c r="B218" s="40"/>
       <c r="C218" s="41"/>
       <c r="D218" s="42"/>
     </row>
-    <row r="219" spans="2:4" ht="14.4">
+    <row r="219" spans="2:4">
       <c r="B219" s="40"/>
       <c r="C219" s="41"/>
       <c r="D219" s="42"/>
     </row>
-    <row r="220" spans="2:4" ht="14.4">
+    <row r="220" spans="2:4">
       <c r="B220" s="40"/>
       <c r="C220" s="41"/>
       <c r="D220" s="42"/>
     </row>
-    <row r="221" spans="2:4" ht="14.4">
+    <row r="221" spans="2:4">
       <c r="B221" s="40"/>
       <c r="C221" s="41"/>
       <c r="D221" s="42"/>
     </row>
-    <row r="222" spans="2:4" ht="14.4">
+    <row r="222" spans="2:4">
       <c r="B222" s="40"/>
       <c r="C222" s="41"/>
       <c r="D222" s="42"/>
     </row>
-    <row r="223" spans="2:4" ht="14.4">
+    <row r="223" spans="2:4">
       <c r="B223" s="40"/>
       <c r="C223" s="41"/>
       <c r="D223" s="42"/>
     </row>
-    <row r="224" spans="2:4" ht="14.4">
+    <row r="224" spans="2:4">
       <c r="B224" s="40"/>
       <c r="C224" s="41"/>
       <c r="D224" s="42"/>
     </row>
-    <row r="225" spans="2:4" ht="14.4">
+    <row r="225" spans="2:4">
       <c r="B225" s="40"/>
       <c r="C225" s="41"/>
       <c r="D225" s="42"/>
     </row>
-    <row r="226" spans="2:4" ht="14.4">
+    <row r="226" spans="2:4">
       <c r="B226" s="40"/>
       <c r="C226" s="41"/>
       <c r="D226" s="42"/>
     </row>
-    <row r="227" spans="2:4" ht="14.4">
+    <row r="227" spans="2:4">
       <c r="B227" s="40"/>
       <c r="C227" s="41"/>
       <c r="D227" s="42"/>
     </row>
-    <row r="228" spans="2:4" ht="14.4">
+    <row r="228" spans="2:4">
       <c r="B228" s="40"/>
       <c r="C228" s="41"/>
       <c r="D228" s="42"/>
     </row>
-    <row r="229" spans="2:4" ht="14.4">
+    <row r="229" spans="2:4">
       <c r="B229" s="40"/>
       <c r="C229" s="41"/>
       <c r="D229" s="42"/>
     </row>
-    <row r="230" spans="2:4" ht="14.4">
+    <row r="230" spans="2:4">
       <c r="B230" s="40"/>
       <c r="C230" s="41"/>
       <c r="D230" s="42"/>
     </row>
-    <row r="231" spans="2:4" ht="14.4">
+    <row r="231" spans="2:4">
       <c r="B231" s="40"/>
       <c r="C231" s="41"/>
       <c r="D231" s="42"/>
     </row>
-    <row r="232" spans="2:4" ht="14.4">
+    <row r="232" spans="2:4">
       <c r="B232" s="40"/>
       <c r="C232" s="41"/>
       <c r="D232" s="42"/>
     </row>
-    <row r="233" spans="2:4" ht="14.4">
+    <row r="233" spans="2:4">
       <c r="B233" s="40"/>
       <c r="C233" s="41"/>
       <c r="D233" s="42"/>
     </row>
-    <row r="234" spans="2:4" ht="14.4">
+    <row r="234" spans="2:4">
       <c r="B234" s="40"/>
       <c r="C234" s="41"/>
       <c r="D234" s="42"/>
     </row>
-    <row r="235" spans="2:4" ht="14.4">
+    <row r="235" spans="2:4">
       <c r="B235" s="40"/>
       <c r="C235" s="41"/>
       <c r="D235" s="42"/>
     </row>
-    <row r="236" spans="2:4" ht="14.4">
+    <row r="236" spans="2:4">
       <c r="B236" s="40"/>
       <c r="C236" s="41"/>
       <c r="D236" s="42"/>
     </row>
-    <row r="237" spans="2:4" ht="14.4">
+    <row r="237" spans="2:4">
       <c r="B237" s="40"/>
       <c r="C237" s="41"/>
       <c r="D237" s="42"/>
     </row>
-    <row r="238" spans="2:4" ht="14.4">
+    <row r="238" spans="2:4">
       <c r="B238" s="40"/>
       <c r="C238" s="41"/>
       <c r="D238" s="42"/>
     </row>
-    <row r="239" spans="2:4" ht="14.4">
+    <row r="239" spans="2:4">
       <c r="B239" s="40"/>
       <c r="C239" s="41"/>
       <c r="D239" s="42"/>
     </row>
-    <row r="240" spans="2:4" ht="14.4">
+    <row r="240" spans="2:4">
       <c r="B240" s="40"/>
       <c r="C240" s="41"/>
       <c r="D240" s="42"/>
     </row>
-    <row r="241" spans="2:4" ht="14.4">
+    <row r="241" spans="2:4">
       <c r="B241" s="40"/>
       <c r="C241" s="41"/>
       <c r="D241" s="42"/>
     </row>
-    <row r="242" spans="2:4" ht="14.4">
+    <row r="242" spans="2:4">
       <c r="B242" s="40"/>
       <c r="C242" s="41"/>
       <c r="D242" s="42"/>
     </row>
-    <row r="243" spans="2:4" ht="14.4">
+    <row r="243" spans="2:4">
       <c r="B243" s="40"/>
       <c r="C243" s="41"/>
       <c r="D243" s="42"/>
     </row>
-    <row r="244" spans="2:4" ht="14.4">
+    <row r="244" spans="2:4">
       <c r="B244" s="40"/>
       <c r="C244" s="41"/>
       <c r="D244" s="42"/>
     </row>
-    <row r="245" spans="2:4" ht="14.4">
+    <row r="245" spans="2:4">
       <c r="B245" s="40"/>
       <c r="C245" s="41"/>
       <c r="D245" s="42"/>
     </row>
-    <row r="246" spans="2:4" ht="14.4">
+    <row r="246" spans="2:4">
       <c r="B246" s="40"/>
       <c r="C246" s="41"/>
       <c r="D246" s="42"/>
     </row>
-    <row r="247" spans="2:4" ht="14.4">
+    <row r="247" spans="2:4">
       <c r="B247" s="40"/>
       <c r="C247" s="41"/>
       <c r="D247" s="42"/>
     </row>
-    <row r="248" spans="2:4" ht="14.4">
+    <row r="248" spans="2:4">
       <c r="B248" s="40"/>
       <c r="C248" s="41"/>
       <c r="D248" s="42"/>
     </row>
-    <row r="249" spans="2:4" ht="14.4">
+    <row r="249" spans="2:4">
       <c r="B249" s="40"/>
       <c r="C249" s="41"/>
       <c r="D249" s="42"/>
     </row>
-    <row r="250" spans="2:4" ht="14.4">
+    <row r="250" spans="2:4">
       <c r="B250" s="40"/>
       <c r="C250" s="41"/>
       <c r="D250" s="42"/>
     </row>
-    <row r="251" spans="2:4" ht="14.4">
+    <row r="251" spans="2:4">
       <c r="B251" s="40"/>
       <c r="C251" s="41"/>
       <c r="D251" s="42"/>
     </row>
-    <row r="252" spans="2:4" ht="14.4">
+    <row r="252" spans="2:4">
       <c r="B252" s="40"/>
       <c r="C252" s="41"/>
       <c r="D252" s="42"/>
     </row>
-    <row r="253" spans="2:4" ht="14.4">
+    <row r="253" spans="2:4">
       <c r="B253" s="40"/>
       <c r="C253" s="41"/>
       <c r="D253" s="42"/>
     </row>
-    <row r="254" spans="2:4" ht="14.4">
+    <row r="254" spans="2:4">
       <c r="B254" s="40"/>
       <c r="C254" s="41"/>
       <c r="D254" s="42"/>
     </row>
-    <row r="255" spans="2:4" ht="14.4">
+    <row r="255" spans="2:4">
       <c r="B255" s="40"/>
       <c r="C255" s="41"/>
       <c r="D255" s="42"/>
     </row>
-    <row r="256" spans="2:4" ht="14.4">
+    <row r="256" spans="2:4">
       <c r="B256" s="40"/>
       <c r="C256" s="41"/>
       <c r="D256" s="42"/>
     </row>
-    <row r="257" spans="2:4" ht="14.4">
+    <row r="257" spans="2:4">
       <c r="B257" s="40"/>
       <c r="C257" s="41"/>
       <c r="D257" s="42"/>
     </row>
-    <row r="258" spans="2:4" ht="14.4">
+    <row r="258" spans="2:4">
       <c r="B258" s="40"/>
       <c r="C258" s="41"/>
       <c r="D258" s="42"/>
     </row>
-    <row r="259" spans="2:4" ht="14.4">
+    <row r="259" spans="2:4">
       <c r="B259" s="40"/>
       <c r="C259" s="41"/>
       <c r="D259" s="42"/>
     </row>
-    <row r="260" spans="2:4" ht="14.4">
+    <row r="260" spans="2:4">
       <c r="B260" s="40"/>
       <c r="C260" s="41"/>
       <c r="D260" s="42"/>
     </row>
-    <row r="261" spans="2:4" ht="14.4">
+    <row r="261" spans="2:4">
       <c r="B261" s="40"/>
       <c r="C261" s="41"/>
       <c r="D261" s="42"/>
     </row>
-    <row r="262" spans="2:4" ht="14.4">
+    <row r="262" spans="2:4">
       <c r="B262" s="40"/>
       <c r="C262" s="41"/>
       <c r="D262" s="42"/>
     </row>
-    <row r="263" spans="2:4" ht="14.4">
+    <row r="263" spans="2:4">
       <c r="B263" s="40"/>
       <c r="C263" s="41"/>
       <c r="D263" s="42"/>
     </row>
-    <row r="264" spans="2:4" ht="14.4">
+    <row r="264" spans="2:4">
       <c r="B264" s="40"/>
       <c r="C264" s="41"/>
       <c r="D264" s="42"/>
     </row>
-    <row r="265" spans="2:4" ht="14.4">
+    <row r="265" spans="2:4">
       <c r="B265" s="40"/>
       <c r="C265" s="41"/>
       <c r="D265" s="42"/>
     </row>
-    <row r="266" spans="2:4" ht="14.4">
+    <row r="266" spans="2:4">
       <c r="B266" s="40"/>
       <c r="C266" s="41"/>
       <c r="D266" s="42"/>
     </row>
-    <row r="267" spans="2:4" ht="14.4">
+    <row r="267" spans="2:4">
       <c r="B267" s="40"/>
       <c r="C267" s="41"/>
       <c r="D267" s="42"/>
     </row>
-    <row r="268" spans="2:4" ht="14.4">
+    <row r="268" spans="2:4">
       <c r="B268" s="40"/>
       <c r="C268" s="41"/>
       <c r="D268" s="42"/>
     </row>
-    <row r="269" spans="2:4" ht="14.4">
+    <row r="269" spans="2:4">
       <c r="B269" s="40"/>
       <c r="C269" s="41"/>
       <c r="D269" s="42"/>
     </row>
-    <row r="270" spans="2:4" ht="14.4">
+    <row r="270" spans="2:4">
       <c r="B270" s="40"/>
       <c r="C270" s="41"/>
       <c r="D270" s="42"/>
     </row>
-    <row r="271" spans="2:4" ht="14.4">
+    <row r="271" spans="2:4">
       <c r="B271" s="40"/>
       <c r="C271" s="41"/>
       <c r="D271" s="42"/>
     </row>
-    <row r="272" spans="2:4" ht="14.4">
+    <row r="272" spans="2:4">
       <c r="B272" s="40"/>
       <c r="C272" s="41"/>
       <c r="D272" s="42"/>
     </row>
-    <row r="273" spans="2:4" ht="14.4">
+    <row r="273" spans="2:4">
       <c r="B273" s="40"/>
       <c r="C273" s="41"/>
       <c r="D273" s="42"/>
     </row>
-    <row r="274" spans="2:4" ht="14.4">
+    <row r="274" spans="2:4">
       <c r="B274" s="40"/>
       <c r="C274" s="41"/>
       <c r="D274" s="42"/>
     </row>
-    <row r="275" spans="2:4" ht="14.4">
+    <row r="275" spans="2:4">
       <c r="B275" s="40"/>
       <c r="C275" s="41"/>
       <c r="D275" s="42"/>
     </row>
-    <row r="276" spans="2:4" ht="14.4">
+    <row r="276" spans="2:4">
       <c r="B276" s="40"/>
       <c r="C276" s="41"/>
       <c r="D276" s="42"/>
     </row>
-    <row r="277" spans="2:4" ht="14.4">
+    <row r="277" spans="2:4">
       <c r="B277" s="40"/>
       <c r="C277" s="41"/>
       <c r="D277" s="42"/>
     </row>
-    <row r="278" spans="2:4" ht="14.4">
+    <row r="278" spans="2:4">
       <c r="B278" s="40"/>
       <c r="C278" s="41"/>
       <c r="D278" s="42"/>
     </row>
-    <row r="279" spans="2:4" ht="14.4">
+    <row r="279" spans="2:4">
       <c r="B279" s="40"/>
       <c r="C279" s="41"/>
       <c r="D279" s="42"/>
     </row>
-    <row r="280" spans="2:4" ht="14.4">
+    <row r="280" spans="2:4">
       <c r="B280" s="40"/>
       <c r="C280" s="41"/>
       <c r="D280" s="42"/>
     </row>
-    <row r="281" spans="2:4" ht="14.4">
+    <row r="281" spans="2:4">
       <c r="B281" s="40"/>
       <c r="C281" s="41"/>
       <c r="D281" s="42"/>
     </row>
-    <row r="282" spans="2:4" ht="14.4">
+    <row r="282" spans="2:4">
       <c r="B282" s="40"/>
       <c r="C282" s="41"/>
       <c r="D282" s="42"/>
     </row>
-    <row r="283" spans="2:4" ht="14.4">
+    <row r="283" spans="2:4">
       <c r="B283" s="40"/>
       <c r="C283" s="41"/>
       <c r="D283" s="42"/>
     </row>
-    <row r="284" spans="2:4" ht="14.4">
+    <row r="284" spans="2:4">
       <c r="B284" s="40"/>
       <c r="C284" s="41"/>
       <c r="D284" s="42"/>
     </row>
-    <row r="285" spans="2:4" ht="14.4">
+    <row r="285" spans="2:4">
       <c r="B285" s="40"/>
       <c r="C285" s="41"/>
       <c r="D285" s="42"/>
     </row>
-    <row r="286" spans="2:4" ht="14.4">
+    <row r="286" spans="2:4">
       <c r="B286" s="40"/>
       <c r="C286" s="41"/>
       <c r="D286" s="42"/>
     </row>
-    <row r="287" spans="2:4" ht="14.4">
+    <row r="287" spans="2:4">
       <c r="B287" s="40"/>
       <c r="C287" s="41"/>
       <c r="D287" s="42"/>
     </row>
-    <row r="288" spans="2:4" ht="14.4">
+    <row r="288" spans="2:4">
       <c r="B288" s="40"/>
       <c r="C288" s="41"/>
       <c r="D288" s="42"/>
     </row>
-    <row r="289" spans="2:4" ht="14.4">
+    <row r="289" spans="2:4">
       <c r="B289" s="40"/>
       <c r="C289" s="41"/>
       <c r="D289" s="42"/>
     </row>
-    <row r="290" spans="2:4" ht="14.4">
+    <row r="290" spans="2:4">
       <c r="B290" s="40"/>
       <c r="C290" s="41"/>
       <c r="D290" s="42"/>
     </row>
-    <row r="291" spans="2:4" ht="14.4">
+    <row r="291" spans="2:4">
       <c r="B291" s="40"/>
       <c r="C291" s="41"/>
       <c r="D291" s="42"/>
     </row>
-    <row r="292" spans="2:4" ht="14.4">
+    <row r="292" spans="2:4">
       <c r="B292" s="40"/>
       <c r="C292" s="41"/>
       <c r="D292" s="42"/>
     </row>
-    <row r="293" spans="2:4" ht="14.4">
+    <row r="293" spans="2:4">
       <c r="B293" s="40"/>
       <c r="C293" s="41"/>
       <c r="D293" s="42"/>
     </row>
-    <row r="294" spans="2:4" ht="14.4">
+    <row r="294" spans="2:4">
       <c r="B294" s="40"/>
       <c r="C294" s="41"/>
       <c r="D294" s="42"/>
     </row>
-    <row r="295" spans="2:4" ht="14.4">
+    <row r="295" spans="2:4">
       <c r="B295" s="40"/>
       <c r="C295" s="41"/>
       <c r="D295" s="42"/>
     </row>
-    <row r="296" spans="2:4" ht="14.4">
+    <row r="296" spans="2:4">
       <c r="B296" s="40"/>
       <c r="C296" s="41"/>
       <c r="D296" s="42"/>
     </row>
-    <row r="297" spans="2:4" ht="14.4">
+    <row r="297" spans="2:4">
       <c r="B297" s="40"/>
       <c r="C297" s="41"/>
       <c r="D297" s="42"/>
     </row>
-    <row r="298" spans="2:4" ht="14.4">
+    <row r="298" spans="2:4">
       <c r="B298" s="40"/>
       <c r="C298" s="41"/>
       <c r="D298" s="42"/>
     </row>
-    <row r="299" spans="2:4" ht="14.4">
+    <row r="299" spans="2:4">
       <c r="B299" s="40"/>
       <c r="C299" s="41"/>
       <c r="D299" s="42"/>
     </row>
-    <row r="300" spans="2:4" ht="14.4">
+    <row r="300" spans="2:4">
       <c r="B300" s="40"/>
       <c r="C300" s="41"/>
       <c r="D300" s="42"/>
     </row>
-    <row r="301" spans="2:4" ht="14.4">
+    <row r="301" spans="2:4">
       <c r="B301" s="40"/>
       <c r="C301" s="41"/>
       <c r="D301" s="42"/>
     </row>
-    <row r="302" spans="2:4" ht="14.4">
+    <row r="302" spans="2:4">
       <c r="B302" s="40"/>
       <c r="C302" s="41"/>
       <c r="D302" s="42"/>
     </row>
-    <row r="303" spans="2:4" ht="14.4">
+    <row r="303" spans="2:4">
       <c r="B303" s="40"/>
       <c r="C303" s="41"/>
       <c r="D303" s="42"/>
     </row>
-    <row r="304" spans="2:4" ht="14.4">
+    <row r="304" spans="2:4">
       <c r="B304" s="40"/>
       <c r="C304" s="41"/>
       <c r="D304" s="42"/>
     </row>
-    <row r="305" spans="2:4" ht="14.4">
+    <row r="305" spans="2:4">
       <c r="B305" s="40"/>
       <c r="C305" s="41"/>
       <c r="D305" s="42"/>
     </row>
-    <row r="306" spans="2:4" ht="14.4">
+    <row r="306" spans="2:4">
       <c r="B306" s="40"/>
       <c r="C306" s="41"/>
       <c r="D306" s="42"/>
     </row>
-    <row r="307" spans="2:4" ht="14.4">
+    <row r="307" spans="2:4">
       <c r="B307" s="40"/>
       <c r="C307" s="41"/>
       <c r="D307" s="42"/>
     </row>
-    <row r="308" spans="2:4" ht="14.4">
+    <row r="308" spans="2:4">
       <c r="B308" s="40"/>
       <c r="C308" s="41"/>
       <c r="D308" s="42"/>
     </row>
-    <row r="309" spans="2:4" ht="14.4">
+    <row r="309" spans="2:4">
       <c r="B309" s="40"/>
       <c r="C309" s="41"/>
       <c r="D309" s="42"/>
     </row>
-    <row r="310" spans="2:4" ht="14.4">
+    <row r="310" spans="2:4">
       <c r="B310" s="40"/>
       <c r="C310" s="41"/>
       <c r="D310" s="42"/>
     </row>
-    <row r="311" spans="2:4" ht="14.4">
+    <row r="311" spans="2:4">
       <c r="B311" s="40"/>
       <c r="C311" s="41"/>
       <c r="D311" s="42"/>
     </row>
-    <row r="312" spans="2:4" ht="14.4">
+    <row r="312" spans="2:4">
       <c r="B312" s="40"/>
       <c r="C312" s="41"/>
       <c r="D312" s="42"/>
     </row>
-    <row r="313" spans="2:4" ht="14.4">
+    <row r="313" spans="2:4">
       <c r="B313" s="40"/>
       <c r="C313" s="41"/>
       <c r="D313" s="42"/>
     </row>
-    <row r="314" spans="2:4" ht="14.4">
+    <row r="314" spans="2:4">
       <c r="B314" s="40"/>
       <c r="C314" s="41"/>
       <c r="D314" s="42"/>
     </row>
-    <row r="315" spans="2:4" ht="14.4">
+    <row r="315" spans="2:4">
       <c r="B315" s="40"/>
       <c r="C315" s="41"/>
       <c r="D315" s="42"/>
     </row>
-    <row r="316" spans="2:4" ht="14.4">
+    <row r="316" spans="2:4">
       <c r="B316" s="40"/>
       <c r="C316" s="41"/>
       <c r="D316" s="42"/>
     </row>
-    <row r="317" spans="2:4" ht="14.4">
+    <row r="317" spans="2:4">
       <c r="B317" s="40"/>
       <c r="C317" s="41"/>
       <c r="D317" s="42"/>
     </row>
-    <row r="318" spans="2:4" ht="14.4">
+    <row r="318" spans="2:4">
       <c r="B318" s="40"/>
       <c r="C318" s="41"/>
       <c r="D318" s="42"/>
     </row>
-    <row r="319" spans="2:4" ht="14.4">
+    <row r="319" spans="2:4">
       <c r="B319" s="40"/>
       <c r="C319" s="41"/>
       <c r="D319" s="42"/>
     </row>
-    <row r="320" spans="2:4" ht="14.4">
+    <row r="320" spans="2:4">
       <c r="B320" s="40"/>
       <c r="C320" s="41"/>
       <c r="D320" s="42"/>
     </row>
-    <row r="321" spans="2:4" ht="14.4">
+    <row r="321" spans="2:4">
       <c r="B321" s="40"/>
       <c r="C321" s="41"/>
       <c r="D321" s="42"/>
     </row>
-    <row r="322" spans="2:4" ht="14.4">
+    <row r="322" spans="2:4">
       <c r="B322" s="40"/>
       <c r="C322" s="41"/>
       <c r="D322" s="42"/>
     </row>
-    <row r="323" spans="2:4" ht="14.4">
+    <row r="323" spans="2:4">
       <c r="B323" s="40"/>
       <c r="C323" s="41"/>
       <c r="D323" s="42"/>
     </row>
-    <row r="324" spans="2:4" ht="14.4">
+    <row r="324" spans="2:4">
       <c r="B324" s="40"/>
       <c r="C324" s="41"/>
       <c r="D324" s="42"/>
     </row>
-    <row r="325" spans="2:4" ht="14.4">
+    <row r="325" spans="2:4">
       <c r="B325" s="40"/>
       <c r="C325" s="41"/>
       <c r="D325" s="42"/>
     </row>
-    <row r="326" spans="2:4" ht="14.4">
+    <row r="326" spans="2:4">
       <c r="B326" s="40"/>
       <c r="C326" s="41"/>
       <c r="D326" s="42"/>
     </row>
-    <row r="327" spans="2:4" ht="14.4">
+    <row r="327" spans="2:4">
       <c r="B327" s="40"/>
       <c r="C327" s="41"/>
       <c r="D327" s="42"/>
     </row>
-    <row r="328" spans="2:4" ht="14.4">
+    <row r="328" spans="2:4">
       <c r="B328" s="40"/>
       <c r="C328" s="41"/>
       <c r="D328" s="42"/>
     </row>
-    <row r="329" spans="2:4" ht="14.4">
+    <row r="329" spans="2:4">
       <c r="B329" s="40"/>
       <c r="C329" s="41"/>
       <c r="D329" s="42"/>
     </row>
-    <row r="330" spans="2:4" ht="14.4">
+    <row r="330" spans="2:4">
       <c r="B330" s="40"/>
       <c r="C330" s="41"/>
       <c r="D330" s="42"/>
     </row>
-    <row r="331" spans="2:4" ht="14.4">
+    <row r="331" spans="2:4">
       <c r="B331" s="40"/>
       <c r="C331" s="41"/>
       <c r="D331" s="42"/>
     </row>
-    <row r="332" spans="2:4" ht="14.4">
+    <row r="332" spans="2:4">
       <c r="B332" s="40"/>
       <c r="C332" s="41"/>
       <c r="D332" s="42"/>
     </row>
-    <row r="333" spans="2:4" ht="14.4">
+    <row r="333" spans="2:4">
       <c r="B333" s="40"/>
       <c r="C333" s="41"/>
       <c r="D333" s="42"/>
     </row>
-    <row r="334" spans="2:4" ht="14.4">
+    <row r="334" spans="2:4">
       <c r="B334" s="40"/>
       <c r="C334" s="41"/>
       <c r="D334" s="42"/>
     </row>
-    <row r="335" spans="2:4" ht="14.4">
+    <row r="335" spans="2:4">
       <c r="B335" s="40"/>
       <c r="C335" s="41"/>
       <c r="D335" s="42"/>
     </row>
-    <row r="336" spans="2:4" ht="14.4">
+    <row r="336" spans="2:4">
       <c r="B336" s="40"/>
       <c r="C336" s="41"/>
       <c r="D336" s="42"/>
     </row>
-    <row r="337" spans="2:4" ht="14.4">
+    <row r="337" spans="2:4">
       <c r="B337" s="40"/>
       <c r="C337" s="41"/>
       <c r="D337" s="42"/>
     </row>
-    <row r="338" spans="2:4" ht="14.4">
+    <row r="338" spans="2:4">
       <c r="B338" s="40"/>
       <c r="C338" s="41"/>
       <c r="D338" s="42"/>
     </row>
-    <row r="339" spans="2:4" ht="14.4">
+    <row r="339" spans="2:4">
       <c r="B339" s="40"/>
       <c r="C339" s="41"/>
       <c r="D339" s="42"/>
     </row>
-    <row r="340" spans="2:4" ht="14.4">
+    <row r="340" spans="2:4">
       <c r="B340" s="40"/>
       <c r="C340" s="41"/>
       <c r="D340" s="42"/>
     </row>
-    <row r="341" spans="2:4" ht="14.4">
+    <row r="341" spans="2:4">
       <c r="B341" s="40"/>
       <c r="C341" s="41"/>
       <c r="D341" s="42"/>
     </row>
-    <row r="342" spans="2:4" ht="14.4">
+    <row r="342" spans="2:4">
       <c r="B342" s="40"/>
       <c r="C342" s="41"/>
       <c r="D342" s="42"/>
     </row>
-    <row r="343" spans="2:4" ht="14.4">
+    <row r="343" spans="2:4">
       <c r="B343" s="40"/>
       <c r="C343" s="41"/>
       <c r="D343" s="42"/>
     </row>
-    <row r="344" spans="2:4" ht="14.4">
+    <row r="344" spans="2:4">
       <c r="B344" s="40"/>
       <c r="C344" s="41"/>
       <c r="D344" s="42"/>
     </row>
-    <row r="345" spans="2:4" ht="14.4">
+    <row r="345" spans="2:4">
       <c r="B345" s="40"/>
       <c r="C345" s="41"/>
       <c r="D345" s="42"/>
     </row>
-    <row r="346" spans="2:4" ht="14.4">
+    <row r="346" spans="2:4">
       <c r="B346" s="40"/>
       <c r="C346" s="41"/>
       <c r="D346" s="42"/>
     </row>
-    <row r="347" spans="2:4" ht="14.4">
+    <row r="347" spans="2:4">
       <c r="B347" s="40"/>
       <c r="C347" s="41"/>
       <c r="D347" s="42"/>
     </row>
-    <row r="348" spans="2:4" ht="14.4">
+    <row r="348" spans="2:4">
       <c r="B348" s="40"/>
       <c r="C348" s="41"/>
       <c r="D348" s="42"/>
     </row>
-    <row r="349" spans="2:4" ht="14.4">
+    <row r="349" spans="2:4">
       <c r="B349" s="40"/>
       <c r="C349" s="41"/>
       <c r="D349" s="42"/>
     </row>
-    <row r="350" spans="2:4" ht="14.4">
+    <row r="350" spans="2:4">
       <c r="B350" s="40"/>
       <c r="C350" s="41"/>
       <c r="D350" s="42"/>
     </row>
-    <row r="351" spans="2:4" ht="14.4">
+    <row r="351" spans="2:4">
       <c r="B351" s="40"/>
       <c r="C351" s="41"/>
       <c r="D351" s="42"/>
     </row>
-    <row r="352" spans="2:4" ht="14.4">
+    <row r="352" spans="2:4">
       <c r="B352" s="40"/>
       <c r="C352" s="41"/>
       <c r="D352" s="42"/>
     </row>
-    <row r="353" spans="2:4" ht="14.4">
+    <row r="353" spans="2:4">
       <c r="B353" s="40"/>
       <c r="C353" s="41"/>
       <c r="D353" s="42"/>
     </row>
-    <row r="354" spans="2:4" ht="14.4">
+    <row r="354" spans="2:4">
       <c r="B354" s="40"/>
       <c r="C354" s="41"/>
       <c r="D354" s="42"/>
     </row>
-    <row r="355" spans="2:4" ht="14.4">
+    <row r="355" spans="2:4">
       <c r="B355" s="40"/>
       <c r="C355" s="41"/>
       <c r="D355" s="42"/>
     </row>
-    <row r="356" spans="2:4" ht="14.4">
+    <row r="356" spans="2:4">
       <c r="B356" s="40"/>
       <c r="C356" s="41"/>
       <c r="D356" s="42"/>
     </row>
-    <row r="357" spans="2:4" ht="14.4">
+    <row r="357" spans="2:4">
       <c r="B357" s="40"/>
       <c r="C357" s="41"/>
       <c r="D357" s="42"/>
     </row>
-    <row r="358" spans="2:4" ht="14.4">
+    <row r="358" spans="2:4">
       <c r="B358" s="40"/>
       <c r="C358" s="41"/>
       <c r="D358" s="42"/>
     </row>
-    <row r="359" spans="2:4" ht="14.4">
+    <row r="359" spans="2:4">
       <c r="B359" s="40"/>
       <c r="C359" s="41"/>
       <c r="D359" s="42"/>
     </row>
-    <row r="360" spans="2:4" ht="14.4">
+    <row r="360" spans="2:4">
       <c r="B360" s="40"/>
       <c r="C360" s="41"/>
       <c r="D360" s="42"/>
     </row>
-    <row r="361" spans="2:4" ht="14.4">
+    <row r="361" spans="2:4">
       <c r="B361" s="40"/>
       <c r="C361" s="41"/>
       <c r="D361" s="42"/>
     </row>
-    <row r="362" spans="2:4" ht="14.4">
+    <row r="362" spans="2:4">
       <c r="B362" s="40"/>
       <c r="C362" s="41"/>
       <c r="D362" s="42"/>
     </row>
-    <row r="363" spans="2:4" ht="14.4">
+    <row r="363" spans="2:4">
       <c r="B363" s="40"/>
       <c r="C363" s="41"/>
       <c r="D363" s="42"/>
     </row>
-    <row r="364" spans="2:4" ht="14.4">
+    <row r="364" spans="2:4">
       <c r="B364" s="40"/>
       <c r="C364" s="41"/>
       <c r="D364" s="42"/>
     </row>
-    <row r="365" spans="2:4" ht="14.4">
+    <row r="365" spans="2:4">
       <c r="B365" s="40"/>
       <c r="C365" s="41"/>
       <c r="D365" s="42"/>
     </row>
-    <row r="366" spans="2:4" ht="14.4">
+    <row r="366" spans="2:4">
       <c r="B366" s="40"/>
       <c r="C366" s="41"/>
       <c r="D366" s="42"/>
     </row>
-    <row r="367" spans="2:4" ht="14.4">
+    <row r="367" spans="2:4">
       <c r="B367" s="40"/>
       <c r="C367" s="41"/>
       <c r="D367" s="42"/>
     </row>
-    <row r="368" spans="2:4" ht="14.4">
+    <row r="368" spans="2:4">
       <c r="B368" s="40"/>
       <c r="C368" s="41"/>
       <c r="D368" s="42"/>
     </row>
-    <row r="369" spans="2:4" ht="14.4">
+    <row r="369" spans="2:4">
       <c r="B369" s="40"/>
       <c r="C369" s="41"/>
       <c r="D369" s="42"/>
     </row>
-    <row r="370" spans="2:4" ht="14.4">
+    <row r="370" spans="2:4">
       <c r="B370" s="40"/>
       <c r="C370" s="41"/>
       <c r="D370" s="42"/>
     </row>
-    <row r="371" spans="2:4" ht="14.4">
+    <row r="371" spans="2:4">
       <c r="B371" s="40"/>
       <c r="C371" s="41"/>
       <c r="D371" s="42"/>
     </row>
-    <row r="372" spans="2:4" ht="14.4">
+    <row r="372" spans="2:4">
       <c r="B372" s="40"/>
       <c r="C372" s="41"/>
       <c r="D372" s="42"/>
     </row>
-    <row r="373" spans="2:4" ht="14.4">
+    <row r="373" spans="2:4">
       <c r="B373" s="40"/>
       <c r="C373" s="41"/>
       <c r="D373" s="42"/>
     </row>
-    <row r="374" spans="2:4" ht="14.4">
+    <row r="374" spans="2:4">
       <c r="B374" s="40"/>
       <c r="C374" s="41"/>
       <c r="D374" s="42"/>
     </row>
-    <row r="375" spans="2:4" ht="14.4">
+    <row r="375" spans="2:4">
       <c r="B375" s="40"/>
       <c r="C375" s="41"/>
       <c r="D375" s="42"/>
     </row>
-    <row r="376" spans="2:4" ht="14.4">
+    <row r="376" spans="2:4">
       <c r="B376" s="40"/>
       <c r="C376" s="41"/>
       <c r="D376" s="42"/>
     </row>
-    <row r="377" spans="2:4" ht="14.4">
+    <row r="377" spans="2:4">
       <c r="B377" s="40"/>
       <c r="C377" s="41"/>
       <c r="D377" s="42"/>
     </row>
-    <row r="378" spans="2:4" ht="14.4">
+    <row r="378" spans="2:4">
       <c r="B378" s="40"/>
       <c r="C378" s="41"/>
       <c r="D378" s="42"/>
     </row>
-    <row r="379" spans="2:4" ht="14.4">
+    <row r="379" spans="2:4">
       <c r="B379" s="40"/>
       <c r="C379" s="41"/>
       <c r="D379" s="42"/>
     </row>
-    <row r="380" spans="2:4" ht="14.4">
+    <row r="380" spans="2:4">
       <c r="B380" s="40"/>
       <c r="C380" s="41"/>
       <c r="D380" s="42"/>
     </row>
-    <row r="381" spans="2:4" ht="14.4">
+    <row r="381" spans="2:4">
       <c r="B381" s="40"/>
       <c r="C381" s="41"/>
       <c r="D381" s="42"/>
     </row>
-    <row r="382" spans="2:4" ht="14.4">
+    <row r="382" spans="2:4">
       <c r="B382" s="40"/>
       <c r="C382" s="41"/>
       <c r="D382" s="42"/>
     </row>
-    <row r="383" spans="2:4" ht="14.4">
+    <row r="383" spans="2:4">
       <c r="B383" s="40"/>
       <c r="C383" s="41"/>
       <c r="D383" s="42"/>
     </row>
-    <row r="384" spans="2:4" ht="14.4">
+    <row r="384" spans="2:4">
       <c r="B384" s="40"/>
       <c r="C384" s="41"/>
       <c r="D384" s="42"/>
     </row>
-    <row r="385" spans="2:4" ht="14.4">
+    <row r="385" spans="2:4">
       <c r="B385" s="40"/>
       <c r="C385" s="41"/>
       <c r="D385" s="42"/>
     </row>
-    <row r="386" spans="2:4" ht="14.4">
+    <row r="386" spans="2:4">
       <c r="B386" s="40"/>
       <c r="C386" s="41"/>
       <c r="D386" s="42"/>
     </row>
-    <row r="387" spans="2:4" ht="14.4">
+    <row r="387" spans="2:4">
       <c r="B387" s="40"/>
       <c r="C387" s="41"/>
       <c r="D387" s="42"/>
     </row>
-    <row r="388" spans="2:4" ht="14.4">
+    <row r="388" spans="2:4">
       <c r="B388" s="40"/>
       <c r="C388" s="41"/>
       <c r="D388" s="42"/>
     </row>
-    <row r="389" spans="2:4" ht="14.4">
+    <row r="389" spans="2:4">
       <c r="B389" s="40"/>
       <c r="C389" s="41"/>
       <c r="D389" s="42"/>
     </row>
-    <row r="390" spans="2:4" ht="14.4">
+    <row r="390" spans="2:4">
       <c r="B390" s="40"/>
       <c r="C390" s="41"/>
       <c r="D390" s="42"/>
     </row>
-    <row r="391" spans="2:4" ht="14.4">
+    <row r="391" spans="2:4">
       <c r="B391" s="40"/>
       <c r="C391" s="41"/>
       <c r="D391" s="42"/>
     </row>
-    <row r="392" spans="2:4" ht="14.4">
+    <row r="392" spans="2:4">
       <c r="B392" s="40"/>
       <c r="C392" s="41"/>
       <c r="D392" s="42"/>
     </row>
-    <row r="393" spans="2:4" ht="14.4">
+    <row r="393" spans="2:4">
       <c r="B393" s="40"/>
       <c r="C393" s="41"/>
       <c r="D393" s="42"/>
     </row>
-    <row r="394" spans="2:4" ht="14.4">
+    <row r="394" spans="2:4">
       <c r="B394" s="40"/>
       <c r="C394" s="41"/>
       <c r="D394" s="42"/>
     </row>
-    <row r="395" spans="2:4" ht="14.4">
+    <row r="395" spans="2:4">
       <c r="B395" s="40"/>
       <c r="C395" s="41"/>
       <c r="D395" s="42"/>
     </row>
-    <row r="396" spans="2:4" ht="14.4">
+    <row r="396" spans="2:4">
       <c r="B396" s="40"/>
       <c r="C396" s="41"/>
       <c r="D396" s="42"/>
     </row>
-    <row r="397" spans="2:4" ht="14.4">
+    <row r="397" spans="2:4">
       <c r="B397" s="40"/>
       <c r="C397" s="41"/>
       <c r="D397" s="42"/>
     </row>
-    <row r="398" spans="2:4" ht="14.4">
+    <row r="398" spans="2:4">
       <c r="B398" s="40"/>
       <c r="C398" s="41"/>
       <c r="D398" s="42"/>
     </row>
-    <row r="399" spans="2:4" ht="14.4">
+    <row r="399" spans="2:4">
       <c r="B399" s="40"/>
       <c r="C399" s="41"/>
       <c r="D399" s="42"/>
     </row>
-    <row r="400" spans="2:4" ht="14.4">
+    <row r="400" spans="2:4">
       <c r="B400" s="40"/>
       <c r="C400" s="41"/>
       <c r="D400" s="42"/>
     </row>
-    <row r="401" spans="2:4" ht="14.4">
+    <row r="401" spans="2:4">
       <c r="B401" s="40"/>
       <c r="C401" s="41"/>
       <c r="D401" s="42"/>
     </row>
-    <row r="402" spans="2:4" ht="14.4">
+    <row r="402" spans="2:4">
       <c r="B402" s="40"/>
       <c r="C402" s="41"/>
       <c r="D402" s="42"/>
     </row>
-    <row r="403" spans="2:4" ht="14.4">
+    <row r="403" spans="2:4">
       <c r="B403" s="40"/>
       <c r="C403" s="41"/>
       <c r="D403" s="42"/>
     </row>
-    <row r="404" spans="2:4" ht="14.4">
+    <row r="404" spans="2:4">
       <c r="B404" s="40"/>
       <c r="C404" s="41"/>
       <c r="D404" s="42"/>
     </row>
-    <row r="405" spans="2:4" ht="14.4">
+    <row r="405" spans="2:4">
       <c r="B405" s="40"/>
       <c r="C405" s="41"/>
       <c r="D405" s="42"/>
     </row>
-    <row r="406" spans="2:4" ht="14.4">
+    <row r="406" spans="2:4">
       <c r="B406" s="40"/>
       <c r="C406" s="41"/>
       <c r="D406" s="42"/>
     </row>
-    <row r="407" spans="2:4" ht="14.4">
+    <row r="407" spans="2:4">
       <c r="B407" s="40"/>
       <c r="C407" s="41"/>
       <c r="D407" s="42"/>
     </row>
-    <row r="408" spans="2:4" ht="14.4">
+    <row r="408" spans="2:4">
       <c r="B408" s="40"/>
       <c r="C408" s="41"/>
       <c r="D408" s="42"/>
     </row>
-    <row r="409" spans="2:4" ht="14.4">
+    <row r="409" spans="2:4">
       <c r="B409" s="40"/>
       <c r="C409" s="41"/>
       <c r="D409" s="42"/>
     </row>
-    <row r="410" spans="2:4" ht="14.4">
+    <row r="410" spans="2:4">
       <c r="B410" s="40"/>
       <c r="C410" s="41"/>
       <c r="D410" s="42"/>
     </row>
-    <row r="411" spans="2:4" ht="14.4">
+    <row r="411" spans="2:4">
       <c r="B411" s="40"/>
       <c r="C411" s="41"/>
       <c r="D411" s="42"/>
     </row>
-    <row r="412" spans="2:4" ht="14.4">
+    <row r="412" spans="2:4">
       <c r="B412" s="40"/>
       <c r="C412" s="41"/>
       <c r="D412" s="42"/>
     </row>
-    <row r="413" spans="2:4" ht="14.4">
+    <row r="413" spans="2:4">
       <c r="B413" s="40"/>
       <c r="C413" s="41"/>
       <c r="D413" s="42"/>
     </row>
-    <row r="414" spans="2:4" ht="14.4">
+    <row r="414" spans="2:4">
       <c r="B414" s="40"/>
       <c r="C414" s="41"/>
       <c r="D414" s="42"/>
     </row>
-    <row r="415" spans="2:4" ht="14.4">
+    <row r="415" spans="2:4">
       <c r="B415" s="40"/>
       <c r="C415" s="41"/>
       <c r="D415" s="42"/>
     </row>
-    <row r="416" spans="2:4" ht="14.4">
+    <row r="416" spans="2:4">
       <c r="B416" s="40"/>
       <c r="C416" s="41"/>
       <c r="D416" s="42"/>
     </row>
-    <row r="417" spans="2:4" ht="14.4">
+    <row r="417" spans="2:4">
       <c r="B417" s="40"/>
       <c r="C417" s="41"/>
       <c r="D417" s="42"/>
     </row>
-    <row r="418" spans="2:4" ht="14.4">
+    <row r="418" spans="2:4">
       <c r="B418" s="40"/>
       <c r="C418" s="41"/>
       <c r="D418" s="42"/>
     </row>
-    <row r="419" spans="2:4" ht="14.4">
+    <row r="419" spans="2:4">
       <c r="B419" s="40"/>
       <c r="C419" s="41"/>
       <c r="D419" s="42"/>
     </row>
-    <row r="420" spans="2:4" ht="14.4">
+    <row r="420" spans="2:4">
       <c r="B420" s="40"/>
       <c r="C420" s="41"/>
       <c r="D420" s="42"/>
     </row>
-    <row r="421" spans="2:4" ht="14.4">
+    <row r="421" spans="2:4">
       <c r="B421" s="40"/>
       <c r="C421" s="41"/>
       <c r="D421" s="42"/>
     </row>
-    <row r="422" spans="2:4" ht="14.4">
+    <row r="422" spans="2:4">
       <c r="B422" s="40"/>
       <c r="C422" s="41"/>
       <c r="D422" s="42"/>
     </row>
-    <row r="423" spans="2:4" ht="14.4">
+    <row r="423" spans="2:4">
       <c r="B423" s="40"/>
       <c r="C423" s="41"/>
       <c r="D423" s="42"/>
     </row>
-    <row r="424" spans="2:4" ht="14.4">
+    <row r="424" spans="2:4">
       <c r="B424" s="40"/>
       <c r="C424" s="41"/>
       <c r="D424" s="42"/>
     </row>
-    <row r="425" spans="2:4" ht="14.4">
+    <row r="425" spans="2:4">
       <c r="B425" s="40"/>
       <c r="C425" s="41"/>
       <c r="D425" s="42"/>
     </row>
-    <row r="426" spans="2:4" ht="14.4">
+    <row r="426" spans="2:4">
       <c r="B426" s="40"/>
       <c r="C426" s="41"/>
       <c r="D426" s="42"/>
     </row>
-    <row r="427" spans="2:4" ht="14.4">
+    <row r="427" spans="2:4">
       <c r="B427" s="40"/>
       <c r="C427" s="41"/>
       <c r="D427" s="42"/>
     </row>
-    <row r="428" spans="2:4" ht="14.4">
+    <row r="428" spans="2:4">
       <c r="B428" s="40"/>
       <c r="C428" s="41"/>
       <c r="D428" s="42"/>
     </row>
-    <row r="429" spans="2:4" ht="14.4">
+    <row r="429" spans="2:4">
       <c r="B429" s="40"/>
       <c r="C429" s="41"/>
       <c r="D429" s="42"/>
     </row>
-    <row r="430" spans="2:4" ht="14.4">
+    <row r="430" spans="2:4">
       <c r="B430" s="40"/>
       <c r="C430" s="41"/>
       <c r="D430" s="42"/>
     </row>
-    <row r="431" spans="2:4" ht="14.4">
+    <row r="431" spans="2:4">
       <c r="B431" s="40"/>
       <c r="C431" s="41"/>
       <c r="D431" s="42"/>
     </row>
-    <row r="432" spans="2:4" ht="14.4">
+    <row r="432" spans="2:4">
       <c r="B432" s="40"/>
       <c r="C432" s="41"/>
       <c r="D432" s="42"/>
     </row>
-    <row r="433" spans="2:4" ht="14.4">
+    <row r="433" spans="2:4">
       <c r="B433" s="40"/>
       <c r="C433" s="41"/>
       <c r="D433" s="42"/>
     </row>
-    <row r="434" spans="2:4" ht="14.4">
+    <row r="434" spans="2:4">
       <c r="B434" s="40"/>
       <c r="C434" s="41"/>
       <c r="D434" s="42"/>
     </row>
-    <row r="435" spans="2:4" ht="14.4">
+    <row r="435" spans="2:4">
       <c r="B435" s="40"/>
       <c r="C435" s="41"/>
       <c r="D435" s="42"/>
     </row>
-    <row r="436" spans="2:4" ht="14.4">
+    <row r="436" spans="2:4">
       <c r="B436" s="40"/>
       <c r="C436" s="41"/>
       <c r="D436" s="42"/>
     </row>
-    <row r="437" spans="2:4" ht="14.4">
+    <row r="437" spans="2:4">
       <c r="B437" s="40"/>
       <c r="C437" s="41"/>
       <c r="D437" s="42"/>
     </row>
-    <row r="438" spans="2:4" ht="14.4">
+    <row r="438" spans="2:4">
       <c r="B438" s="40"/>
       <c r="C438" s="41"/>
       <c r="D438" s="42"/>
     </row>
-    <row r="439" spans="2:4" ht="14.4">
+    <row r="439" spans="2:4">
       <c r="B439" s="40"/>
       <c r="C439" s="41"/>
       <c r="D439" s="42"/>
     </row>
-    <row r="440" spans="2:4" ht="14.4">
+    <row r="440" spans="2:4">
       <c r="B440" s="40"/>
       <c r="C440" s="41"/>
       <c r="D440" s="42"/>
     </row>
-    <row r="441" spans="2:4" ht="14.4">
+    <row r="441" spans="2:4">
       <c r="B441" s="40"/>
       <c r="C441" s="41"/>
       <c r="D441" s="42"/>
     </row>
-    <row r="442" spans="2:4" ht="14.4">
+    <row r="442" spans="2:4">
       <c r="B442" s="40"/>
       <c r="C442" s="41"/>
       <c r="D442" s="42"/>
     </row>
-    <row r="443" spans="2:4" ht="14.4">
+    <row r="443" spans="2:4">
       <c r="B443" s="40"/>
       <c r="C443" s="41"/>
       <c r="D443" s="42"/>
     </row>
-    <row r="444" spans="2:4" ht="14.4">
+    <row r="444" spans="2:4">
       <c r="B444" s="40"/>
       <c r="C444" s="41"/>
       <c r="D444" s="42"/>
     </row>
-    <row r="445" spans="2:4" ht="14.4">
+    <row r="445" spans="2:4">
       <c r="B445" s="40"/>
       <c r="C445" s="41"/>
       <c r="D445" s="42"/>
     </row>
-    <row r="446" spans="2:4" ht="14.4">
+    <row r="446" spans="2:4">
       <c r="B446" s="40"/>
       <c r="C446" s="41"/>
       <c r="D446" s="42"/>
     </row>
-    <row r="447" spans="2:4" ht="14.4">
+    <row r="447" spans="2:4">
       <c r="B447" s="40"/>
       <c r="C447" s="41"/>
       <c r="D447" s="42"/>
     </row>
-    <row r="448" spans="2:4" ht="14.4">
+    <row r="448" spans="2:4">
       <c r="B448" s="40"/>
       <c r="C448" s="41"/>
       <c r="D448" s="42"/>
     </row>
-    <row r="449" spans="2:4" ht="14.4">
+    <row r="449" spans="2:4">
       <c r="B449" s="40"/>
       <c r="C449" s="41"/>
       <c r="D449" s="42"/>
     </row>
-    <row r="450" spans="2:4" ht="14.4">
+    <row r="450" spans="2:4">
       <c r="B450" s="40"/>
       <c r="C450" s="41"/>
       <c r="D450" s="42"/>
     </row>
-    <row r="451" spans="2:4" ht="14.4">
+    <row r="451" spans="2:4">
       <c r="B451" s="40"/>
       <c r="C451" s="41"/>
       <c r="D451" s="42"/>
     </row>
-    <row r="452" spans="2:4" ht="14.4">
+    <row r="452" spans="2:4">
       <c r="B452" s="40"/>
       <c r="C452" s="41"/>
       <c r="D452" s="42"/>
     </row>
-    <row r="453" spans="2:4" ht="14.4">
+    <row r="453" spans="2:4">
       <c r="B453" s="40"/>
       <c r="C453" s="41"/>
       <c r="D453" s="42"/>
     </row>
-    <row r="454" spans="2:4" ht="14.4">
+    <row r="454" spans="2:4">
       <c r="B454" s="40"/>
       <c r="C454" s="41"/>
       <c r="D454" s="42"/>
     </row>
-    <row r="455" spans="2:4" ht="14.4">
+    <row r="455" spans="2:4">
       <c r="B455" s="40"/>
       <c r="C455" s="41"/>
       <c r="D455" s="42"/>
     </row>
-    <row r="456" spans="2:4" ht="14.4">
+    <row r="456" spans="2:4">
       <c r="B456" s="40"/>
       <c r="C456" s="41"/>
       <c r="D456" s="42"/>
     </row>
-    <row r="457" spans="2:4" ht="14.4">
+    <row r="457" spans="2:4">
       <c r="B457" s="40"/>
       <c r="C457" s="41"/>
       <c r="D457" s="42"/>
     </row>
-    <row r="458" spans="2:4" ht="14.4">
+    <row r="458" spans="2:4">
       <c r="B458" s="40"/>
       <c r="C458" s="41"/>
       <c r="D458" s="42"/>
     </row>
-    <row r="459" spans="2:4" ht="14.4">
+    <row r="459" spans="2:4">
       <c r="B459" s="40"/>
       <c r="C459" s="41"/>
       <c r="D459" s="42"/>
     </row>
-    <row r="460" spans="2:4" ht="14.4">
+    <row r="460" spans="2:4">
       <c r="B460" s="40"/>
       <c r="C460" s="41"/>
       <c r="D460" s="42"/>
     </row>
-    <row r="461" spans="2:4" ht="14.4">
+    <row r="461" spans="2:4">
       <c r="B461" s="40"/>
       <c r="C461" s="41"/>
       <c r="D461" s="42"/>
     </row>
-    <row r="462" spans="2:4" ht="14.4">
+    <row r="462" spans="2:4">
       <c r="B462" s="40"/>
       <c r="C462" s="41"/>
       <c r="D462" s="42"/>
     </row>
-    <row r="463" spans="2:4" ht="14.4">
+    <row r="463" spans="2:4">
       <c r="B463" s="40"/>
       <c r="C463" s="41"/>
       <c r="D463" s="42"/>
     </row>
-    <row r="464" spans="2:4" ht="14.4">
+    <row r="464" spans="2:4">
       <c r="B464" s="40"/>
       <c r="C464" s="41"/>
       <c r="D464" s="42"/>
     </row>
-    <row r="465" spans="2:4" ht="14.4">
+    <row r="465" spans="2:4">
       <c r="B465" s="40"/>
       <c r="C465" s="41"/>
       <c r="D465" s="42"/>
     </row>
-    <row r="466" spans="2:4" ht="14.4">
+    <row r="466" spans="2:4">
       <c r="B466" s="40"/>
       <c r="C466" s="41"/>
       <c r="D466" s="42"/>
     </row>
-    <row r="467" spans="2:4" ht="14.4">
+    <row r="467" spans="2:4">
       <c r="B467" s="40"/>
       <c r="C467" s="41"/>
       <c r="D467" s="42"/>
     </row>
-    <row r="468" spans="2:4" ht="14.4">
+    <row r="468" spans="2:4">
       <c r="B468" s="40"/>
       <c r="C468" s="41"/>
       <c r="D468" s="42"/>
     </row>
-    <row r="469" spans="2:4" ht="14.4">
+    <row r="469" spans="2:4">
       <c r="B469" s="40"/>
       <c r="C469" s="41"/>
       <c r="D469" s="42"/>
     </row>
-    <row r="470" spans="2:4" ht="14.4">
+    <row r="470" spans="2:4">
       <c r="B470" s="40"/>
       <c r="C470" s="41"/>
       <c r="D470" s="42"/>
     </row>
-    <row r="471" spans="2:4" ht="14.4">
+    <row r="471" spans="2:4">
       <c r="B471" s="40"/>
       <c r="C471" s="41"/>
       <c r="D471" s="42"/>
     </row>
-    <row r="472" spans="2:4" ht="14.4">
+    <row r="472" spans="2:4">
       <c r="B472" s="40"/>
       <c r="C472" s="41"/>
       <c r="D472" s="42"/>
     </row>
-    <row r="473" spans="2:4" ht="14.4">
+    <row r="473" spans="2:4">
       <c r="B473" s="40"/>
       <c r="C473" s="41"/>
       <c r="D473" s="42"/>
     </row>
-    <row r="474" spans="2:4" ht="14.4">
+    <row r="474" spans="2:4">
       <c r="B474" s="40"/>
       <c r="C474" s="41"/>
       <c r="D474" s="42"/>
     </row>
-    <row r="475" spans="2:4" ht="14.4">
+    <row r="475" spans="2:4">
       <c r="B475" s="40"/>
       <c r="C475" s="41"/>
       <c r="D475" s="42"/>
     </row>
-    <row r="476" spans="2:4" ht="14.4">
+    <row r="476" spans="2:4">
       <c r="B476" s="40"/>
       <c r="C476" s="41"/>
       <c r="D476" s="42"/>
     </row>
-    <row r="477" spans="2:4" ht="14.4">
+    <row r="477" spans="2:4">
       <c r="B477" s="40"/>
       <c r="C477" s="41"/>
       <c r="D477" s="42"/>
     </row>
-    <row r="478" spans="2:4" ht="14.4">
+    <row r="478" spans="2:4">
       <c r="B478" s="40"/>
       <c r="C478" s="41"/>
       <c r="D478" s="42"/>
     </row>
-    <row r="479" spans="2:4" ht="14.4">
+    <row r="479" spans="2:4">
       <c r="B479" s="40"/>
       <c r="C479" s="41"/>
       <c r="D479" s="42"/>
     </row>
-    <row r="480" spans="2:4" ht="14.4">
+    <row r="480" spans="2:4">
       <c r="B480" s="40"/>
       <c r="C480" s="41"/>
       <c r="D480" s="42"/>
     </row>
-    <row r="481" spans="2:4" ht="14.4">
+    <row r="481" spans="2:4">
       <c r="B481" s="40"/>
       <c r="C481" s="41"/>
       <c r="D481" s="42"/>
     </row>
-    <row r="482" spans="2:4" ht="14.4">
+    <row r="482" spans="2:4">
       <c r="B482" s="40"/>
       <c r="C482" s="41"/>
       <c r="D482" s="42"/>
     </row>
-    <row r="483" spans="2:4" ht="14.4">
+    <row r="483" spans="2:4">
       <c r="B483" s="40"/>
       <c r="C483" s="41"/>
       <c r="D483" s="42"/>
     </row>
-    <row r="484" spans="2:4" ht="14.4">
+    <row r="484" spans="2:4">
       <c r="B484" s="40"/>
       <c r="C484" s="41"/>
       <c r="D484" s="42"/>
     </row>
-    <row r="485" spans="2:4" ht="14.4">
+    <row r="485" spans="2:4">
       <c r="B485" s="40"/>
       <c r="C485" s="41"/>
       <c r="D485" s="42"/>
     </row>
-    <row r="486" spans="2:4" ht="14.4">
+    <row r="486" spans="2:4">
       <c r="B486" s="40"/>
       <c r="C486" s="41"/>
       <c r="D486" s="42"/>
     </row>
-    <row r="487" spans="2:4" ht="14.4">
+    <row r="487" spans="2:4">
       <c r="B487" s="40"/>
       <c r="C487" s="41"/>
       <c r="D487" s="42"/>
     </row>
-    <row r="488" spans="2:4" ht="14.4">
+    <row r="488" spans="2:4">
       <c r="B488" s="40"/>
       <c r="C488" s="41"/>
       <c r="D488" s="42"/>
     </row>
-    <row r="489" spans="2:4" ht="14.4">
+    <row r="489" spans="2:4">
       <c r="B489" s="40"/>
       <c r="C489" s="41"/>
       <c r="D489" s="42"/>
     </row>
-    <row r="490" spans="2:4" ht="14.4">
+    <row r="490" spans="2:4">
       <c r="B490" s="40"/>
       <c r="C490" s="41"/>
       <c r="D490" s="42"/>
     </row>
-    <row r="491" spans="2:4" ht="14.4">
+    <row r="491" spans="2:4">
       <c r="B491" s="40"/>
       <c r="C491" s="41"/>
       <c r="D491" s="42"/>
     </row>
-    <row r="492" spans="2:4" ht="14.4">
+    <row r="492" spans="2:4">
       <c r="B492" s="40"/>
       <c r="C492" s="41"/>
       <c r="D492" s="42"/>
     </row>
-    <row r="493" spans="2:4" ht="14.4">
+    <row r="493" spans="2:4">
       <c r="B493" s="40"/>
       <c r="C493" s="41"/>
       <c r="D493" s="42"/>
     </row>
-    <row r="494" spans="2:4" ht="14.4">
+    <row r="494" spans="2:4">
       <c r="B494" s="40"/>
       <c r="C494" s="41"/>
       <c r="D494" s="42"/>
     </row>
-    <row r="495" spans="2:4" ht="14.4">
+    <row r="495" spans="2:4">
       <c r="B495" s="40"/>
       <c r="C495" s="41"/>
       <c r="D495" s="42"/>
     </row>
-    <row r="496" spans="2:4" ht="14.4">
+    <row r="496" spans="2:4">
       <c r="B496" s="40"/>
       <c r="C496" s="41"/>
       <c r="D496" s="42"/>
     </row>
-    <row r="497" spans="2:4" ht="14.4">
+    <row r="497" spans="2:4">
       <c r="B497" s="40"/>
       <c r="C497" s="41"/>
       <c r="D497" s="42"/>
     </row>
-    <row r="498" spans="2:4" ht="14.4">
+    <row r="498" spans="2:4">
       <c r="B498" s="40"/>
       <c r="C498" s="41"/>
       <c r="D498" s="42"/>
     </row>
-    <row r="499" spans="2:4" ht="14.4">
+    <row r="499" spans="2:4">
       <c r="B499" s="40"/>
       <c r="C499" s="41"/>
       <c r="D499" s="42"/>
     </row>
-    <row r="500" spans="2:4" ht="14.4">
+    <row r="500" spans="2:4">
       <c r="B500" s="40"/>
       <c r="C500" s="41"/>
       <c r="D500" s="42"/>
     </row>
-    <row r="501" spans="2:4" ht="14.4">
+    <row r="501" spans="2:4">
       <c r="B501" s="40"/>
       <c r="C501" s="41"/>
       <c r="D501" s="42"/>
     </row>
-    <row r="502" spans="2:4" ht="14.4">
+    <row r="502" spans="2:4">
       <c r="B502" s="40"/>
       <c r="C502" s="41"/>
       <c r="D502" s="42"/>
     </row>
-    <row r="503" spans="2:4" ht="14.4">
+    <row r="503" spans="2:4">
       <c r="B503" s="40"/>
       <c r="C503" s="41"/>
       <c r="D503" s="42"/>
     </row>
-    <row r="504" spans="2:4" ht="14.4">
+    <row r="504" spans="2:4">
       <c r="B504" s="40"/>
       <c r="C504" s="41"/>
       <c r="D504" s="42"/>
     </row>
-    <row r="505" spans="2:4" ht="14.4">
+    <row r="505" spans="2:4">
       <c r="B505" s="40"/>
       <c r="C505" s="41"/>
       <c r="D505" s="42"/>
     </row>
-    <row r="506" spans="2:4" ht="14.4">
+    <row r="506" spans="2:4">
       <c r="B506" s="40"/>
       <c r="C506" s="41"/>
       <c r="D506" s="42"/>
     </row>
-    <row r="507" spans="2:4" ht="14.4">
+    <row r="507" spans="2:4">
       <c r="B507" s="40"/>
       <c r="C507" s="41"/>
       <c r="D507" s="42"/>
     </row>
-    <row r="508" spans="2:4" ht="14.4">
+    <row r="508" spans="2:4">
       <c r="B508" s="40"/>
       <c r="C508" s="41"/>
       <c r="D508" s="42"/>
     </row>
-    <row r="509" spans="2:4" ht="14.4">
+    <row r="509" spans="2:4">
       <c r="B509" s="40"/>
       <c r="C509" s="41"/>
       <c r="D509" s="42"/>
     </row>
-    <row r="510" spans="2:4" ht="14.4">
+    <row r="510" spans="2:4">
       <c r="B510" s="40"/>
       <c r="C510" s="41"/>
       <c r="D510" s="42"/>
     </row>
-    <row r="511" spans="2:4" ht="14.4">
+    <row r="511" spans="2:4">
       <c r="B511" s="40"/>
       <c r="C511" s="41"/>
       <c r="D511" s="42"/>
     </row>
-    <row r="512" spans="2:4" ht="14.4">
+    <row r="512" spans="2:4">
       <c r="B512" s="40"/>
       <c r="C512" s="41"/>
       <c r="D512" s="42"/>
     </row>
-    <row r="513" spans="2:4" ht="14.4">
+    <row r="513" spans="2:4">
       <c r="B513" s="40"/>
       <c r="C513" s="41"/>
       <c r="D513" s="42"/>
     </row>
-    <row r="514" spans="2:4" ht="14.4">
+    <row r="514" spans="2:4">
       <c r="B514" s="40"/>
       <c r="C514" s="41"/>
       <c r="D514" s="42"/>
     </row>
-    <row r="515" spans="2:4" ht="14.4">
+    <row r="515" spans="2:4">
       <c r="B515" s="40"/>
       <c r="C515" s="41"/>
       <c r="D515" s="42"/>
     </row>
-    <row r="516" spans="2:4" ht="14.4">
+    <row r="516" spans="2:4">
       <c r="B516" s="40"/>
       <c r="C516" s="41"/>
       <c r="D516" s="42"/>
     </row>
-    <row r="517" spans="2:4" ht="14.4">
+    <row r="517" spans="2:4">
       <c r="B517" s="40"/>
       <c r="C517" s="41"/>
       <c r="D517" s="42"/>
     </row>
-    <row r="518" spans="2:4" ht="14.4">
+    <row r="518" spans="2:4">
       <c r="B518" s="40"/>
       <c r="C518" s="41"/>
       <c r="D518" s="42"/>
     </row>
-    <row r="519" spans="2:4" ht="14.4">
+    <row r="519" spans="2:4">
       <c r="B519" s="40"/>
       <c r="C519" s="41"/>
       <c r="D519" s="42"/>
     </row>
-    <row r="520" spans="2:4" ht="14.4">
+    <row r="520" spans="2:4">
       <c r="B520" s="40"/>
       <c r="C520" s="41"/>
       <c r="D520" s="42"/>
     </row>
-    <row r="521" spans="2:4" ht="14.4">
+    <row r="521" spans="2:4">
       <c r="B521" s="40"/>
       <c r="C521" s="41"/>
       <c r="D521" s="42"/>
     </row>
-    <row r="522" spans="2:4" ht="14.4">
+    <row r="522" spans="2:4">
       <c r="B522" s="40"/>
       <c r="C522" s="41"/>
       <c r="D522" s="42"/>
     </row>
-    <row r="523" spans="2:4" ht="14.4">
+    <row r="523" spans="2:4">
       <c r="B523" s="40"/>
       <c r="C523" s="41"/>
       <c r="D523" s="42"/>
     </row>
-    <row r="524" spans="2:4" ht="14.4">
+    <row r="524" spans="2:4">
       <c r="B524" s="40"/>
       <c r="C524" s="41"/>
       <c r="D524" s="42"/>
     </row>
-    <row r="525" spans="2:4" ht="14.4">
+    <row r="525" spans="2:4">
       <c r="B525" s="40"/>
       <c r="C525" s="41"/>
       <c r="D525" s="42"/>
     </row>
-    <row r="526" spans="2:4" ht="14.4">
+    <row r="526" spans="2:4">
       <c r="B526" s="40"/>
       <c r="C526" s="41"/>
       <c r="D526" s="42"/>
     </row>
-    <row r="527" spans="2:4" ht="14.4">
+    <row r="527" spans="2:4">
       <c r="B527" s="40"/>
       <c r="C527" s="41"/>
       <c r="D527" s="42"/>
     </row>
-    <row r="528" spans="2:4" ht="14.4">
+    <row r="528" spans="2:4">
       <c r="B528" s="40"/>
       <c r="C528" s="41"/>
       <c r="D528" s="42"/>
     </row>
-    <row r="529" spans="2:4" ht="14.4">
+    <row r="529" spans="2:4">
       <c r="B529" s="40"/>
       <c r="C529" s="41"/>
       <c r="D529" s="42"/>
     </row>
-    <row r="530" spans="2:4" ht="14.4">
+    <row r="530" spans="2:4">
       <c r="B530" s="40"/>
       <c r="C530" s="41"/>
       <c r="D530" s="42"/>
     </row>
-    <row r="531" spans="2:4" ht="14.4">
+    <row r="531" spans="2:4">
       <c r="B531" s="40"/>
       <c r="C531" s="41"/>
       <c r="D531" s="42"/>
     </row>
-    <row r="532" spans="2:4" ht="14.4">
+    <row r="532" spans="2:4">
       <c r="B532" s="40"/>
       <c r="C532" s="41"/>
       <c r="D532" s="42"/>
     </row>
-    <row r="533" spans="2:4" ht="14.4">
+    <row r="533" spans="2:4">
       <c r="B533" s="40"/>
       <c r="C533" s="41"/>
       <c r="D533" s="42"/>
     </row>
-    <row r="534" spans="2:4" ht="14.4">
+    <row r="534" spans="2:4">
       <c r="B534" s="40"/>
       <c r="C534" s="41"/>
       <c r="D534" s="42"/>
     </row>
-    <row r="535" spans="2:4" ht="14.4">
+    <row r="535" spans="2:4">
       <c r="B535" s="40"/>
       <c r="C535" s="41"/>
       <c r="D535" s="42"/>
     </row>
-    <row r="536" spans="2:4" ht="14.4">
+    <row r="536" spans="2:4">
       <c r="B536" s="40"/>
       <c r="C536" s="41"/>
       <c r="D536" s="42"/>
     </row>
-    <row r="537" spans="2:4" ht="14.4">
+    <row r="537" spans="2:4">
       <c r="B537" s="40"/>
       <c r="C537" s="41"/>
       <c r="D537" s="42"/>
     </row>
-    <row r="538" spans="2:4" ht="14.4">
+    <row r="538" spans="2:4">
       <c r="B538" s="40"/>
       <c r="C538" s="41"/>
       <c r="D538" s="42"/>
     </row>
-    <row r="539" spans="2:4" ht="14.4">
+    <row r="539" spans="2:4">
       <c r="B539" s="40"/>
       <c r="C539" s="41"/>
       <c r="D539" s="42"/>
     </row>
-    <row r="540" spans="2:4" ht="14.4">
+    <row r="540" spans="2:4">
       <c r="B540" s="40"/>
       <c r="C540" s="41"/>
       <c r="D540" s="42"/>
     </row>
-    <row r="541" spans="2:4" ht="14.4">
+    <row r="541" spans="2:4">
       <c r="B541" s="40"/>
       <c r="C541" s="41"/>
       <c r="D541" s="42"/>
     </row>
-    <row r="542" spans="2:4" ht="14.4">
+    <row r="542" spans="2:4">
       <c r="B542" s="40"/>
       <c r="C542" s="41"/>
       <c r="D542" s="42"/>
     </row>
-    <row r="543" spans="2:4" ht="14.4">
+    <row r="543" spans="2:4">
       <c r="B543" s="40"/>
       <c r="C543" s="41"/>
       <c r="D543" s="42"/>
     </row>
-    <row r="544" spans="2:4" ht="14.4">
+    <row r="544" spans="2:4">
       <c r="B544" s="40"/>
       <c r="C544" s="41"/>
       <c r="D544" s="42"/>
     </row>
-    <row r="545" spans="2:4" ht="14.4">
+    <row r="545" spans="2:4">
       <c r="B545" s="40"/>
       <c r="C545" s="41"/>
       <c r="D545" s="42"/>
     </row>
-    <row r="546" spans="2:4" ht="14.4">
+    <row r="546" spans="2:4">
       <c r="B546" s="40"/>
       <c r="C546" s="41"/>
       <c r="D546" s="42"/>
     </row>
-    <row r="547" spans="2:4" ht="14.4">
+    <row r="547" spans="2:4">
       <c r="B547" s="40"/>
       <c r="C547" s="41"/>
       <c r="D547" s="42"/>
     </row>
-    <row r="548" spans="2:4" ht="14.4">
+    <row r="548" spans="2:4">
       <c r="B548" s="40"/>
       <c r="C548" s="41"/>
       <c r="D548" s="42"/>
     </row>
-    <row r="549" spans="2:4" ht="14.4">
+    <row r="549" spans="2:4">
       <c r="B549" s="40"/>
       <c r="C549" s="41"/>
       <c r="D549" s="42"/>
     </row>
-    <row r="550" spans="2:4" ht="14.4">
+    <row r="550" spans="2:4">
       <c r="B550" s="40"/>
       <c r="C550" s="41"/>
       <c r="D550" s="42"/>
     </row>
-    <row r="551" spans="2:4" ht="14.4">
+    <row r="551" spans="2:4">
       <c r="B551" s="40"/>
       <c r="C551" s="41"/>
       <c r="D551" s="42"/>
     </row>
-    <row r="552" spans="2:4" ht="14.4">
+    <row r="552" spans="2:4">
       <c r="B552" s="40"/>
       <c r="C552" s="41"/>
       <c r="D552" s="42"/>
     </row>
-    <row r="553" spans="2:4" ht="14.4">
+    <row r="553" spans="2:4">
       <c r="B553" s="40"/>
       <c r="C553" s="41"/>
       <c r="D553" s="42"/>
     </row>
-    <row r="554" spans="2:4" ht="14.4">
+    <row r="554" spans="2:4">
       <c r="B554" s="40"/>
       <c r="C554" s="41"/>
       <c r="D554" s="42"/>
     </row>
-    <row r="555" spans="2:4" ht="14.4">
+    <row r="555" spans="2:4">
       <c r="B555" s="40"/>
       <c r="C555" s="41"/>
       <c r="D555" s="42"/>
     </row>
-    <row r="556" spans="2:4" ht="14.4">
+    <row r="556" spans="2:4">
       <c r="B556" s="40"/>
       <c r="C556" s="41"/>
       <c r="D556" s="42"/>
     </row>
-    <row r="557" spans="2:4" ht="14.4">
+    <row r="557" spans="2:4">
       <c r="B557" s="40"/>
       <c r="C557" s="41"/>
       <c r="D557" s="42"/>
     </row>
-    <row r="558" spans="2:4" ht="14.4">
+    <row r="558" spans="2:4">
       <c r="B558" s="40"/>
       <c r="C558" s="41"/>
       <c r="D558" s="42"/>
     </row>
-    <row r="559" spans="2:4" ht="14.4">
+    <row r="559" spans="2:4">
       <c r="B559" s="40"/>
       <c r="C559" s="41"/>
       <c r="D559" s="42"/>
     </row>
-    <row r="560" spans="2:4" ht="14.4">
+    <row r="560" spans="2:4">
       <c r="B560" s="40"/>
       <c r="C560" s="41"/>
       <c r="D560" s="42"/>
     </row>
-    <row r="561" spans="2:4" ht="14.4">
+    <row r="561" spans="2:4">
       <c r="B561" s="40"/>
       <c r="C561" s="41"/>
       <c r="D561" s="42"/>
     </row>
-    <row r="562" spans="2:4" ht="14.4">
+    <row r="562" spans="2:4">
       <c r="B562" s="40"/>
       <c r="C562" s="41"/>
       <c r="D562" s="42"/>
     </row>
-    <row r="563" spans="2:4" ht="14.4">
+    <row r="563" spans="2:4">
       <c r="B563" s="40"/>
       <c r="C563" s="41"/>
       <c r="D563" s="42"/>
     </row>
-    <row r="564" spans="2:4" ht="14.4">
+    <row r="564" spans="2:4">
       <c r="B564" s="40"/>
       <c r="C564" s="41"/>
       <c r="D564" s="42"/>
     </row>
-    <row r="565" spans="2:4" ht="14.4">
+    <row r="565" spans="2:4">
       <c r="B565" s="40"/>
       <c r="C565" s="41"/>
       <c r="D565" s="42"/>
     </row>
-    <row r="566" spans="2:4" ht="14.4">
+    <row r="566" spans="2:4">
       <c r="B566" s="40"/>
       <c r="C566" s="41"/>
       <c r="D566" s="42"/>
     </row>
-    <row r="567" spans="2:4" ht="14.4">
+    <row r="567" spans="2:4">
       <c r="B567" s="40"/>
       <c r="C567" s="41"/>
       <c r="D567" s="42"/>
     </row>
-    <row r="568" spans="2:4" ht="14.4">
+    <row r="568" spans="2:4">
       <c r="B568" s="40"/>
       <c r="C568" s="41"/>
       <c r="D568" s="42"/>
     </row>
-    <row r="569" spans="2:4" ht="14.4">
+    <row r="569" spans="2:4">
       <c r="B569" s="40"/>
       <c r="C569" s="41"/>
       <c r="D569" s="42"/>
     </row>
-    <row r="570" spans="2:4" ht="14.4">
+    <row r="570" spans="2:4">
       <c r="B570" s="40"/>
       <c r="C570" s="41"/>
       <c r="D570" s="42"/>
     </row>
-    <row r="571" spans="2:4" ht="14.4">
+    <row r="571" spans="2:4">
       <c r="B571" s="40"/>
       <c r="C571" s="41"/>
       <c r="D571" s="42"/>
     </row>
-    <row r="572" spans="2:4" ht="14.4">
+    <row r="572" spans="2:4">
       <c r="B572" s="40"/>
       <c r="C572" s="41"/>
       <c r="D572" s="42"/>
     </row>
-    <row r="573" spans="2:4" ht="14.4">
+    <row r="573" spans="2:4">
       <c r="B573" s="40"/>
       <c r="C573" s="41"/>
       <c r="D573" s="42"/>
     </row>
-    <row r="574" spans="2:4" ht="14.4">
+    <row r="574" spans="2:4">
       <c r="B574" s="40"/>
       <c r="C574" s="41"/>
       <c r="D574" s="42"/>
     </row>
-    <row r="575" spans="2:4" ht="14.4">
+    <row r="575" spans="2:4">
       <c r="B575" s="40"/>
       <c r="C575" s="41"/>
       <c r="D575" s="42"/>
     </row>
-    <row r="576" spans="2:4" ht="14.4">
+    <row r="576" spans="2:4">
       <c r="B576" s="40"/>
       <c r="C576" s="41"/>
       <c r="D576" s="42"/>
     </row>
-    <row r="577" spans="2:4" ht="14.4">
+    <row r="577" spans="2:4">
       <c r="B577" s="40"/>
       <c r="C577" s="41"/>
       <c r="D577" s="42"/>
     </row>
-    <row r="578" spans="2:4" ht="14.4">
+    <row r="578" spans="2:4">
       <c r="B578" s="40"/>
       <c r="C578" s="41"/>
       <c r="D578" s="42"/>
     </row>
-    <row r="579" spans="2:4" ht="14.4">
+    <row r="579" spans="2:4">
       <c r="B579" s="40"/>
       <c r="C579" s="41"/>
       <c r="D579" s="42"/>
     </row>
-    <row r="580" spans="2:4" ht="14.4">
+    <row r="580" spans="2:4">
       <c r="B580" s="40"/>
       <c r="C580" s="41"/>
       <c r="D580" s="42"/>
     </row>
-    <row r="581" spans="2:4" ht="14.4">
+    <row r="581" spans="2:4">
       <c r="B581" s="40"/>
       <c r="C581" s="41"/>
       <c r="D581" s="42"/>
     </row>
-    <row r="582" spans="2:4" ht="14.4">
+    <row r="582" spans="2:4">
       <c r="B582" s="40"/>
       <c r="C582" s="41"/>
       <c r="D582" s="42"/>
     </row>
-    <row r="583" spans="2:4" ht="14.4">
+    <row r="583" spans="2:4">
       <c r="B583" s="40"/>
       <c r="C583" s="41"/>
       <c r="D583" s="42"/>
     </row>
-    <row r="584" spans="2:4" ht="14.4">
+    <row r="584" spans="2:4">
       <c r="B584" s="40"/>
       <c r="C584" s="41"/>
       <c r="D584" s="42"/>
     </row>
-    <row r="585" spans="2:4" ht="14.4">
+    <row r="585" spans="2:4">
       <c r="B585" s="40"/>
       <c r="C585" s="41"/>
       <c r="D585" s="42"/>
     </row>
-    <row r="586" spans="2:4" ht="14.4">
+    <row r="586" spans="2:4">
       <c r="B586" s="40"/>
       <c r="C586" s="41"/>
       <c r="D586" s="42"/>
     </row>
-    <row r="587" spans="2:4" ht="14.4">
+    <row r="587" spans="2:4">
       <c r="B587" s="40"/>
       <c r="C587" s="41"/>
       <c r="D587" s="42"/>
     </row>
-    <row r="588" spans="2:4" ht="14.4">
+    <row r="588" spans="2:4">
       <c r="B588" s="40"/>
       <c r="C588" s="41"/>
       <c r="D588" s="42"/>
     </row>
-    <row r="589" spans="2:4" ht="14.4">
+    <row r="589" spans="2:4">
       <c r="B589" s="40"/>
       <c r="C589" s="41"/>
       <c r="D589" s="42"/>
     </row>
-    <row r="590" spans="2:4" ht="14.4">
+    <row r="590" spans="2:4">
       <c r="B590" s="40"/>
       <c r="C590" s="41"/>
       <c r="D590" s="42"/>
     </row>
-    <row r="591" spans="2:4" ht="14.4">
+    <row r="591" spans="2:4">
       <c r="B591" s="40"/>
       <c r="C591" s="41"/>
       <c r="D591" s="42"/>
     </row>
-    <row r="592" spans="2:4" ht="14.4">
+    <row r="592" spans="2:4">
       <c r="B592" s="40"/>
       <c r="C592" s="41"/>
       <c r="D592" s="42"/>
     </row>
-    <row r="593" spans="2:4" ht="14.4">
+    <row r="593" spans="2:4">
       <c r="B593" s="40"/>
       <c r="C593" s="41"/>
       <c r="D593" s="42"/>
     </row>
-    <row r="594" spans="2:4" ht="14.4">
+    <row r="594" spans="2:4">
       <c r="B594" s="40"/>
       <c r="C594" s="41"/>
       <c r="D594" s="42"/>
     </row>
-    <row r="595" spans="2:4" ht="14.4">
+    <row r="595" spans="2:4">
       <c r="B595" s="40"/>
       <c r="C595" s="41"/>
       <c r="D595" s="42"/>
     </row>
-    <row r="596" spans="2:4" ht="14.4">
+    <row r="596" spans="2:4">
       <c r="B596" s="40"/>
       <c r="C596" s="41"/>
       <c r="D596" s="42"/>
     </row>
-    <row r="597" spans="2:4" ht="14.4">
+    <row r="597" spans="2:4">
       <c r="B597" s="40"/>
       <c r="C597" s="41"/>
       <c r="D597" s="42"/>
     </row>
-    <row r="598" spans="2:4" ht="14.4">
+    <row r="598" spans="2:4">
       <c r="B598" s="40"/>
       <c r="C598" s="41"/>
       <c r="D598" s="42"/>
     </row>
-    <row r="599" spans="2:4" ht="14.4">
+    <row r="599" spans="2:4">
       <c r="B599" s="40"/>
       <c r="C599" s="41"/>
       <c r="D599" s="42"/>
     </row>
-    <row r="600" spans="2:4" ht="14.4">
+    <row r="600" spans="2:4">
       <c r="B600" s="40"/>
       <c r="C600" s="41"/>
       <c r="D600" s="42"/>
     </row>
-    <row r="601" spans="2:4" ht="14.4">
+    <row r="601" spans="2:4">
       <c r="B601" s="40"/>
       <c r="C601" s="41"/>
       <c r="D601" s="42"/>
     </row>
-    <row r="602" spans="2:4" ht="14.4">
+    <row r="602" spans="2:4">
       <c r="B602" s="40"/>
       <c r="C602" s="41"/>
       <c r="D602" s="42"/>
     </row>
-    <row r="603" spans="2:4" ht="14.4">
+    <row r="603" spans="2:4">
       <c r="B603" s="40"/>
       <c r="C603" s="41"/>
       <c r="D603" s="42"/>
     </row>
-    <row r="604" spans="2:4" ht="14.4">
+    <row r="604" spans="2:4">
       <c r="B604" s="40"/>
       <c r="C604" s="41"/>
       <c r="D604" s="42"/>
     </row>
-    <row r="605" spans="2:4" ht="14.4">
+    <row r="605" spans="2:4">
       <c r="B605" s="40"/>
       <c r="C605" s="41"/>
       <c r="D605" s="42"/>
     </row>
-    <row r="606" spans="2:4" ht="14.4">
+    <row r="606" spans="2:4">
       <c r="B606" s="40"/>
       <c r="C606" s="41"/>
       <c r="D606" s="42"/>
     </row>
-    <row r="607" spans="2:4" ht="14.4">
+    <row r="607" spans="2:4">
       <c r="B607" s="40"/>
       <c r="C607" s="41"/>
       <c r="D607" s="42"/>
     </row>
-    <row r="608" spans="2:4" ht="14.4">
+    <row r="608" spans="2:4">
       <c r="B608" s="40"/>
       <c r="C608" s="41"/>
       <c r="D608" s="42"/>
     </row>
-    <row r="609" spans="2:4" ht="14.4">
+    <row r="609" spans="2:4">
       <c r="B609" s="40"/>
       <c r="C609" s="41"/>
       <c r="D609" s="42"/>
     </row>
-    <row r="610" spans="2:4" ht="14.4">
+    <row r="610" spans="2:4">
       <c r="B610" s="40"/>
       <c r="C610" s="41"/>
       <c r="D610" s="42"/>
     </row>
-    <row r="611" spans="2:4" ht="14.4">
+    <row r="611" spans="2:4">
       <c r="B611" s="40"/>
       <c r="C611" s="41"/>
       <c r="D611" s="42"/>
     </row>
-    <row r="612" spans="2:4" ht="14.4">
+    <row r="612" spans="2:4">
       <c r="B612" s="40"/>
       <c r="C612" s="41"/>
       <c r="D612" s="42"/>
     </row>
-    <row r="613" spans="2:4" ht="14.4">
+    <row r="613" spans="2:4">
       <c r="B613" s="40"/>
       <c r="C613" s="41"/>
       <c r="D613" s="42"/>
     </row>
-    <row r="614" spans="2:4" ht="14.4">
+    <row r="614" spans="2:4">
       <c r="B614" s="40"/>
       <c r="C614" s="41"/>
       <c r="D614" s="42"/>
     </row>
-    <row r="615" spans="2:4" ht="14.4">
+    <row r="615" spans="2:4">
       <c r="B615" s="40"/>
       <c r="C615" s="41"/>
       <c r="D615" s="42"/>
     </row>
-    <row r="616" spans="2:4" ht="14.4">
+    <row r="616" spans="2:4">
       <c r="B616" s="40"/>
       <c r="C616" s="41"/>
       <c r="D616" s="42"/>
     </row>
-    <row r="617" spans="2:4" ht="14.4">
+    <row r="617" spans="2:4">
       <c r="B617" s="40"/>
       <c r="C617" s="41"/>
       <c r="D617" s="42"/>
     </row>
-    <row r="618" spans="2:4" ht="14.4">
+    <row r="618" spans="2:4">
       <c r="B618" s="40"/>
       <c r="C618" s="41"/>
       <c r="D618" s="42"/>
     </row>
-    <row r="619" spans="2:4" ht="14.4">
+    <row r="619" spans="2:4">
       <c r="B619" s="40"/>
       <c r="C619" s="41"/>
       <c r="D619" s="42"/>
     </row>
-    <row r="620" spans="2:4" ht="14.4">
+    <row r="620" spans="2:4">
       <c r="B620" s="40"/>
       <c r="C620" s="41"/>
       <c r="D620" s="42"/>
     </row>
-    <row r="621" spans="2:4" ht="14.4">
+    <row r="621" spans="2:4">
       <c r="B621" s="40"/>
       <c r="C621" s="41"/>
       <c r="D621" s="42"/>
     </row>
-    <row r="622" spans="2:4" ht="14.4">
+    <row r="622" spans="2:4">
       <c r="B622" s="40"/>
       <c r="C622" s="41"/>
       <c r="D622" s="42"/>
     </row>
-    <row r="623" spans="2:4" ht="14.4">
+    <row r="623" spans="2:4">
       <c r="B623" s="40"/>
       <c r="C623" s="41"/>
       <c r="D623" s="42"/>
     </row>
-    <row r="624" spans="2:4" ht="14.4">
+    <row r="624" spans="2:4">
       <c r="B624" s="40"/>
       <c r="C624" s="41"/>
       <c r="D624" s="42"/>
     </row>
-    <row r="625" spans="2:4" ht="14.4">
+    <row r="625" spans="2:4">
       <c r="B625" s="40"/>
       <c r="C625" s="41"/>
       <c r="D625" s="42"/>
     </row>
-    <row r="626" spans="2:4" ht="14.4">
+    <row r="626" spans="2:4">
       <c r="B626" s="40"/>
       <c r="C626" s="41"/>
       <c r="D626" s="42"/>
     </row>
-    <row r="627" spans="2:4" ht="14.4">
+    <row r="627" spans="2:4">
       <c r="B627" s="40"/>
       <c r="C627" s="41"/>
       <c r="D627" s="42"/>
     </row>
-    <row r="628" spans="2:4" ht="14.4">
+    <row r="628" spans="2:4">
       <c r="B628" s="40"/>
       <c r="C628" s="41"/>
       <c r="D628" s="42"/>
     </row>
-    <row r="629" spans="2:4" ht="14.4">
+    <row r="629" spans="2:4">
       <c r="B629" s="40"/>
       <c r="C629" s="41"/>
       <c r="D629" s="42"/>
     </row>
-    <row r="630" spans="2:4" ht="14.4">
+    <row r="630" spans="2:4">
       <c r="B630" s="40"/>
       <c r="C630" s="41"/>
       <c r="D630" s="42"/>
     </row>
-    <row r="631" spans="2:4" ht="14.4">
+    <row r="631" spans="2:4">
       <c r="B631" s="40"/>
       <c r="C631" s="41"/>
       <c r="D631" s="42"/>
     </row>
-    <row r="632" spans="2:4" ht="14.4">
+    <row r="632" spans="2:4">
       <c r="B632" s="40"/>
       <c r="C632" s="41"/>
       <c r="D632" s="42"/>
     </row>
-    <row r="633" spans="2:4" ht="14.4">
+    <row r="633" spans="2:4">
       <c r="B633" s="40"/>
       <c r="C633" s="41"/>
       <c r="D633" s="42"/>
     </row>
-    <row r="634" spans="2:4" ht="14.4">
+    <row r="634" spans="2:4">
       <c r="B634" s="40"/>
       <c r="C634" s="41"/>
       <c r="D634" s="42"/>
     </row>
-    <row r="635" spans="2:4" ht="14.4">
+    <row r="635" spans="2:4">
       <c r="B635" s="40"/>
       <c r="C635" s="41"/>
       <c r="D635" s="42"/>
     </row>
-    <row r="636" spans="2:4" ht="14.4">
+    <row r="636" spans="2:4">
       <c r="B636" s="40"/>
       <c r="C636" s="41"/>
       <c r="D636" s="42"/>
     </row>
-    <row r="637" spans="2:4" ht="14.4">
+    <row r="637" spans="2:4">
       <c r="B637" s="40"/>
       <c r="C637" s="41"/>
       <c r="D637" s="42"/>
     </row>
-    <row r="638" spans="2:4" ht="14.4">
+    <row r="638" spans="2:4">
       <c r="B638" s="40"/>
       <c r="C638" s="41"/>
       <c r="D638" s="42"/>
     </row>
-    <row r="639" spans="2:4" ht="14.4">
+    <row r="639" spans="2:4">
       <c r="B639" s="40"/>
       <c r="C639" s="41"/>
       <c r="D639" s="42"/>
     </row>
-    <row r="640" spans="2:4" ht="14.4">
+    <row r="640" spans="2:4">
       <c r="B640" s="40"/>
       <c r="C640" s="41"/>
       <c r="D640" s="42"/>
     </row>
-    <row r="641" spans="2:4" ht="14.4">
+    <row r="641" spans="2:4">
       <c r="B641" s="40"/>
       <c r="C641" s="41"/>
       <c r="D641" s="42"/>
     </row>
-    <row r="642" spans="2:4" ht="14.4">
+    <row r="642" spans="2:4">
       <c r="B642" s="40"/>
       <c r="C642" s="41"/>
       <c r="D642" s="42"/>
     </row>
-    <row r="643" spans="2:4" ht="14.4">
+    <row r="643" spans="2:4">
       <c r="B643" s="40"/>
       <c r="C643" s="41"/>
       <c r="D643" s="42"/>
     </row>
-    <row r="644" spans="2:4" ht="14.4">
+    <row r="644" spans="2:4">
       <c r="B644" s="40"/>
       <c r="C644" s="41"/>
       <c r="D644" s="42"/>
     </row>
-    <row r="645" spans="2:4" ht="14.4">
+    <row r="645" spans="2:4">
       <c r="B645" s="40"/>
       <c r="C645" s="41"/>
       <c r="D645" s="42"/>
     </row>
-    <row r="646" spans="2:4" ht="14.4">
+    <row r="646" spans="2:4">
       <c r="B646" s="40"/>
       <c r="C646" s="41"/>
       <c r="D646" s="42"/>
     </row>
-    <row r="647" spans="2:4" ht="14.4">
+    <row r="647" spans="2:4">
       <c r="B647" s="40"/>
       <c r="C647" s="41"/>
       <c r="D647" s="42"/>
     </row>
-    <row r="648" spans="2:4" ht="14.4">
+    <row r="648" spans="2:4">
       <c r="B648" s="40"/>
       <c r="C648" s="41"/>
       <c r="D648" s="42"/>
     </row>
-    <row r="649" spans="2:4" ht="14.4">
+    <row r="649" spans="2:4">
       <c r="B649" s="40"/>
       <c r="C649" s="41"/>
       <c r="D649" s="42"/>
     </row>
-    <row r="650" spans="2:4" ht="14.4">
+    <row r="650" spans="2:4">
       <c r="B650" s="40"/>
       <c r="C650" s="41"/>
       <c r="D650" s="42"/>
     </row>
-    <row r="651" spans="2:4" ht="14.4">
+    <row r="651" spans="2:4">
       <c r="B651" s="40"/>
       <c r="C651" s="41"/>
       <c r="D651" s="42"/>
     </row>
-    <row r="652" spans="2:4" ht="14.4">
+    <row r="652" spans="2:4">
       <c r="B652" s="40"/>
       <c r="C652" s="41"/>
       <c r="D652" s="42"/>
     </row>
-    <row r="653" spans="2:4" ht="14.4">
+    <row r="653" spans="2:4">
       <c r="B653" s="40"/>
       <c r="C653" s="41"/>
       <c r="D653" s="42"/>
     </row>
-    <row r="654" spans="2:4" ht="14.4">
+    <row r="654" spans="2:4">
       <c r="B654" s="40"/>
       <c r="C654" s="41"/>
       <c r="D654" s="42"/>
     </row>
-    <row r="655" spans="2:4" ht="14.4">
+    <row r="655" spans="2:4">
       <c r="B655" s="40"/>
       <c r="C655" s="41"/>
       <c r="D655" s="42"/>
     </row>
-    <row r="656" spans="2:4" ht="14.4">
+    <row r="656" spans="2:4">
       <c r="B656" s="40"/>
       <c r="C656" s="41"/>
       <c r="D656" s="42"/>
     </row>
-    <row r="657" spans="2:4" ht="14.4">
+    <row r="657" spans="2:4">
       <c r="B657" s="40"/>
       <c r="C657" s="41"/>
       <c r="D657" s="42"/>
     </row>
-    <row r="658" spans="2:4" ht="14.4">
+    <row r="658" spans="2:4">
       <c r="B658" s="40"/>
       <c r="C658" s="41"/>
       <c r="D658" s="42"/>
     </row>
-    <row r="659" spans="2:4" ht="14.4">
+    <row r="659" spans="2:4">
       <c r="B659" s="40"/>
       <c r="C659" s="41"/>
       <c r="D659" s="42"/>
     </row>
-    <row r="660" spans="2:4" ht="14.4">
+    <row r="660" spans="2:4">
       <c r="B660" s="40"/>
       <c r="C660" s="41"/>
       <c r="D660" s="42"/>
     </row>
-    <row r="661" spans="2:4" ht="14.4">
+    <row r="661" spans="2:4">
       <c r="B661" s="40"/>
       <c r="C661" s="41"/>
       <c r="D661" s="42"/>
     </row>
-    <row r="662" spans="2:4" ht="14.4">
+    <row r="662" spans="2:4">
       <c r="B662" s="40"/>
       <c r="C662" s="41"/>
       <c r="D662" s="42"/>
     </row>
-    <row r="663" spans="2:4" ht="14.4">
+    <row r="663" spans="2:4">
       <c r="B663" s="40"/>
       <c r="C663" s="41"/>
       <c r="D663" s="42"/>
     </row>
-    <row r="664" spans="2:4" ht="14.4">
+    <row r="664" spans="2:4">
       <c r="B664" s="40"/>
       <c r="C664" s="41"/>
       <c r="D664" s="42"/>
     </row>
-    <row r="665" spans="2:4" ht="14.4">
+    <row r="665" spans="2:4">
       <c r="B665" s="40"/>
       <c r="C665" s="41"/>
       <c r="D665" s="42"/>
     </row>
-    <row r="666" spans="2:4" ht="14.4">
+    <row r="666" spans="2:4">
       <c r="B666" s="40"/>
       <c r="C666" s="41"/>
       <c r="D666" s="42"/>
     </row>
-    <row r="667" spans="2:4" ht="14.4">
+    <row r="667" spans="2:4">
       <c r="B667" s="40"/>
       <c r="C667" s="41"/>
       <c r="D667" s="42"/>
     </row>
-    <row r="668" spans="2:4" ht="14.4">
+    <row r="668" spans="2:4">
       <c r="B668" s="40"/>
       <c r="C668" s="41"/>
       <c r="D668" s="42"/>
     </row>
-    <row r="669" spans="2:4" ht="14.4">
+    <row r="669" spans="2:4">
       <c r="B669" s="40"/>
       <c r="C669" s="41"/>
       <c r="D669" s="42"/>
     </row>
-    <row r="670" spans="2:4" ht="14.4">
+    <row r="670" spans="2:4">
       <c r="B670" s="40"/>
       <c r="C670" s="41"/>
       <c r="D670" s="42"/>
     </row>
-    <row r="671" spans="2:4" ht="14.4">
+    <row r="671" spans="2:4">
       <c r="B671" s="40"/>
       <c r="C671" s="41"/>
       <c r="D671" s="42"/>
     </row>
-    <row r="672" spans="2:4" ht="14.4">
+    <row r="672" spans="2:4">
       <c r="B672" s="40"/>
       <c r="C672" s="41"/>
       <c r="D672" s="42"/>
     </row>
-    <row r="673" spans="2:4" ht="14.4">
+    <row r="673" spans="2:4">
       <c r="B673" s="40"/>
       <c r="C673" s="41"/>
       <c r="D673" s="42"/>
     </row>
-    <row r="674" spans="2:4" ht="14.4">
+    <row r="674" spans="2:4">
       <c r="B674" s="40"/>
       <c r="C674" s="41"/>
       <c r="D674" s="42"/>
     </row>
-    <row r="675" spans="2:4" ht="14.4">
+    <row r="675" spans="2:4">
       <c r="B675" s="40"/>
       <c r="C675" s="41"/>
       <c r="D675" s="42"/>
     </row>
-    <row r="676" spans="2:4" ht="14.4">
+    <row r="676" spans="2:4">
       <c r="B676" s="40"/>
       <c r="C676" s="41"/>
       <c r="D676" s="42"/>
     </row>
-    <row r="677" spans="2:4" ht="14.4">
+    <row r="677" spans="2:4">
       <c r="B677" s="40"/>
       <c r="C677" s="41"/>
       <c r="D677" s="42"/>
     </row>
-    <row r="678" spans="2:4" ht="14.4">
+    <row r="678" spans="2:4">
       <c r="B678" s="40"/>
       <c r="C678" s="41"/>
       <c r="D678" s="42"/>
     </row>
-    <row r="679" spans="2:4" ht="14.4">
+    <row r="679" spans="2:4">
       <c r="B679" s="40"/>
       <c r="C679" s="41"/>
       <c r="D679" s="42"/>
     </row>
-    <row r="680" spans="2:4" ht="14.4">
+    <row r="680" spans="2:4">
       <c r="B680" s="40"/>
       <c r="C680" s="41"/>
       <c r="D680" s="42"/>
     </row>
-    <row r="681" spans="2:4" ht="14.4">
+    <row r="681" spans="2:4">
       <c r="B681" s="40"/>
       <c r="C681" s="41"/>
       <c r="D681" s="42"/>
     </row>
-    <row r="682" spans="2:4" ht="14.4">
+    <row r="682" spans="2:4">
       <c r="B682" s="40"/>
       <c r="C682" s="41"/>
       <c r="D682" s="42"/>
     </row>
-    <row r="683" spans="2:4" ht="14.4">
+    <row r="683" spans="2:4">
       <c r="B683" s="40"/>
       <c r="C683" s="41"/>
       <c r="D683" s="42"/>
     </row>
-    <row r="684" spans="2:4" ht="14.4">
+    <row r="684" spans="2:4">
       <c r="B684" s="40"/>
       <c r="C684" s="41"/>
       <c r="D684" s="42"/>
     </row>
-    <row r="685" spans="2:4" ht="14.4">
+    <row r="685" spans="2:4">
       <c r="B685" s="40"/>
       <c r="C685" s="41"/>
       <c r="D685" s="42"/>
     </row>
-    <row r="686" spans="2:4" ht="14.4">
+    <row r="686" spans="2:4">
       <c r="B686" s="40"/>
       <c r="C686" s="41"/>
       <c r="D686" s="42"/>
     </row>
-    <row r="687" spans="2:4" ht="14.4">
+    <row r="687" spans="2:4">
       <c r="B687" s="40"/>
       <c r="C687" s="41"/>
       <c r="D687" s="42"/>
     </row>
-    <row r="688" spans="2:4" ht="14.4">
+    <row r="688" spans="2:4">
       <c r="B688" s="40"/>
       <c r="C688" s="41"/>
       <c r="D688" s="42"/>
     </row>
-    <row r="689" spans="2:4" ht="14.4">
+    <row r="689" spans="2:4">
       <c r="B689" s="40"/>
       <c r="C689" s="41"/>
       <c r="D689" s="42"/>
     </row>
-    <row r="690" spans="2:4" ht="14.4">
+    <row r="690" spans="2:4">
       <c r="B690" s="40"/>
       <c r="C690" s="41"/>
       <c r="D690" s="42"/>
     </row>
-    <row r="691" spans="2:4" ht="14.4">
+    <row r="691" spans="2:4">
       <c r="B691" s="40"/>
       <c r="C691" s="41"/>
       <c r="D691" s="42"/>
     </row>
-    <row r="692" spans="2:4" ht="14.4">
+    <row r="692" spans="2:4">
       <c r="B692" s="40"/>
       <c r="C692" s="41"/>
       <c r="D692" s="42"/>
     </row>
-    <row r="693" spans="2:4" ht="14.4">
+    <row r="693" spans="2:4">
       <c r="B693" s="40"/>
       <c r="C693" s="41"/>
       <c r="D693" s="42"/>
     </row>
-    <row r="694" spans="2:4" ht="14.4">
+    <row r="694" spans="2:4">
       <c r="B694" s="40"/>
       <c r="C694" s="41"/>
       <c r="D694" s="42"/>
     </row>
-    <row r="695" spans="2:4" ht="14.4">
+    <row r="695" spans="2:4">
       <c r="B695" s="40"/>
       <c r="C695" s="41"/>
       <c r="D695" s="42"/>
     </row>
-    <row r="696" spans="2:4" ht="14.4">
+    <row r="696" spans="2:4">
       <c r="B696" s="40"/>
       <c r="C696" s="41"/>
       <c r="D696" s="42"/>
     </row>
-    <row r="697" spans="2:4" ht="14.4">
+    <row r="697" spans="2:4">
       <c r="B697" s="40"/>
       <c r="C697" s="41"/>
       <c r="D697" s="42"/>
     </row>
-    <row r="698" spans="2:4" ht="14.4">
+    <row r="698" spans="2:4">
       <c r="B698" s="40"/>
       <c r="C698" s="41"/>
       <c r="D698" s="42"/>
     </row>
-    <row r="699" spans="2:4" ht="14.4">
+    <row r="699" spans="2:4">
       <c r="B699" s="40"/>
       <c r="C699" s="41"/>
       <c r="D699" s="42"/>
     </row>
-    <row r="700" spans="2:4" ht="14.4">
+    <row r="700" spans="2:4">
       <c r="B700" s="40"/>
       <c r="C700" s="41"/>
       <c r="D700" s="42"/>
     </row>
-    <row r="701" spans="2:4" ht="14.4">
+    <row r="701" spans="2:4">
       <c r="B701" s="40"/>
       <c r="C701" s="41"/>
       <c r="D701" s="42"/>
     </row>
-    <row r="702" spans="2:4" ht="14.4">
+    <row r="702" spans="2:4">
       <c r="B702" s="40"/>
       <c r="C702" s="41"/>
       <c r="D702" s="42"/>
     </row>
-    <row r="703" spans="2:4" ht="14.4">
+    <row r="703" spans="2:4">
       <c r="B703" s="40"/>
       <c r="C703" s="41"/>
       <c r="D703" s="42"/>
     </row>
-    <row r="704" spans="2:4" ht="14.4">
+    <row r="704" spans="2:4">
       <c r="B704" s="40"/>
       <c r="C704" s="41"/>
       <c r="D704" s="42"/>
     </row>
-    <row r="705" spans="2:4" ht="14.4">
+    <row r="705" spans="2:4">
       <c r="B705" s="40"/>
       <c r="C705" s="41"/>
       <c r="D705" s="42"/>
     </row>
-    <row r="706" spans="2:4" ht="14.4">
+    <row r="706" spans="2:4">
       <c r="B706" s="40"/>
       <c r="C706" s="41"/>
       <c r="D706" s="42"/>
     </row>
-    <row r="707" spans="2:4" ht="14.4">
+    <row r="707" spans="2:4">
       <c r="B707" s="40"/>
       <c r="C707" s="41"/>
       <c r="D707" s="42"/>
     </row>
-    <row r="708" spans="2:4" ht="14.4">
+    <row r="708" spans="2:4">
       <c r="B708" s="40"/>
       <c r="C708" s="41"/>
       <c r="D708" s="42"/>
     </row>
-    <row r="709" spans="2:4" ht="14.4">
+    <row r="709" spans="2:4">
       <c r="B709" s="40"/>
       <c r="C709" s="41"/>
       <c r="D709" s="42"/>
     </row>
-    <row r="710" spans="2:4" ht="14.4">
+    <row r="710" spans="2:4">
       <c r="B710" s="40"/>
       <c r="C710" s="41"/>
       <c r="D710" s="42"/>
     </row>
-    <row r="711" spans="2:4" ht="14.4">
+    <row r="711" spans="2:4">
       <c r="B711" s="40"/>
       <c r="C711" s="41"/>
       <c r="D711" s="42"/>
     </row>
-    <row r="712" spans="2:4" ht="14.4">
+    <row r="712" spans="2:4">
       <c r="B712" s="40"/>
       <c r="C712" s="41"/>
       <c r="D712" s="42"/>
     </row>
-    <row r="713" spans="2:4" ht="14.4">
+    <row r="713" spans="2:4">
       <c r="B713" s="40"/>
       <c r="C713" s="41"/>
       <c r="D713" s="42"/>
     </row>
-    <row r="714" spans="2:4" ht="14.4">
+    <row r="714" spans="2:4">
       <c r="B714" s="40"/>
       <c r="C714" s="41"/>
       <c r="D714" s="42"/>
     </row>
-    <row r="715" spans="2:4" ht="14.4">
+    <row r="715" spans="2:4">
       <c r="B715" s="40"/>
       <c r="C715" s="41"/>
       <c r="D715" s="42"/>
     </row>
-    <row r="716" spans="2:4" ht="14.4">
+    <row r="716" spans="2:4">
       <c r="B716" s="40"/>
       <c r="C716" s="41"/>
       <c r="D716" s="42"/>
     </row>
-    <row r="717" spans="2:4" ht="14.4">
+    <row r="717" spans="2:4">
       <c r="B717" s="40"/>
       <c r="C717" s="41"/>
       <c r="D717" s="42"/>
     </row>
-    <row r="718" spans="2:4" ht="14.4">
+    <row r="718" spans="2:4">
       <c r="B718" s="40"/>
       <c r="C718" s="41"/>
       <c r="D718" s="42"/>
     </row>
-    <row r="719" spans="2:4" ht="14.4">
+    <row r="719" spans="2:4">
       <c r="B719" s="40"/>
       <c r="C719" s="41"/>
       <c r="D719" s="42"/>
     </row>
-    <row r="720" spans="2:4" ht="14.4">
+    <row r="720" spans="2:4">
       <c r="B720" s="40"/>
       <c r="C720" s="41"/>
       <c r="D720" s="42"/>
     </row>
-    <row r="721" spans="2:4" ht="14.4">
+    <row r="721" spans="2:4">
       <c r="B721" s="40"/>
       <c r="C721" s="41"/>
       <c r="D721" s="42"/>
     </row>
-    <row r="722" spans="2:4" ht="14.4">
+    <row r="722" spans="2:4">
       <c r="B722" s="40"/>
       <c r="C722" s="41"/>
       <c r="D722" s="42"/>
     </row>
-    <row r="723" spans="2:4" ht="14.4">
+    <row r="723" spans="2:4">
       <c r="B723" s="40"/>
       <c r="C723" s="41"/>
       <c r="D723" s="42"/>
     </row>
-    <row r="724" spans="2:4" ht="14.4">
+    <row r="724" spans="2:4">
       <c r="B724" s="40"/>
       <c r="C724" s="41"/>
       <c r="D724" s="42"/>
     </row>
-    <row r="725" spans="2:4" ht="14.4">
+    <row r="725" spans="2:4">
       <c r="B725" s="40"/>
       <c r="C725" s="41"/>
       <c r="D725" s="42"/>
     </row>
-    <row r="726" spans="2:4" ht="14.4">
+    <row r="726" spans="2:4">
       <c r="B726" s="40"/>
       <c r="C726" s="41"/>
       <c r="D726" s="42"/>
     </row>
-    <row r="727" spans="2:4" ht="14.4">
+    <row r="727" spans="2:4">
       <c r="B727" s="40"/>
       <c r="C727" s="41"/>
       <c r="D727" s="42"/>
     </row>
-    <row r="728" spans="2:4" ht="14.4">
+    <row r="728" spans="2:4">
       <c r="B728" s="40"/>
       <c r="C728" s="41"/>
       <c r="D728" s="42"/>
     </row>
-    <row r="729" spans="2:4" ht="14.4">
+    <row r="729" spans="2:4">
       <c r="B729" s="40"/>
       <c r="C729" s="41"/>
       <c r="D729" s="42"/>
     </row>
-    <row r="730" spans="2:4" ht="14.4">
+    <row r="730" spans="2:4">
       <c r="B730" s="40"/>
       <c r="C730" s="41"/>
       <c r="D730" s="42"/>
     </row>
-    <row r="731" spans="2:4" ht="14.4">
+    <row r="731" spans="2:4">
       <c r="B731" s="40"/>
       <c r="C731" s="41"/>
       <c r="D731" s="42"/>
     </row>
-    <row r="732" spans="2:4" ht="14.4">
+    <row r="732" spans="2:4">
       <c r="B732" s="40"/>
       <c r="C732" s="41"/>
       <c r="D732" s="42"/>
     </row>
-    <row r="733" spans="2:4" ht="14.4">
+    <row r="733" spans="2:4">
       <c r="B733" s="40"/>
       <c r="C733" s="41"/>
       <c r="D733" s="42"/>
     </row>
-    <row r="734" spans="2:4" ht="14.4">
+    <row r="734" spans="2:4">
       <c r="B734" s="40"/>
       <c r="C734" s="41"/>
       <c r="D734" s="42"/>
     </row>
-    <row r="735" spans="2:4" ht="14.4">
+    <row r="735" spans="2:4">
       <c r="B735" s="40"/>
       <c r="C735" s="41"/>
       <c r="D735" s="42"/>
     </row>
-    <row r="736" spans="2:4" ht="14.4">
+    <row r="736" spans="2:4">
       <c r="B736" s="40"/>
       <c r="C736" s="41"/>
       <c r="D736" s="42"/>
     </row>
-    <row r="737" spans="2:4" ht="14.4">
+    <row r="737" spans="2:4">
       <c r="B737" s="40"/>
       <c r="C737" s="41"/>
       <c r="D737" s="42"/>
     </row>
-    <row r="738" spans="2:4" ht="14.4">
+    <row r="738" spans="2:4">
       <c r="B738" s="40"/>
       <c r="C738" s="41"/>
       <c r="D738" s="42"/>
     </row>
-    <row r="739" spans="2:4" ht="14.4">
+    <row r="739" spans="2:4">
       <c r="B739" s="40"/>
       <c r="C739" s="41"/>
       <c r="D739" s="42"/>
     </row>
-    <row r="740" spans="2:4" ht="14.4">
+    <row r="740" spans="2:4">
       <c r="B740" s="40"/>
       <c r="C740" s="41"/>
       <c r="D740" s="42"/>
     </row>
-    <row r="741" spans="2:4" ht="14.4">
+    <row r="741" spans="2:4">
       <c r="B741" s="40"/>
       <c r="C741" s="41"/>
       <c r="D741" s="42"/>
     </row>
-    <row r="742" spans="2:4" ht="14.4">
+    <row r="742" spans="2:4">
       <c r="B742" s="40"/>
       <c r="C742" s="41"/>
       <c r="D742" s="42"/>
     </row>
-    <row r="743" spans="2:4" ht="14.4">
+    <row r="743" spans="2:4">
       <c r="B743" s="40"/>
       <c r="C743" s="41"/>
       <c r="D743" s="42"/>
     </row>
-    <row r="744" spans="2:4" ht="14.4">
+    <row r="744" spans="2:4">
       <c r="B744" s="40"/>
       <c r="C744" s="41"/>
       <c r="D744" s="42"/>
     </row>
-    <row r="745" spans="2:4" ht="14.4">
+    <row r="745" spans="2:4">
       <c r="B745" s="40"/>
       <c r="C745" s="41"/>
       <c r="D745" s="42"/>
     </row>
-    <row r="746" spans="2:4" ht="14.4">
+    <row r="746" spans="2:4">
       <c r="B746" s="40"/>
       <c r="C746" s="41"/>
       <c r="D746" s="42"/>
     </row>
-    <row r="747" spans="2:4" ht="14.4">
+    <row r="747" spans="2:4">
       <c r="B747" s="40"/>
       <c r="C747" s="41"/>
       <c r="D747" s="42"/>
     </row>
-    <row r="748" spans="2:4" ht="14.4">
+    <row r="748" spans="2:4">
       <c r="B748" s="40"/>
       <c r="C748" s="41"/>
       <c r="D748" s="42"/>
     </row>
-    <row r="749" spans="2:4" ht="14.4">
+    <row r="749" spans="2:4">
       <c r="B749" s="40"/>
       <c r="C749" s="41"/>
       <c r="D749" s="42"/>
     </row>
-    <row r="750" spans="2:4" ht="14.4">
+    <row r="750" spans="2:4">
       <c r="B750" s="40"/>
       <c r="C750" s="41"/>
       <c r="D750" s="42"/>
     </row>
-    <row r="751" spans="2:4" ht="14.4">
+    <row r="751" spans="2:4">
       <c r="B751" s="40"/>
       <c r="C751" s="41"/>
       <c r="D751" s="42"/>
     </row>
-    <row r="752" spans="2:4" ht="14.4">
+    <row r="752" spans="2:4">
       <c r="B752" s="40"/>
       <c r="C752" s="41"/>
       <c r="D752" s="42"/>
     </row>
-    <row r="753" spans="2:4" ht="14.4">
+    <row r="753" spans="2:4">
       <c r="B753" s="40"/>
       <c r="C753" s="41"/>
       <c r="D753" s="42"/>
     </row>
-    <row r="754" spans="2:4" ht="14.4">
+    <row r="754" spans="2:4">
       <c r="B754" s="40"/>
       <c r="C754" s="41"/>
       <c r="D754" s="42"/>
     </row>
-    <row r="755" spans="2:4" ht="14.4">
+    <row r="755" spans="2:4">
       <c r="B755" s="40"/>
       <c r="C755" s="41"/>
       <c r="D755" s="42"/>
     </row>
-    <row r="756" spans="2:4" ht="14.4">
+    <row r="756" spans="2:4">
       <c r="B756" s="40"/>
       <c r="C756" s="41"/>
       <c r="D756" s="42"/>
     </row>
-    <row r="757" spans="2:4" ht="14.4">
+    <row r="757" spans="2:4">
       <c r="B757" s="40"/>
       <c r="C757" s="41"/>
       <c r="D757" s="42"/>
     </row>
-    <row r="758" spans="2:4" ht="14.4">
+    <row r="758" spans="2:4">
       <c r="B758" s="40"/>
       <c r="C758" s="41"/>
       <c r="D758" s="42"/>
     </row>
-    <row r="759" spans="2:4" ht="14.4">
+    <row r="759" spans="2:4">
       <c r="B759" s="40"/>
       <c r="C759" s="41"/>
       <c r="D759" s="42"/>
     </row>
-    <row r="760" spans="2:4" ht="14.4">
+    <row r="760" spans="2:4">
       <c r="B760" s="40"/>
       <c r="C760" s="41"/>
       <c r="D760" s="42"/>
     </row>
-    <row r="761" spans="2:4" ht="14.4">
+    <row r="761" spans="2:4">
       <c r="B761" s="40"/>
       <c r="C761" s="41"/>
       <c r="D761" s="42"/>
     </row>
-    <row r="762" spans="2:4" ht="14.4">
+    <row r="762" spans="2:4">
       <c r="B762" s="40"/>
       <c r="C762" s="41"/>
       <c r="D762" s="42"/>
     </row>
-    <row r="763" spans="2:4" ht="14.4">
+    <row r="763" spans="2:4">
       <c r="B763" s="40"/>
       <c r="C763" s="41"/>
       <c r="D763" s="42"/>
     </row>
-    <row r="764" spans="2:4" ht="14.4">
+    <row r="764" spans="2:4">
       <c r="B764" s="40"/>
       <c r="C764" s="41"/>
       <c r="D764" s="42"/>
     </row>
-    <row r="765" spans="2:4" ht="14.4">
+    <row r="765" spans="2:4">
       <c r="B765" s="40"/>
       <c r="C765" s="41"/>
       <c r="D765" s="42"/>
     </row>
-    <row r="766" spans="2:4" ht="14.4">
+    <row r="766" spans="2:4">
       <c r="B766" s="40"/>
       <c r="C766" s="41"/>
       <c r="D766" s="42"/>
     </row>
-    <row r="767" spans="2:4" ht="14.4">
+    <row r="767" spans="2:4">
       <c r="B767" s="40"/>
       <c r="C767" s="41"/>
       <c r="D767" s="42"/>
     </row>
-    <row r="768" spans="2:4" ht="14.4">
+    <row r="768" spans="2:4">
       <c r="B768" s="40"/>
       <c r="C768" s="41"/>
       <c r="D768" s="42"/>
     </row>
-    <row r="769" spans="2:4" ht="14.4">
+    <row r="769" spans="2:4">
       <c r="B769" s="40"/>
       <c r="C769" s="41"/>
       <c r="D769" s="42"/>
     </row>
-    <row r="770" spans="2:4" ht="14.4">
+    <row r="770" spans="2:4">
       <c r="B770" s="40"/>
       <c r="C770" s="41"/>
       <c r="D770" s="42"/>
     </row>
-    <row r="771" spans="2:4" ht="14.4">
+    <row r="771" spans="2:4">
       <c r="B771" s="40"/>
       <c r="C771" s="41"/>
       <c r="D771" s="42"/>
     </row>
-    <row r="772" spans="2:4" ht="14.4">
+    <row r="772" spans="2:4">
       <c r="B772" s="40"/>
       <c r="C772" s="41"/>
       <c r="D772" s="42"/>
     </row>
-    <row r="773" spans="2:4" ht="14.4">
+    <row r="773" spans="2:4">
       <c r="B773" s="40"/>
       <c r="C773" s="41"/>
       <c r="D773" s="42"/>
     </row>
-    <row r="774" spans="2:4" ht="14.4">
+    <row r="774" spans="2:4">
       <c r="B774" s="40"/>
       <c r="C774" s="41"/>
       <c r="D774" s="42"/>
     </row>
-    <row r="775" spans="2:4" ht="14.4">
+    <row r="775" spans="2:4">
       <c r="B775" s="40"/>
       <c r="C775" s="41"/>
       <c r="D775" s="42"/>
     </row>
-    <row r="776" spans="2:4" ht="14.4">
+    <row r="776" spans="2:4">
       <c r="B776" s="40"/>
       <c r="C776" s="41"/>
       <c r="D776" s="42"/>
     </row>
-    <row r="777" spans="2:4" ht="14.4">
+    <row r="777" spans="2:4">
       <c r="B777" s="40"/>
       <c r="C777" s="41"/>
       <c r="D777" s="42"/>
     </row>
-    <row r="778" spans="2:4" ht="14.4">
+    <row r="778" spans="2:4">
       <c r="B778" s="40"/>
       <c r="C778" s="41"/>
       <c r="D778" s="42"/>
     </row>
-    <row r="779" spans="2:4" ht="14.4">
+    <row r="779" spans="2:4">
       <c r="B779" s="40"/>
       <c r="C779" s="41"/>
       <c r="D779" s="42"/>
     </row>
-    <row r="780" spans="2:4" ht="14.4">
+    <row r="780" spans="2:4">
       <c r="B780" s="40"/>
       <c r="C780" s="41"/>
       <c r="D780" s="42"/>
     </row>
-    <row r="781" spans="2:4" ht="14.4">
+    <row r="781" spans="2:4">
       <c r="B781" s="40"/>
       <c r="C781" s="41"/>
       <c r="D781" s="42"/>
     </row>
-    <row r="782" spans="2:4" ht="14.4">
+    <row r="782" spans="2:4">
       <c r="B782" s="40"/>
       <c r="C782" s="41"/>
       <c r="D782" s="42"/>
     </row>
-    <row r="783" spans="2:4" ht="14.4">
+    <row r="783" spans="2:4">
       <c r="B783" s="40"/>
       <c r="C783" s="41"/>
       <c r="D783" s="42"/>
     </row>
-    <row r="784" spans="2:4" ht="14.4">
+    <row r="784" spans="2:4">
       <c r="B784" s="40"/>
       <c r="C784" s="41"/>
       <c r="D784" s="42"/>
     </row>
-    <row r="785" spans="2:4" ht="14.4">
+    <row r="785" spans="2:4">
       <c r="B785" s="40"/>
       <c r="C785" s="41"/>
       <c r="D785" s="42"/>
     </row>
-    <row r="786" spans="2:4" ht="14.4">
+    <row r="786" spans="2:4">
       <c r="B786" s="40"/>
       <c r="C786" s="41"/>
       <c r="D786" s="42"/>
     </row>
-    <row r="787" spans="2:4" ht="14.4">
+    <row r="787" spans="2:4">
       <c r="B787" s="40"/>
       <c r="C787" s="41"/>
       <c r="D787" s="42"/>
     </row>
-    <row r="788" spans="2:4" ht="14.4">
+    <row r="788" spans="2:4">
       <c r="B788" s="40"/>
       <c r="C788" s="41"/>
       <c r="D788" s="42"/>
     </row>
-    <row r="789" spans="2:4" ht="14.4">
+    <row r="789" spans="2:4">
       <c r="B789" s="40"/>
       <c r="C789" s="41"/>
       <c r="D789" s="42"/>
     </row>
-    <row r="790" spans="2:4" ht="14.4">
+    <row r="790" spans="2:4">
       <c r="B790" s="40"/>
       <c r="C790" s="41"/>
       <c r="D790" s="42"/>
     </row>
-    <row r="791" spans="2:4" ht="14.4">
+    <row r="791" spans="2:4">
       <c r="B791" s="40"/>
       <c r="C791" s="41"/>
       <c r="D791" s="42"/>
     </row>
-    <row r="792" spans="2:4" ht="14.4">
+    <row r="792" spans="2:4">
       <c r="B792" s="40"/>
       <c r="C792" s="41"/>
       <c r="D792" s="42"/>
     </row>
-    <row r="793" spans="2:4" ht="14.4">
+    <row r="793" spans="2:4">
       <c r="B793" s="40"/>
       <c r="C793" s="41"/>
       <c r="D793" s="42"/>
     </row>
-    <row r="794" spans="2:4" ht="14.4">
+    <row r="794" spans="2:4">
       <c r="B794" s="40"/>
       <c r="C794" s="41"/>
       <c r="D794" s="42"/>
     </row>
-    <row r="795" spans="2:4" ht="14.4">
+    <row r="795" spans="2:4">
       <c r="B795" s="40"/>
       <c r="C795" s="41"/>
       <c r="D795" s="42"/>
     </row>
-    <row r="796" spans="2:4" ht="14.4">
+    <row r="796" spans="2:4">
       <c r="B796" s="40"/>
       <c r="C796" s="41"/>
       <c r="D796" s="42"/>
     </row>
-    <row r="797" spans="2:4" ht="14.4">
+    <row r="797" spans="2:4">
       <c r="B797" s="40"/>
       <c r="C797" s="41"/>
       <c r="D797" s="42"/>
     </row>
-    <row r="798" spans="2:4" ht="14.4">
+    <row r="798" spans="2:4">
       <c r="B798" s="40"/>
       <c r="C798" s="41"/>
       <c r="D798" s="42"/>
     </row>
-    <row r="799" spans="2:4" ht="14.4">
+    <row r="799" spans="2:4">
       <c r="B799" s="40"/>
       <c r="C799" s="41"/>
       <c r="D799" s="42"/>
     </row>
-    <row r="800" spans="2:4" ht="14.4">
+    <row r="800" spans="2:4">
       <c r="B800" s="40"/>
       <c r="C800" s="41"/>
       <c r="D800" s="42"/>
     </row>
-    <row r="801" spans="2:4" ht="14.4">
+    <row r="801" spans="2:4">
       <c r="B801" s="40"/>
       <c r="C801" s="41"/>
       <c r="D801" s="42"/>
     </row>
-    <row r="802" spans="2:4" ht="14.4">
+    <row r="802" spans="2:4">
       <c r="B802" s="40"/>
       <c r="C802" s="41"/>
       <c r="D802" s="42"/>
     </row>
-    <row r="803" spans="2:4" ht="14.4">
+    <row r="803" spans="2:4">
       <c r="B803" s="40"/>
       <c r="C803" s="41"/>
       <c r="D803" s="42"/>
     </row>
-    <row r="804" spans="2:4" ht="14.4">
+    <row r="804" spans="2:4">
       <c r="B804" s="40"/>
       <c r="C804" s="41"/>
       <c r="D804" s="42"/>
     </row>
-    <row r="805" spans="2:4" ht="14.4">
+    <row r="805" spans="2:4">
       <c r="B805" s="40"/>
       <c r="C805" s="41"/>
       <c r="D805" s="42"/>
     </row>
-    <row r="806" spans="2:4" ht="14.4">
+    <row r="806" spans="2:4">
       <c r="B806" s="40"/>
       <c r="C806" s="41"/>
       <c r="D806" s="42"/>
     </row>
-    <row r="807" spans="2:4" ht="14.4">
+    <row r="807" spans="2:4">
       <c r="B807" s="40"/>
       <c r="C807" s="41"/>
       <c r="D807" s="42"/>
     </row>
-    <row r="808" spans="2:4" ht="14.4">
+    <row r="808" spans="2:4">
       <c r="B808" s="40"/>
       <c r="C808" s="41"/>
       <c r="D808" s="42"/>
     </row>
-    <row r="809" spans="2:4" ht="14.4">
+    <row r="809" spans="2:4">
       <c r="B809" s="40"/>
       <c r="C809" s="41"/>
       <c r="D809" s="42"/>
     </row>
-    <row r="810" spans="2:4" ht="14.4">
+    <row r="810" spans="2:4">
       <c r="B810" s="40"/>
       <c r="C810" s="41"/>
       <c r="D810" s="42"/>
     </row>
-    <row r="811" spans="2:4" ht="14.4">
+    <row r="811" spans="2:4">
       <c r="B811" s="40"/>
       <c r="C811" s="41"/>
       <c r="D811" s="42"/>
     </row>
-    <row r="812" spans="2:4" ht="14.4">
+    <row r="812" spans="2:4">
       <c r="B812" s="40"/>
       <c r="C812" s="41"/>
       <c r="D812" s="42"/>
     </row>
-    <row r="813" spans="2:4" ht="14.4">
+    <row r="813" spans="2:4">
       <c r="B813" s="40"/>
       <c r="C813" s="41"/>
       <c r="D813" s="42"/>
     </row>
-    <row r="814" spans="2:4" ht="14.4">
+    <row r="814" spans="2:4">
       <c r="B814" s="40"/>
       <c r="C814" s="41"/>
       <c r="D814" s="42"/>
     </row>
-    <row r="815" spans="2:4" ht="14.4">
+    <row r="815" spans="2:4">
       <c r="B815" s="40"/>
       <c r="C815" s="41"/>
       <c r="D815" s="42"/>
     </row>
-    <row r="816" spans="2:4" ht="14.4">
+    <row r="816" spans="2:4">
       <c r="B816" s="40"/>
       <c r="C816" s="41"/>
       <c r="D816" s="42"/>
     </row>
-    <row r="817" spans="2:4" ht="14.4">
+    <row r="817" spans="2:4">
       <c r="B817" s="40"/>
       <c r="C817" s="41"/>
       <c r="D817" s="42"/>
     </row>
-    <row r="818" spans="2:4" ht="14.4">
+    <row r="818" spans="2:4">
       <c r="B818" s="40"/>
       <c r="C818" s="41"/>
       <c r="D818" s="42"/>
     </row>
-    <row r="819" spans="2:4" ht="14.4">
+    <row r="819" spans="2:4">
       <c r="B819" s="40"/>
       <c r="C819" s="41"/>
       <c r="D819" s="42"/>
     </row>
-    <row r="820" spans="2:4" ht="14.4">
+    <row r="820" spans="2:4">
       <c r="B820" s="40"/>
       <c r="C820" s="41"/>
       <c r="D820" s="42"/>
     </row>
-    <row r="821" spans="2:4" ht="14.4">
+    <row r="821" spans="2:4">
       <c r="B821" s="40"/>
       <c r="C821" s="41"/>
       <c r="D821" s="42"/>
     </row>
-    <row r="822" spans="2:4" ht="14.4">
+    <row r="822" spans="2:4">
       <c r="B822" s="40"/>
       <c r="C822" s="41"/>
       <c r="D822" s="42"/>
     </row>
-    <row r="823" spans="2:4" ht="14.4">
+    <row r="823" spans="2:4">
       <c r="B823" s="40"/>
       <c r="C823" s="41"/>
       <c r="D823" s="42"/>
     </row>
-    <row r="824" spans="2:4" ht="14.4">
+    <row r="824" spans="2:4">
       <c r="B824" s="40"/>
       <c r="C824" s="41"/>
       <c r="D824" s="42"/>
     </row>
-    <row r="825" spans="2:4" ht="14.4">
+    <row r="825" spans="2:4">
       <c r="B825" s="40"/>
       <c r="C825" s="41"/>
       <c r="D825" s="42"/>
     </row>
-    <row r="826" spans="2:4" ht="14.4">
+    <row r="826" spans="2:4">
       <c r="B826" s="40"/>
       <c r="C826" s="41"/>
       <c r="D826" s="42"/>
     </row>
-    <row r="827" spans="2:4" ht="14.4">
+    <row r="827" spans="2:4">
       <c r="B827" s="40"/>
       <c r="C827" s="41"/>
       <c r="D827" s="42"/>
     </row>
-    <row r="828" spans="2:4" ht="14.4">
+    <row r="828" spans="2:4">
       <c r="B828" s="40"/>
       <c r="C828" s="41"/>
       <c r="D828" s="42"/>
     </row>
-    <row r="829" spans="2:4" ht="14.4">
+    <row r="829" spans="2:4">
       <c r="B829" s="40"/>
       <c r="C829" s="41"/>
       <c r="D829" s="42"/>
     </row>
-    <row r="830" spans="2:4" ht="14.4">
+    <row r="830" spans="2:4">
       <c r="B830" s="40"/>
       <c r="C830" s="41"/>
       <c r="D830" s="42"/>
     </row>
-    <row r="831" spans="2:4" ht="14.4">
+    <row r="831" spans="2:4">
       <c r="B831" s="40"/>
       <c r="C831" s="41"/>
       <c r="D831" s="42"/>
     </row>
-    <row r="832" spans="2:4" ht="14.4">
+    <row r="832" spans="2:4">
       <c r="B832" s="40"/>
       <c r="C832" s="41"/>
       <c r="D832" s="42"/>
     </row>
-    <row r="833" spans="2:4" ht="14.4">
+    <row r="833" spans="2:4">
       <c r="B833" s="40"/>
       <c r="C833" s="41"/>
       <c r="D833" s="42"/>
     </row>
-    <row r="834" spans="2:4" ht="14.4">
+    <row r="834" spans="2:4">
       <c r="B834" s="40"/>
       <c r="C834" s="41"/>
       <c r="D834" s="42"/>
     </row>
-    <row r="835" spans="2:4" ht="14.4">
+    <row r="835" spans="2:4">
       <c r="B835" s="40"/>
       <c r="C835" s="41"/>
       <c r="D835" s="42"/>
     </row>
-    <row r="836" spans="2:4" ht="14.4">
+    <row r="836" spans="2:4">
       <c r="B836" s="40"/>
       <c r="C836" s="41"/>
       <c r="D836" s="42"/>
     </row>
-    <row r="837" spans="2:4" ht="14.4">
+    <row r="837" spans="2:4">
       <c r="B837" s="40"/>
       <c r="C837" s="41"/>
       <c r="D837" s="42"/>
     </row>
-    <row r="838" spans="2:4" ht="14.4">
+    <row r="838" spans="2:4">
       <c r="B838" s="40"/>
       <c r="C838" s="41"/>
       <c r="D838" s="42"/>
     </row>
-    <row r="839" spans="2:4" ht="14.4">
+    <row r="839" spans="2:4">
       <c r="B839" s="40"/>
       <c r="C839" s="41"/>
       <c r="D839" s="42"/>
     </row>
-    <row r="840" spans="2:4" ht="14.4">
+    <row r="840" spans="2:4">
       <c r="B840" s="40"/>
       <c r="C840" s="41"/>
       <c r="D840" s="42"/>
     </row>
-    <row r="841" spans="2:4" ht="14.4">
+    <row r="841" spans="2:4">
       <c r="B841" s="40"/>
       <c r="C841" s="41"/>
       <c r="D841" s="42"/>
     </row>
-    <row r="842" spans="2:4" ht="14.4">
+    <row r="842" spans="2:4">
       <c r="B842" s="40"/>
       <c r="C842" s="41"/>
       <c r="D842" s="42"/>
     </row>
-    <row r="843" spans="2:4" ht="14.4">
+    <row r="843" spans="2:4">
       <c r="B843" s="40"/>
       <c r="C843" s="41"/>
       <c r="D843" s="42"/>
     </row>
-    <row r="844" spans="2:4" ht="14.4">
+    <row r="844" spans="2:4">
       <c r="B844" s="40"/>
       <c r="C844" s="41"/>
       <c r="D844" s="42"/>
     </row>
-    <row r="845" spans="2:4" ht="14.4">
+    <row r="845" spans="2:4">
       <c r="B845" s="40"/>
       <c r="C845" s="41"/>
       <c r="D845" s="42"/>
     </row>
-    <row r="846" spans="2:4" ht="14.4">
+    <row r="846" spans="2:4">
       <c r="B846" s="40"/>
       <c r="C846" s="41"/>
       <c r="D846" s="42"/>
     </row>
-    <row r="847" spans="2:4" ht="14.4">
+    <row r="847" spans="2:4">
       <c r="B847" s="40"/>
       <c r="C847" s="41"/>
       <c r="D847" s="42"/>
     </row>
-    <row r="848" spans="2:4" ht="14.4">
+    <row r="848" spans="2:4">
       <c r="B848" s="40"/>
       <c r="C848" s="41"/>
       <c r="D848" s="42"/>
     </row>
-    <row r="849" spans="2:4" ht="14.4">
+    <row r="849" spans="2:4">
       <c r="B849" s="40"/>
       <c r="C849" s="41"/>
       <c r="D849" s="42"/>
     </row>
-    <row r="850" spans="2:4" ht="14.4">
+    <row r="850" spans="2:4">
       <c r="B850" s="40"/>
       <c r="C850" s="41"/>
       <c r="D850" s="42"/>
     </row>
-    <row r="851" spans="2:4" ht="14.4">
+    <row r="851" spans="2:4">
       <c r="B851" s="40"/>
       <c r="C851" s="41"/>
       <c r="D851" s="42"/>
     </row>
-    <row r="852" spans="2:4" ht="14.4">
+    <row r="852" spans="2:4">
       <c r="B852" s="40"/>
       <c r="C852" s="41"/>
       <c r="D852" s="42"/>
     </row>
-    <row r="853" spans="2:4" ht="14.4">
+    <row r="853" spans="2:4">
       <c r="B853" s="40"/>
       <c r="C853" s="41"/>
       <c r="D853" s="42"/>
     </row>
-    <row r="854" spans="2:4" ht="14.4">
+    <row r="854" spans="2:4">
       <c r="B854" s="40"/>
       <c r="C854" s="41"/>
       <c r="D854" s="42"/>
     </row>
-    <row r="855" spans="2:4" ht="14.4">
+    <row r="855" spans="2:4">
       <c r="B855" s="40"/>
       <c r="C855" s="41"/>
       <c r="D855" s="42"/>
     </row>
-    <row r="856" spans="2:4" ht="14.4">
+    <row r="856" spans="2:4">
       <c r="B856" s="40"/>
       <c r="C856" s="41"/>
       <c r="D856" s="42"/>
     </row>
-    <row r="857" spans="2:4" ht="14.4">
+    <row r="857" spans="2:4">
       <c r="B857" s="40"/>
       <c r="C857" s="41"/>
       <c r="D857" s="42"/>
     </row>
-    <row r="858" spans="2:4" ht="14.4">
+    <row r="858" spans="2:4">
       <c r="B858" s="40"/>
       <c r="C858" s="41"/>
       <c r="D858" s="42"/>
     </row>
-    <row r="859" spans="2:4" ht="14.4">
+    <row r="859" spans="2:4">
       <c r="B859" s="40"/>
       <c r="C859" s="41"/>
       <c r="D859" s="42"/>
     </row>
-    <row r="860" spans="2:4" ht="14.4">
+    <row r="860" spans="2:4">
       <c r="B860" s="40"/>
       <c r="C860" s="41"/>
       <c r="D860" s="42"/>
     </row>
-    <row r="861" spans="2:4" ht="14.4">
+    <row r="861" spans="2:4">
       <c r="B861" s="40"/>
       <c r="C861" s="41"/>
       <c r="D861" s="42"/>
     </row>
-    <row r="862" spans="2:4" ht="14.4">
+    <row r="862" spans="2:4">
       <c r="B862" s="40"/>
       <c r="C862" s="41"/>
       <c r="D862" s="42"/>
     </row>
-    <row r="863" spans="2:4" ht="14.4">
+    <row r="863" spans="2:4">
       <c r="B863" s="40"/>
       <c r="C863" s="41"/>
       <c r="D863" s="42"/>
     </row>
-    <row r="864" spans="2:4" ht="14.4">
+    <row r="864" spans="2:4">
       <c r="B864" s="40"/>
       <c r="C864" s="41"/>
       <c r="D864" s="42"/>
     </row>
-    <row r="865" spans="2:4" ht="14.4">
+    <row r="865" spans="2:4">
       <c r="B865" s="40"/>
       <c r="C865" s="41"/>
       <c r="D865" s="42"/>
     </row>
-    <row r="866" spans="2:4" ht="14.4">
+    <row r="866" spans="2:4">
       <c r="B866" s="40"/>
       <c r="C866" s="41"/>
       <c r="D866" s="42"/>
     </row>
-    <row r="867" spans="2:4" ht="14.4">
+    <row r="867" spans="2:4">
       <c r="B867" s="40"/>
       <c r="C867" s="41"/>
       <c r="D867" s="42"/>
     </row>
-    <row r="868" spans="2:4" ht="14.4">
+    <row r="868" spans="2:4">
       <c r="B868" s="40"/>
       <c r="C868" s="41"/>
       <c r="D868" s="42"/>
     </row>
-    <row r="869" spans="2:4" ht="14.4">
+    <row r="869" spans="2:4">
       <c r="B869" s="40"/>
       <c r="C869" s="41"/>
       <c r="D869" s="42"/>
     </row>
-    <row r="870" spans="2:4" ht="14.4">
+    <row r="870" spans="2:4">
       <c r="B870" s="40"/>
       <c r="C870" s="41"/>
       <c r="D870" s="42"/>
     </row>
-    <row r="871" spans="2:4" ht="14.4">
+    <row r="871" spans="2:4">
       <c r="B871" s="40"/>
       <c r="C871" s="41"/>
       <c r="D871" s="42"/>
     </row>
-    <row r="872" spans="2:4" ht="14.4">
+    <row r="872" spans="2:4">
       <c r="B872" s="40"/>
       <c r="C872" s="41"/>
       <c r="D872" s="42"/>
     </row>
-    <row r="873" spans="2:4" ht="14.4">
+    <row r="873" spans="2:4">
       <c r="B873" s="40"/>
       <c r="C873" s="41"/>
       <c r="D873" s="42"/>
     </row>
-    <row r="874" spans="2:4" ht="14.4">
+    <row r="874" spans="2:4">
       <c r="B874" s="40"/>
       <c r="C874" s="41"/>
       <c r="D874" s="42"/>
     </row>
-    <row r="875" spans="2:4" ht="14.4">
+    <row r="875" spans="2:4">
       <c r="B875" s="40"/>
       <c r="C875" s="41"/>
       <c r="D875" s="42"/>
     </row>
-    <row r="876" spans="2:4" ht="14.4">
+    <row r="876" spans="2:4">
       <c r="B876" s="40"/>
       <c r="C876" s="41"/>
       <c r="D876" s="42"/>
     </row>
-    <row r="877" spans="2:4" ht="14.4">
+    <row r="877" spans="2:4">
       <c r="B877" s="40"/>
       <c r="C877" s="41"/>
       <c r="D877" s="42"/>
     </row>
-    <row r="878" spans="2:4" ht="14.4">
+    <row r="878" spans="2:4">
       <c r="B878" s="40"/>
       <c r="C878" s="41"/>
       <c r="D878" s="42"/>
     </row>
-    <row r="879" spans="2:4" ht="14.4">
+    <row r="879" spans="2:4">
       <c r="B879" s="40"/>
       <c r="C879" s="41"/>
       <c r="D879" s="42"/>
     </row>
-    <row r="880" spans="2:4" ht="14.4">
+    <row r="880" spans="2:4">
       <c r="B880" s="40"/>
       <c r="C880" s="41"/>
       <c r="D880" s="42"/>
     </row>
-    <row r="881" spans="2:4" ht="14.4">
+    <row r="881" spans="2:4">
       <c r="B881" s="40"/>
       <c r="C881" s="41"/>
       <c r="D881" s="42"/>
     </row>
-    <row r="882" spans="2:4" ht="14.4">
+    <row r="882" spans="2:4">
       <c r="B882" s="40"/>
       <c r="C882" s="41"/>
       <c r="D882" s="42"/>
     </row>
-    <row r="883" spans="2:4" ht="14.4">
+    <row r="883" spans="2:4">
       <c r="B883" s="40"/>
       <c r="C883" s="41"/>
       <c r="D883" s="42"/>
     </row>
-    <row r="884" spans="2:4" ht="14.4">
+    <row r="884" spans="2:4">
       <c r="B884" s="40"/>
       <c r="C884" s="41"/>
       <c r="D884" s="42"/>
     </row>
-    <row r="885" spans="2:4" ht="14.4">
+    <row r="885" spans="2:4">
       <c r="B885" s="40"/>
       <c r="C885" s="41"/>
       <c r="D885" s="42"/>
     </row>
-    <row r="886" spans="2:4" ht="14.4">
+    <row r="886" spans="2:4">
       <c r="B886" s="40"/>
       <c r="C886" s="41"/>
       <c r="D886" s="42"/>
     </row>
-    <row r="887" spans="2:4" ht="14.4">
+    <row r="887" spans="2:4">
       <c r="B887" s="40"/>
       <c r="C887" s="41"/>
       <c r="D887" s="42"/>
     </row>
-    <row r="888" spans="2:4" ht="14.4">
+    <row r="888" spans="2:4">
       <c r="B888" s="40"/>
       <c r="C888" s="41"/>
       <c r="D888" s="42"/>
     </row>
-    <row r="889" spans="2:4" ht="14.4">
+    <row r="889" spans="2:4">
       <c r="B889" s="40"/>
       <c r="C889" s="41"/>
       <c r="D889" s="42"/>
     </row>
-    <row r="890" spans="2:4" ht="14.4">
+    <row r="890" spans="2:4">
       <c r="B890" s="40"/>
       <c r="C890" s="41"/>
       <c r="D890" s="42"/>
     </row>
-    <row r="891" spans="2:4" ht="14.4">
+    <row r="891" spans="2:4">
       <c r="B891" s="40"/>
       <c r="C891" s="41"/>
       <c r="D891" s="42"/>
     </row>
-    <row r="892" spans="2:4" ht="14.4">
+    <row r="892" spans="2:4">
       <c r="B892" s="40"/>
       <c r="C892" s="41"/>
       <c r="D892" s="42"/>
     </row>
-    <row r="893" spans="2:4" ht="14.4">
+    <row r="893" spans="2:4">
       <c r="B893" s="40"/>
       <c r="C893" s="41"/>
       <c r="D893" s="42"/>
     </row>
-    <row r="894" spans="2:4" ht="14.4">
+    <row r="894" spans="2:4">
       <c r="B894" s="40"/>
       <c r="C894" s="41"/>
       <c r="D894" s="42"/>
     </row>
-    <row r="895" spans="2:4" ht="14.4">
+    <row r="895" spans="2:4">
       <c r="B895" s="40"/>
       <c r="C895" s="41"/>
       <c r="D895" s="42"/>
     </row>
-    <row r="896" spans="2:4" ht="14.4">
+    <row r="896" spans="2:4">
       <c r="B896" s="40"/>
       <c r="C896" s="41"/>
       <c r="D896" s="42"/>
     </row>
-    <row r="897" spans="2:4" ht="14.4">
+    <row r="897" spans="2:4">
       <c r="B897" s="40"/>
       <c r="C897" s="41"/>
       <c r="D897" s="42"/>
     </row>
-    <row r="898" spans="2:4" ht="14.4">
+    <row r="898" spans="2:4">
       <c r="B898" s="40"/>
       <c r="C898" s="41"/>
       <c r="D898" s="42"/>
     </row>
-    <row r="899" spans="2:4" ht="14.4">
+    <row r="899" spans="2:4">
       <c r="B899" s="40"/>
       <c r="C899" s="41"/>
       <c r="D899" s="42"/>
     </row>
-    <row r="900" spans="2:4" ht="14.4">
+    <row r="900" spans="2:4">
       <c r="B900" s="40"/>
       <c r="C900" s="41"/>
       <c r="D900" s="42"/>
     </row>
-    <row r="901" spans="2:4" ht="14.4">
+    <row r="901" spans="2:4">
       <c r="B901" s="40"/>
       <c r="C901" s="41"/>
       <c r="D901" s="42"/>
     </row>
-    <row r="902" spans="2:4" ht="14.4">
+    <row r="902" spans="2:4">
       <c r="B902" s="40"/>
       <c r="C902" s="41"/>
       <c r="D902" s="42"/>
     </row>
-    <row r="903" spans="2:4" ht="14.4">
+    <row r="903" spans="2:4">
       <c r="B903" s="40"/>
       <c r="C903" s="41"/>
       <c r="D903" s="42"/>
     </row>
-    <row r="904" spans="2:4" ht="14.4">
+    <row r="904" spans="2:4">
       <c r="B904" s="40"/>
       <c r="C904" s="41"/>
       <c r="D904" s="42"/>
     </row>
-    <row r="905" spans="2:4" ht="14.4">
+    <row r="905" spans="2:4">
       <c r="B905" s="40"/>
       <c r="C905" s="41"/>
       <c r="D905" s="42"/>
     </row>
-    <row r="906" spans="2:4" ht="14.4">
+    <row r="906" spans="2:4">
       <c r="B906" s="40"/>
       <c r="C906" s="41"/>
       <c r="D906" s="42"/>
     </row>
-    <row r="907" spans="2:4" ht="14.4">
+    <row r="907" spans="2:4">
       <c r="B907" s="40"/>
       <c r="C907" s="41"/>
       <c r="D907" s="42"/>
     </row>
-    <row r="908" spans="2:4" ht="14.4">
+    <row r="908" spans="2:4">
       <c r="B908" s="40"/>
       <c r="C908" s="41"/>
       <c r="D908" s="42"/>
     </row>
-    <row r="909" spans="2:4" ht="14.4">
+    <row r="909" spans="2:4">
       <c r="B909" s="40"/>
       <c r="C909" s="41"/>
       <c r="D909" s="42"/>
     </row>
-    <row r="910" spans="2:4" ht="14.4">
+    <row r="910" spans="2:4">
       <c r="B910" s="40"/>
       <c r="C910" s="41"/>
       <c r="D910" s="42"/>
     </row>
-    <row r="911" spans="2:4" ht="14.4">
+    <row r="911" spans="2:4">
       <c r="B911" s="40"/>
       <c r="C911" s="41"/>
       <c r="D911" s="42"/>
     </row>
-    <row r="912" spans="2:4" ht="14.4">
+    <row r="912" spans="2:4">
       <c r="B912" s="40"/>
       <c r="C912" s="41"/>
       <c r="D912" s="42"/>
     </row>
-    <row r="913" spans="2:4" ht="14.4">
+    <row r="913" spans="2:4">
       <c r="B913" s="40"/>
       <c r="C913" s="41"/>
       <c r="D913" s="42"/>
     </row>
-    <row r="914" spans="2:4" ht="14.4">
+    <row r="914" spans="2:4">
       <c r="B914" s="40"/>
       <c r="C914" s="41"/>
       <c r="D914" s="42"/>
     </row>
-    <row r="915" spans="2:4" ht="14.4">
+    <row r="915" spans="2:4">
       <c r="B915" s="40"/>
       <c r="C915" s="41"/>
       <c r="D915" s="42"/>
     </row>
-    <row r="916" spans="2:4" ht="14.4">
+    <row r="916" spans="2:4">
       <c r="B916" s="40"/>
       <c r="C916" s="41"/>
       <c r="D916" s="42"/>
     </row>
-    <row r="917" spans="2:4" ht="14.4">
+    <row r="917" spans="2:4">
       <c r="B917" s="40"/>
       <c r="C917" s="41"/>
       <c r="D917" s="42"/>
     </row>
-    <row r="918" spans="2:4" ht="14.4">
+    <row r="918" spans="2:4">
       <c r="B918" s="40"/>
       <c r="C918" s="41"/>
       <c r="D918" s="42"/>
     </row>
-    <row r="919" spans="2:4" ht="14.4">
+    <row r="919" spans="2:4">
       <c r="B919" s="40"/>
       <c r="C919" s="41"/>
       <c r="D919" s="42"/>
     </row>
-    <row r="920" spans="2:4" ht="14.4">
+    <row r="920" spans="2:4">
       <c r="B920" s="40"/>
       <c r="C920" s="41"/>
       <c r="D920" s="42"/>
     </row>
-    <row r="921" spans="2:4" ht="14.4">
+    <row r="921" spans="2:4">
       <c r="B921" s="40"/>
       <c r="C921" s="41"/>
       <c r="D921" s="42"/>
     </row>
-    <row r="922" spans="2:4" ht="14.4">
+    <row r="922" spans="2:4">
       <c r="B922" s="40"/>
       <c r="C922" s="41"/>
       <c r="D922" s="42"/>
     </row>
-    <row r="923" spans="2:4" ht="14.4">
+    <row r="923" spans="2:4">
       <c r="B923" s="40"/>
       <c r="C923" s="41"/>
       <c r="D923" s="42"/>
     </row>
-    <row r="924" spans="2:4" ht="14.4">
+    <row r="924" spans="2:4">
       <c r="B924" s="40"/>
       <c r="C924" s="41"/>
       <c r="D924" s="42"/>
     </row>
-    <row r="925" spans="2:4" ht="14.4">
+    <row r="925" spans="2:4">
       <c r="B925" s="40"/>
       <c r="C925" s="41"/>
       <c r="D925" s="42"/>
     </row>
-    <row r="926" spans="2:4" ht="14.4">
+    <row r="926" spans="2:4">
       <c r="B926" s="40"/>
       <c r="C926" s="41"/>
       <c r="D926" s="42"/>
     </row>
-    <row r="927" spans="2:4" ht="14.4">
+    <row r="927" spans="2:4">
       <c r="B927" s="40"/>
       <c r="C927" s="41"/>
       <c r="D927" s="42"/>
     </row>
-    <row r="928" spans="2:4" ht="14.4">
+    <row r="928" spans="2:4">
       <c r="B928" s="40"/>
       <c r="C928" s="41"/>
       <c r="D928" s="42"/>
     </row>
-    <row r="929" spans="2:4" ht="14.4">
+    <row r="929" spans="2:4">
       <c r="B929" s="40"/>
       <c r="C929" s="41"/>
       <c r="D929" s="42"/>
     </row>
-    <row r="930" spans="2:4" ht="14.4">
+    <row r="930" spans="2:4">
       <c r="B930" s="40"/>
       <c r="C930" s="41"/>
       <c r="D930" s="42"/>
     </row>
-    <row r="931" spans="2:4" ht="14.4">
+    <row r="931" spans="2:4">
       <c r="B931" s="40"/>
       <c r="C931" s="41"/>
       <c r="D931" s="42"/>
     </row>
-    <row r="932" spans="2:4" ht="14.4">
+    <row r="932" spans="2:4">
       <c r="B932" s="40"/>
       <c r="C932" s="41"/>
       <c r="D932" s="42"/>
     </row>
-    <row r="933" spans="2:4" ht="14.4">
+    <row r="933" spans="2:4">
       <c r="B933" s="40"/>
       <c r="C933" s="41"/>
       <c r="D933" s="42"/>
     </row>
-    <row r="934" spans="2:4" ht="14.4">
+    <row r="934" spans="2:4">
       <c r="B934" s="40"/>
       <c r="C934" s="41"/>
       <c r="D934" s="42"/>
     </row>
-    <row r="935" spans="2:4" ht="14.4">
+    <row r="935" spans="2:4">
       <c r="B935" s="40"/>
       <c r="C935" s="41"/>
       <c r="D935" s="42"/>
     </row>
-    <row r="936" spans="2:4" ht="14.4">
+    <row r="936" spans="2:4">
       <c r="B936" s="40"/>
       <c r="C936" s="41"/>
       <c r="D936" s="42"/>
     </row>
-    <row r="937" spans="2:4" ht="14.4">
+    <row r="937" spans="2:4">
       <c r="B937" s="40"/>
       <c r="C937" s="41"/>
       <c r="D937" s="42"/>
     </row>
-    <row r="938" spans="2:4" ht="14.4">
+    <row r="938" spans="2:4">
       <c r="B938" s="40"/>
       <c r="C938" s="41"/>
       <c r="D938" s="42"/>
     </row>
-    <row r="939" spans="2:4" ht="14.4">
+    <row r="939" spans="2:4">
       <c r="B939" s="40"/>
       <c r="C939" s="41"/>
       <c r="D939" s="42"/>
     </row>
-    <row r="940" spans="2:4" ht="14.4">
+    <row r="940" spans="2:4">
       <c r="B940" s="40"/>
       <c r="C940" s="41"/>
       <c r="D940" s="42"/>
     </row>
-    <row r="941" spans="2:4" ht="14.4">
+    <row r="941" spans="2:4">
       <c r="B941" s="40"/>
       <c r="C941" s="41"/>
       <c r="D941" s="42"/>
     </row>
-    <row r="942" spans="2:4" ht="14.4">
+    <row r="942" spans="2:4">
       <c r="B942" s="40"/>
       <c r="C942" s="41"/>
       <c r="D942" s="42"/>
     </row>
-    <row r="943" spans="2:4" ht="14.4">
+    <row r="943" spans="2:4">
       <c r="B943" s="40"/>
       <c r="C943" s="41"/>
       <c r="D943" s="42"/>
     </row>
-    <row r="944" spans="2:4" ht="14.4">
+    <row r="944" spans="2:4">
       <c r="B944" s="40"/>
       <c r="C944" s="41"/>
       <c r="D944" s="42"/>
     </row>
-    <row r="945" spans="2:4" ht="14.4">
+    <row r="945" spans="2:4">
       <c r="B945" s="40"/>
       <c r="C945" s="41"/>
       <c r="D945" s="42"/>
     </row>
-    <row r="946" spans="2:4" ht="14.4">
+    <row r="946" spans="2:4">
       <c r="B946" s="40"/>
       <c r="C946" s="41"/>
       <c r="D946" s="42"/>
     </row>
-    <row r="947" spans="2:4" ht="14.4">
+    <row r="947" spans="2:4">
       <c r="B947" s="40"/>
       <c r="C947" s="41"/>
       <c r="D947" s="42"/>
     </row>
-    <row r="948" spans="2:4" ht="14.4">
+    <row r="948" spans="2:4">
       <c r="B948" s="40"/>
       <c r="C948" s="41"/>
       <c r="D948" s="42"/>
     </row>
-    <row r="949" spans="2:4" ht="14.4">
+    <row r="949" spans="2:4">
       <c r="B949" s="40"/>
       <c r="C949" s="41"/>
       <c r="D949" s="42"/>
     </row>
-    <row r="950" spans="2:4" ht="14.4">
+    <row r="950" spans="2:4">
       <c r="B950" s="40"/>
       <c r="C950" s="41"/>
       <c r="D950" s="42"/>
     </row>
-    <row r="951" spans="2:4" ht="14.4">
+    <row r="951" spans="2:4">
       <c r="B951" s="40"/>
       <c r="C951" s="41"/>
       <c r="D951" s="42"/>
     </row>
-    <row r="952" spans="2:4" ht="14.4">
+    <row r="952" spans="2:4">
       <c r="B952" s="40"/>
       <c r="C952" s="41"/>
       <c r="D952" s="42"/>
     </row>
-    <row r="953" spans="2:4" ht="14.4">
+    <row r="953" spans="2:4">
       <c r="B953" s="40"/>
       <c r="C953" s="41"/>
       <c r="D953" s="42"/>
     </row>
-    <row r="954" spans="2:4" ht="14.4">
+    <row r="954" spans="2:4">
       <c r="B954" s="40"/>
       <c r="C954" s="41"/>
       <c r="D954" s="42"/>
     </row>
-    <row r="955" spans="2:4" ht="14.4">
+    <row r="955" spans="2:4">
       <c r="B955" s="40"/>
       <c r="C955" s="41"/>
       <c r="D955" s="42"/>
     </row>
-    <row r="956" spans="2:4" ht="14.4">
+    <row r="956" spans="2:4">
       <c r="B956" s="40"/>
       <c r="C956" s="41"/>
       <c r="D956" s="42"/>
     </row>
-    <row r="957" spans="2:4" ht="14.4">
+    <row r="957" spans="2:4">
       <c r="B957" s="40"/>
       <c r="C957" s="41"/>
       <c r="D957" s="42"/>
     </row>
-    <row r="958" spans="2:4" ht="14.4">
+    <row r="958" spans="2:4">
       <c r="B958" s="40"/>
       <c r="C958" s="41"/>
       <c r="D958" s="42"/>
     </row>
-    <row r="959" spans="2:4" ht="14.4">
+    <row r="959" spans="2:4">
       <c r="B959" s="40"/>
       <c r="C959" s="41"/>
       <c r="D959" s="42"/>
     </row>
-    <row r="960" spans="2:4" ht="14.4">
+    <row r="960" spans="2:4">
       <c r="B960" s="40"/>
       <c r="C960" s="41"/>
       <c r="D960" s="42"/>
     </row>
-    <row r="961" spans="2:4" ht="14.4">
+    <row r="961" spans="2:4">
       <c r="B961" s="40"/>
       <c r="C961" s="41"/>
       <c r="D961" s="42"/>
     </row>
-    <row r="962" spans="2:4" ht="14.4">
+    <row r="962" spans="2:4">
       <c r="B962" s="40"/>
       <c r="C962" s="41"/>
       <c r="D962" s="42"/>
     </row>
-    <row r="963" spans="2:4" ht="14.4">
+    <row r="963" spans="2:4">
       <c r="B963" s="40"/>
       <c r="C963" s="41"/>
       <c r="D963" s="42"/>
     </row>
-    <row r="964" spans="2:4" ht="14.4">
+    <row r="964" spans="2:4">
       <c r="B964" s="40"/>
       <c r="C964" s="41"/>
       <c r="D964" s="42"/>
     </row>
-    <row r="965" spans="2:4" ht="14.4">
+    <row r="965" spans="2:4">
       <c r="B965" s="40"/>
       <c r="C965" s="41"/>
       <c r="D965" s="42"/>
     </row>
-    <row r="966" spans="2:4" ht="14.4">
+    <row r="966" spans="2:4">
       <c r="B966" s="40"/>
       <c r="C966" s="41"/>
       <c r="D966" s="42"/>
     </row>
-    <row r="967" spans="2:4" ht="14.4">
+    <row r="967" spans="2:4">
       <c r="B967" s="40"/>
       <c r="C967" s="41"/>
       <c r="D967" s="42"/>
     </row>
-    <row r="968" spans="2:4" ht="14.4">
+    <row r="968" spans="2:4">
       <c r="B968" s="40"/>
       <c r="C968" s="41"/>
       <c r="D968" s="42"/>
     </row>
-    <row r="969" spans="2:4" ht="14.4">
+    <row r="969" spans="2:4">
       <c r="B969" s="40"/>
       <c r="C969" s="41"/>
       <c r="D969" s="42"/>
     </row>
-    <row r="970" spans="2:4" ht="14.4">
+    <row r="970" spans="2:4">
       <c r="B970" s="40"/>
       <c r="C970" s="41"/>
       <c r="D970" s="42"/>
     </row>
-    <row r="971" spans="2:4" ht="14.4">
+    <row r="971" spans="2:4">
       <c r="B971" s="40"/>
       <c r="C971" s="41"/>
       <c r="D971" s="42"/>
     </row>
-    <row r="972" spans="2:4" ht="14.4">
+    <row r="972" spans="2:4">
       <c r="B972" s="40"/>
       <c r="C972" s="41"/>
       <c r="D972" s="42"/>
     </row>
-    <row r="973" spans="2:4" ht="14.4">
+    <row r="973" spans="2:4">
       <c r="B973" s="40"/>
       <c r="C973" s="41"/>
       <c r="D973" s="42"/>
     </row>
-    <row r="974" spans="2:4" ht="14.4">
+    <row r="974" spans="2:4">
       <c r="B974" s="40"/>
       <c r="C974" s="41"/>
       <c r="D974" s="42"/>
     </row>
-    <row r="975" spans="2:4" ht="14.4">
+    <row r="975" spans="2:4">
       <c r="B975" s="40"/>
       <c r="C975" s="41"/>
       <c r="D975" s="42"/>
     </row>
-    <row r="976" spans="2:4" ht="14.4">
+    <row r="976" spans="2:4">
       <c r="B976" s="40"/>
       <c r="C976" s="41"/>
       <c r="D976" s="42"/>
     </row>
-    <row r="977" spans="2:4" ht="14.4">
+    <row r="977" spans="2:4">
       <c r="B977" s="40"/>
       <c r="C977" s="41"/>
       <c r="D977" s="42"/>
     </row>
-    <row r="978" spans="2:4" ht="14.4">
+    <row r="978" spans="2:4">
       <c r="B978" s="40"/>
       <c r="C978" s="41"/>
       <c r="D978" s="42"/>
     </row>
-    <row r="979" spans="2:4" ht="14.4">
+    <row r="979" spans="2:4">
       <c r="B979" s="40"/>
       <c r="C979" s="41"/>
       <c r="D979" s="42"/>
     </row>
-    <row r="980" spans="2:4" ht="14.4">
+    <row r="980" spans="2:4">
       <c r="B980" s="40"/>
       <c r="C980" s="41"/>
       <c r="D980" s="42"/>
     </row>
-    <row r="981" spans="2:4" ht="14.4">
+    <row r="981" spans="2:4">
       <c r="B981" s="40"/>
       <c r="C981" s="41"/>
       <c r="D981" s="42"/>
     </row>
-    <row r="982" spans="2:4" ht="14.4">
+    <row r="982" spans="2:4">
       <c r="B982" s="40"/>
       <c r="C982" s="41"/>
       <c r="D982" s="42"/>
     </row>
-    <row r="983" spans="2:4" ht="14.4">
+    <row r="983" spans="2:4">
       <c r="B983" s="40"/>
       <c r="C983" s="41"/>
       <c r="D983" s="42"/>
     </row>
-    <row r="984" spans="2:4" ht="14.4">
+    <row r="984" spans="2:4">
       <c r="B984" s="40"/>
       <c r="C984" s="41"/>
       <c r="D984" s="42"/>
     </row>
-    <row r="985" spans="2:4" ht="14.4">
+    <row r="985" spans="2:4">
       <c r="B985" s="40"/>
       <c r="C985" s="41"/>
       <c r="D985" s="42"/>
     </row>
-    <row r="986" spans="2:4" ht="14.4">
+    <row r="986" spans="2:4">
       <c r="B986" s="40"/>
       <c r="C986" s="41"/>
       <c r="D986" s="42"/>
     </row>
-    <row r="987" spans="2:4" ht="14.4">
+    <row r="987" spans="2:4">
       <c r="B987" s="40"/>
       <c r="C987" s="41"/>
       <c r="D987" s="42"/>
     </row>
-    <row r="988" spans="2:4" ht="14.4">
+    <row r="988" spans="2:4">
       <c r="B988" s="40"/>
       <c r="C988" s="41"/>
       <c r="D988" s="42"/>
     </row>
-    <row r="989" spans="2:4" ht="14.4">
+    <row r="989" spans="2:4">
       <c r="B989" s="40"/>
       <c r="C989" s="41"/>
       <c r="D989" s="42"/>
     </row>
-    <row r="990" spans="2:4" ht="14.4">
+    <row r="990" spans="2:4">
       <c r="B990" s="40"/>
       <c r="C990" s="41"/>
       <c r="D990" s="42"/>
     </row>
-    <row r="991" spans="2:4" ht="14.4">
+    <row r="991" spans="2:4">
       <c r="B991" s="40"/>
       <c r="C991" s="41"/>
       <c r="D991" s="42"/>
     </row>
-    <row r="992" spans="2:4" ht="14.4">
+    <row r="992" spans="2:4">
       <c r="B992" s="40"/>
       <c r="C992" s="41"/>
       <c r="D992" s="42"/>
     </row>
-    <row r="993" spans="2:4" ht="14.4">
+    <row r="993" spans="2:4">
       <c r="B993" s="40"/>
       <c r="C993" s="41"/>
       <c r="D993" s="42"/>
     </row>
-    <row r="994" spans="2:4" ht="14.4">
+    <row r="994" spans="2:4">
       <c r="B994" s="40"/>
       <c r="C994" s="41"/>
       <c r="D994" s="42"/>
     </row>
+    <row r="995" spans="2:4">
+      <c r="B995" s="40"/>
+      <c r="C995" s="41"/>
+      <c r="D995" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="E114:I114"/>
-    <mergeCell ref="E87:I87"/>
+  <mergeCells count="122">
+    <mergeCell ref="E115:I115"/>
     <mergeCell ref="E88:I88"/>
     <mergeCell ref="E89:I89"/>
     <mergeCell ref="E90:I90"/>
     <mergeCell ref="E91:I91"/>
     <mergeCell ref="E92:I92"/>
     <mergeCell ref="E93:I93"/>
+    <mergeCell ref="E94:I94"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="B32:B41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="E112:I112"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="B68:B73"/>
+    <mergeCell ref="B42:B49"/>
     <mergeCell ref="E113:I113"/>
+    <mergeCell ref="E114:I114"/>
     <mergeCell ref="E40:I40"/>
     <mergeCell ref="E41:I41"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="E45:I45"/>
-    <mergeCell ref="B73:B87"/>
-    <mergeCell ref="B88:B101"/>
-    <mergeCell ref="B102:B113"/>
+    <mergeCell ref="B74:B88"/>
+    <mergeCell ref="B89:B102"/>
+    <mergeCell ref="B103:B114"/>
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E33:I33"/>
@@ -8676,60 +8703,61 @@
     <mergeCell ref="E37:I37"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E110:I110"/>
     <mergeCell ref="E111:I111"/>
-    <mergeCell ref="E103:I103"/>
+    <mergeCell ref="E112:I112"/>
     <mergeCell ref="E104:I104"/>
     <mergeCell ref="E105:I105"/>
     <mergeCell ref="E106:I106"/>
     <mergeCell ref="E107:I107"/>
     <mergeCell ref="E108:I108"/>
     <mergeCell ref="E109:I109"/>
-    <mergeCell ref="E101:I101"/>
+    <mergeCell ref="E110:I110"/>
+    <mergeCell ref="E60:I60"/>
     <mergeCell ref="E102:I102"/>
-    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="E103:I103"/>
     <mergeCell ref="E95:I95"/>
     <mergeCell ref="E96:I96"/>
     <mergeCell ref="E97:I97"/>
     <mergeCell ref="E98:I98"/>
     <mergeCell ref="E99:I99"/>
     <mergeCell ref="E100:I100"/>
-    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="E101:I101"/>
     <mergeCell ref="E86:I86"/>
-    <mergeCell ref="E78:I78"/>
+    <mergeCell ref="E87:I87"/>
     <mergeCell ref="E79:I79"/>
     <mergeCell ref="E80:I80"/>
     <mergeCell ref="E81:I81"/>
     <mergeCell ref="E82:I82"/>
     <mergeCell ref="E83:I83"/>
     <mergeCell ref="E84:I84"/>
-    <mergeCell ref="E76:I76"/>
+    <mergeCell ref="E85:I85"/>
     <mergeCell ref="E77:I77"/>
-    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E78:I78"/>
     <mergeCell ref="E70:I70"/>
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="E73:I73"/>
     <mergeCell ref="E74:I74"/>
     <mergeCell ref="E75:I75"/>
+    <mergeCell ref="E76:I76"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E67:I67"/>
     <mergeCell ref="E68:I68"/>
-    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E69:I69"/>
     <mergeCell ref="E61:I61"/>
     <mergeCell ref="E62:I62"/>
     <mergeCell ref="E63:I63"/>
     <mergeCell ref="E64:I64"/>
     <mergeCell ref="E65:I65"/>
     <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E67:I67"/>
     <mergeCell ref="E46:I46"/>
-    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E48:I48"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="E50:I50"/>
     <mergeCell ref="E51:I51"/>
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E54:I54"/>
     <mergeCell ref="E55:I55"/>
     <mergeCell ref="E56:I56"/>
